--- a/data/nzd0012/nzd0012.xlsx
+++ b/data/nzd0012/nzd0012.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15632,6 +15632,64 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>366</v>
+      </c>
+      <c r="C195" t="n">
+        <v>364.88</v>
+      </c>
+      <c r="D195" t="n">
+        <v>365.42</v>
+      </c>
+      <c r="E195" t="n">
+        <v>363.71</v>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="n">
+        <v>380.85</v>
+      </c>
+      <c r="W195" t="n">
+        <v>380.63</v>
+      </c>
+      <c r="X195" t="n">
+        <v>380.56</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>388.92</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>389.39</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>390.39</v>
+      </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15643,7 +15701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17601,6 +17659,16 @@
       </c>
       <c r="B195" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -17769,28 +17837,28 @@
         <v>0.0309</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1468315606419436</v>
+        <v>0.1493776171827871</v>
       </c>
       <c r="J2" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K2" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00311043892004903</v>
+        <v>0.00326165283829627</v>
       </c>
       <c r="M2" t="n">
-        <v>16.08873931246613</v>
+        <v>16.00346940201245</v>
       </c>
       <c r="N2" t="n">
-        <v>397.93254305453</v>
+        <v>395.5488943920006</v>
       </c>
       <c r="O2" t="n">
-        <v>19.94824661604448</v>
+        <v>19.88841105749779</v>
       </c>
       <c r="P2" t="n">
-        <v>360.0965873004896</v>
+        <v>360.0736225444073</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17846,28 +17914,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1864722268343803</v>
+        <v>0.1846035100536743</v>
       </c>
       <c r="J3" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K3" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00695299899181534</v>
+        <v>0.006903989027757573</v>
       </c>
       <c r="M3" t="n">
-        <v>13.12849032751712</v>
+        <v>13.06067046869667</v>
       </c>
       <c r="N3" t="n">
-        <v>289.8653482036668</v>
+        <v>288.1858284699921</v>
       </c>
       <c r="O3" t="n">
-        <v>17.02543239402943</v>
+        <v>16.97603688939182</v>
       </c>
       <c r="P3" t="n">
-        <v>361.7910331482238</v>
+        <v>361.8075778599964</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17923,28 +17991,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1804349587229529</v>
+        <v>0.1763125056992177</v>
       </c>
       <c r="J4" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K4" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007092611678451544</v>
+        <v>0.006862245963492608</v>
       </c>
       <c r="M4" t="n">
-        <v>12.78969440257486</v>
+        <v>12.73906079031653</v>
       </c>
       <c r="N4" t="n">
-        <v>269.3902828824702</v>
+        <v>267.917899220578</v>
       </c>
       <c r="O4" t="n">
-        <v>16.41311313805124</v>
+        <v>16.36819780001995</v>
       </c>
       <c r="P4" t="n">
-        <v>364.502919275917</v>
+        <v>364.5385646101922</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18000,28 +18068,28 @@
         <v>0.031</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2986838288576301</v>
+        <v>0.2985275534263742</v>
       </c>
       <c r="J5" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K5" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01485041977537926</v>
+        <v>0.0150311808387229</v>
       </c>
       <c r="M5" t="n">
-        <v>14.64126657377943</v>
+        <v>14.55796179445353</v>
       </c>
       <c r="N5" t="n">
-        <v>353.644956901338</v>
+        <v>351.6126242044151</v>
       </c>
       <c r="O5" t="n">
-        <v>18.80545019140297</v>
+        <v>18.75133659781124</v>
       </c>
       <c r="P5" t="n">
-        <v>356.2606738550938</v>
+        <v>356.2620078964092</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -18080,7 +18148,7 @@
         <v>0.4426655565454997</v>
       </c>
       <c r="J6" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K6" t="n">
         <v>166</v>
@@ -18157,7 +18225,7 @@
         <v>0.2972258859531676</v>
       </c>
       <c r="J7" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K7" t="n">
         <v>162</v>
@@ -18234,7 +18302,7 @@
         <v>0.2403862827060389</v>
       </c>
       <c r="J8" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K8" t="n">
         <v>161</v>
@@ -18311,7 +18379,7 @@
         <v>0.2962324579922039</v>
       </c>
       <c r="J9" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K9" t="n">
         <v>152</v>
@@ -18388,7 +18456,7 @@
         <v>0.4013642841308812</v>
       </c>
       <c r="J10" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K10" t="n">
         <v>154</v>
@@ -18465,7 +18533,7 @@
         <v>0.3303902116490393</v>
       </c>
       <c r="J11" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K11" t="n">
         <v>144</v>
@@ -18542,7 +18610,7 @@
         <v>0.295062414331735</v>
       </c>
       <c r="J12" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K12" t="n">
         <v>142</v>
@@ -18619,7 +18687,7 @@
         <v>0.3263982364275916</v>
       </c>
       <c r="J13" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K13" t="n">
         <v>155</v>
@@ -18696,7 +18764,7 @@
         <v>0.4052519226550138</v>
       </c>
       <c r="J14" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K14" t="n">
         <v>151</v>
@@ -18773,7 +18841,7 @@
         <v>0.4594253052376065</v>
       </c>
       <c r="J15" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K15" t="n">
         <v>123</v>
@@ -18850,7 +18918,7 @@
         <v>0.572222160132389</v>
       </c>
       <c r="J16" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K16" t="n">
         <v>138</v>
@@ -18927,7 +18995,7 @@
         <v>0.2643032095239938</v>
       </c>
       <c r="J17" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K17" t="n">
         <v>142</v>
@@ -19004,7 +19072,7 @@
         <v>0.5452181907260516</v>
       </c>
       <c r="J18" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" t="n">
         <v>144</v>
@@ -19081,7 +19149,7 @@
         <v>0.474498926771243</v>
       </c>
       <c r="J19" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K19" t="n">
         <v>149</v>
@@ -19158,7 +19226,7 @@
         <v>0.3353839710871013</v>
       </c>
       <c r="J20" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K20" t="n">
         <v>145</v>
@@ -19235,7 +19303,7 @@
         <v>0.06328276404617286</v>
       </c>
       <c r="J21" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K21" t="n">
         <v>137</v>
@@ -19309,28 +19377,28 @@
         <v>0.0447</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1364433257134589</v>
+        <v>0.1401947035894049</v>
       </c>
       <c r="J22" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K22" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003994482476870842</v>
+        <v>0.004277047657686328</v>
       </c>
       <c r="M22" t="n">
-        <v>13.21800302412541</v>
+        <v>13.1498396956974</v>
       </c>
       <c r="N22" t="n">
-        <v>286.041055884887</v>
+        <v>284.0861062988038</v>
       </c>
       <c r="O22" t="n">
-        <v>16.91274832441159</v>
+        <v>16.85485408714071</v>
       </c>
       <c r="P22" t="n">
-        <v>374.4468535816689</v>
+        <v>374.4144715181818</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -19386,28 +19454,28 @@
         <v>0.0418</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.09166258359094566</v>
+        <v>-0.08402767824529478</v>
       </c>
       <c r="J23" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K23" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002197629084646602</v>
+        <v>0.001870266749540161</v>
       </c>
       <c r="M23" t="n">
-        <v>12.20049610326869</v>
+        <v>12.1604860552859</v>
       </c>
       <c r="N23" t="n">
-        <v>232.4404046763422</v>
+        <v>231.0558023324895</v>
       </c>
       <c r="O23" t="n">
-        <v>15.24599634908595</v>
+        <v>15.20051980468068</v>
       </c>
       <c r="P23" t="n">
-        <v>376.7957094119685</v>
+        <v>376.7272109536314</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -19463,28 +19531,28 @@
         <v>0.0427</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09796717302917929</v>
+        <v>-0.0965720053366677</v>
       </c>
       <c r="J24" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K24" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002372380010542741</v>
+        <v>0.002336759932956789</v>
       </c>
       <c r="M24" t="n">
-        <v>12.70165406271651</v>
+        <v>12.62129304288295</v>
       </c>
       <c r="N24" t="n">
-        <v>244.3590462136389</v>
+        <v>242.6589314144259</v>
       </c>
       <c r="O24" t="n">
-        <v>15.6319879162453</v>
+        <v>15.57751364674177</v>
       </c>
       <c r="P24" t="n">
-        <v>381.922816040435</v>
+        <v>381.9103063007294</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -19540,28 +19608,28 @@
         <v>0.044</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.4108280136499102</v>
+        <v>-0.4073703820312167</v>
       </c>
       <c r="J25" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K25" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03997307902918623</v>
+        <v>0.03987393818759222</v>
       </c>
       <c r="M25" t="n">
-        <v>12.85271768611941</v>
+        <v>12.77304063046241</v>
       </c>
       <c r="N25" t="n">
-        <v>245.7485913490763</v>
+        <v>243.8634411653716</v>
       </c>
       <c r="O25" t="n">
-        <v>15.67637047753963</v>
+        <v>15.61612759826749</v>
       </c>
       <c r="P25" t="n">
-        <v>396.8127839803115</v>
+        <v>396.7813813912705</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -19617,28 +19685,28 @@
         <v>0.0358</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.3378353456880252</v>
+        <v>-0.3256432675907123</v>
       </c>
       <c r="J26" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K26" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01952389236219798</v>
+        <v>0.0183711062547921</v>
       </c>
       <c r="M26" t="n">
-        <v>14.85319977170972</v>
+        <v>14.82231282989651</v>
       </c>
       <c r="N26" t="n">
-        <v>341.1102117904986</v>
+        <v>339.2607602825242</v>
       </c>
       <c r="O26" t="n">
-        <v>18.46916922307278</v>
+        <v>18.41903255555308</v>
       </c>
       <c r="P26" t="n">
-        <v>388.4095903855066</v>
+        <v>388.2967061487017</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -19694,28 +19762,28 @@
         <v>0.0341</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2872433927290187</v>
+        <v>-0.2730966787166436</v>
       </c>
       <c r="J27" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K27" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01408398218360507</v>
+        <v>0.01289215718711156</v>
       </c>
       <c r="M27" t="n">
-        <v>15.3236249216069</v>
+        <v>15.27908926147628</v>
       </c>
       <c r="N27" t="n">
-        <v>359.562025079349</v>
+        <v>357.7344339257582</v>
       </c>
       <c r="O27" t="n">
-        <v>18.96212079592758</v>
+        <v>18.91386882490619</v>
       </c>
       <c r="P27" t="n">
-        <v>386.6930336893241</v>
+        <v>386.5674144101428</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -19752,7 +19820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42676,6 +42744,84 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>-34.71040383285604,173.07022074858386</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-34.71096759150865,173.07080111734888</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>-34.711521525228754,173.0713951671928</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>-34.71208876714148,173.0719706732867</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>-34.72069599552843,173.08296893891463</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>-34.72108172521221,173.08373038010762</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>-34.72146809141345,173.08449588670553</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>-34.72177906388108,173.08528735391556</t>
+        </is>
+      </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>-34.72202335538447,173.08609360102645</t>
+        </is>
+      </c>
+      <c r="AA195" t="inlineStr">
+        <is>
+          <t>-34.72223210584476,173.08694674166907</t>
+        </is>
+      </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0012/nzd0012.xlsx
+++ b/data/nzd0012/nzd0012.xlsx
@@ -17682,7 +17682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17773,35 +17773,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17860,27 +17865,28 @@
       <c r="P2" t="n">
         <v>360.0736225444073</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.0672042462447 -34.71256918194103, 173.0748556316275 -34.70707638781459)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.0672042462447</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.71256918194103</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.0748556316275</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.70707638781459</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.0710299389361</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.70982278487781</v>
       </c>
     </row>
@@ -17937,27 +17943,28 @@
       <c r="P3" t="n">
         <v>361.8075778599964</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.0677938354126 -34.71312632351571, 173.07544522861573 -34.707633518858465)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.0677938354126</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.71312632351571</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.0754452286157</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.70763351885847</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.0716195320142</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.71037992118708</v>
       </c>
     </row>
@@ -18014,27 +18021,28 @@
       <c r="P4" t="n">
         <v>364.5385646101922</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.06838342458087 -34.71368346133766, 173.07603482560327 -34.70819064614933)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.0683834245809</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.71368346133766</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.0760348256033</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.70819064614933</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.0722091250921</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.71093705374349</v>
       </c>
     </row>
@@ -18091,27 +18099,28 @@
       <c r="P5" t="n">
         <v>356.2620078964092</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.0689730137494 -34.71424059540672, 173.07662442259038 -34.70874776968727)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.0689730137494</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.71424059540672</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.0766244225904</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.70874776968727</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.0727987181699</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.711494182547</v>
       </c>
     </row>
@@ -18168,27 +18177,28 @@
       <c r="P6" t="n">
         <v>353.2582874222922</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.06956260291818 -34.714797725722974, 173.07721401957687 -34.70930488947221)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.0695626029182</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.71479772572297</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.0772140195769</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.70930488947221</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.0733883112475</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.71205130759759</v>
       </c>
     </row>
@@ -18245,27 +18255,28 @@
       <c r="P7" t="n">
         <v>357.5098477410147</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.07015543202405 -34.7153579152119, 173.07779859819965 -34.70985725929655)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.0701554320241</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.7153579152119</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.0777985981996</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.70985725929655</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.0739770151118</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.71260758725423</v>
       </c>
     </row>
@@ -18322,27 +18333,28 @@
       <c r="P8" t="n">
         <v>360.508725221521</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.07076390409628 -34.715929973790594, 173.0783632024051 -34.710388143583664)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.0707639040963</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.71592997379059</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.0783632024051</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.71038814358366</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.0745635532507</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.71315905868713</v>
       </c>
     </row>
@@ -18399,27 +18411,28 @@
       <c r="P9" t="n">
         <v>361.8587342120351</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.0713763762111 -34.7164937192414, 173.078939861542 -34.71091867237061)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.0713763762111</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.7164937192414</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.078939861542</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.71091867237061</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.0751581188766</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.713706195806</v>
       </c>
     </row>
@@ -18476,27 +18489,28 @@
       <c r="P10" t="n">
         <v>365.6399722014956</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.0719747955044 -34.717044436793635, 173.07953828713147 -34.71146937935826)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.0719747955044</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.71704443679364</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.0795382871315</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.71146937935826</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.0757565413179</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.71425690807595</v>
       </c>
     </row>
@@ -18553,27 +18567,28 @@
       <c r="P11" t="n">
         <v>368.6522411530935</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.07257321479787 -34.717595150678605, 173.08013671272036 -34.7120200826785)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.0725732147979</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.7175951506786</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.0801367127204</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.7120200826785</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.0763549637591</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.71480761667856</v>
       </c>
     </row>
@@ -18630,27 +18645,28 @@
       <c r="P12" t="n">
         <v>370.9491426658075</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.07320172009582 -34.71817328202297, 173.080688537832 -34.712528291627294)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.0732017200958</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.71817328202297</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.080688537832</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.71252829162729</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.0769451289639</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.71535078682513</v>
       </c>
     </row>
@@ -18707,27 +18723,28 @@
       <c r="P13" t="n">
         <v>369.9739917966515</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.073930996069 -34.71881285991413, 173.08112129688308 -34.71291168459196)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.073930996069</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.71881285991413</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.0811212968831</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.71291168459196</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.077526146476</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.71586227225305</v>
       </c>
     </row>
@@ -18784,27 +18801,28 @@
       <c r="P14" t="n">
         <v>365.367053572716</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.0746724298273 -34.719391043189034, 173.08163712300552 -34.713308743589636)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.0746724298273</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.71939104318903</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.0816371230055</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.71330874358964</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.0781547764164</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.71634989338934</v>
       </c>
     </row>
@@ -18861,27 +18879,28 @@
       <c r="P15" t="n">
         <v>363.0238684960106</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.07532535190006 -34.719898185365764, 173.08229004150215 -34.713815875166965)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.0753253519001</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.71989818536576</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.0822900415021</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.71381587516696</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.0788076967011</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.71685703026637</v>
       </c>
     </row>
@@ -18938,27 +18957,28 @@
       <c r="P16" t="n">
         <v>361.4429318088993</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (173.07597827397328 -34.7204053244322, 173.08294295999804 -34.714323003634064)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>173.0759782739733</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-34.7204053244322</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.082942959998</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-34.71432300363406</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.0794606169857</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-34.71736416403313</v>
       </c>
     </row>
@@ -19015,27 +19035,28 @@
       <c r="P17" t="n">
         <v>374.6880671561491</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (173.07663119604686 -34.72091246038834, 173.0835958784931 -34.71483012899091)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>173.0766311960469</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-34.72091246038834</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.0835958784931</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-34.71483012899091</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.08011353727</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-34.71787129468963</v>
       </c>
     </row>
@@ -19092,27 +19113,28 @@
       <c r="P18" t="n">
         <v>374.400417071558</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (173.0774028969299 -34.72150834149999, 173.08406482629147 -34.71519973453525)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>173.0774028969299</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-34.72150834149999</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.0840648262915</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-34.71519973453525</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.0807338616107</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-34.71835403801762</v>
       </c>
     </row>
@@ -19169,27 +19191,28 @@
       <c r="P19" t="n">
         <v>374.0998326527189</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (173.07823694266952 -34.72206232686259, 173.08455788400025 -34.715519611842645)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>173.0782369426695</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-34.72206232686259</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.0845578840002</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-34.71551961184264</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.0813974133349</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-34.71879096935262</v>
       </c>
     </row>
@@ -19246,27 +19269,28 @@
       <c r="P20" t="n">
         <v>373.4662553981731</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (173.07895201699642 -34.72252766644074, 173.0852455464147 -34.71596701622356)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>173.0789520169964</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-34.72252766644074</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>173.0852455464147</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-34.71596701622356</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>173.0820987817056</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-34.71924734133215</v>
       </c>
     </row>
@@ -19323,27 +19347,28 @@
       <c r="P21" t="n">
         <v>379.1415381171844</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (173.07977925463905 -34.72306293445325, 173.08575949007908 -34.71630606268741)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>173.079779254639</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-34.72306293445325</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>173.0857594900791</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-34.71630606268741</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>173.0827693723591</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-34.71968449857033</v>
       </c>
     </row>
@@ -19400,27 +19425,28 @@
       <c r="P22" t="n">
         <v>374.4144715181818</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (173.08072034177846 -34.72358537283152, 173.08619879935284 -34.716545299293536)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>173.0807203417785</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-34.72358537283152</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.0861987993528</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-34.71654529929354</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>173.0834595705657</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-34.72006533606253</v>
       </c>
     </row>
@@ -19477,27 +19503,28 @@
       <c r="P23" t="n">
         <v>376.7272109536314</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (173.0815573048776 -34.72400791010887, 173.0868546481401 -34.71687426729131)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>173.0815573048776</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-34.72400791010887</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>173.0868546481401</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-34.71687426729131</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>173.0842059765089</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-34.72044108870008</v>
       </c>
     </row>
@@ -19554,27 +19581,28 @@
       <c r="P24" t="n">
         <v>381.9103063007294</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (173.08232321853612 -34.72439374679948, 173.08762053503133 -34.717260094567)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>173.0823232185361</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-34.72439374679948</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>173.0876205350313</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-34.717260094567</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>173.0849718767837</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-34.72082692068324</v>
       </c>
     </row>
@@ -19631,27 +19659,28 @@
       <c r="P25" t="n">
         <v>396.7813813912705</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (173.0834171557929 -34.724928070017924, 173.08787840140562 -34.71741586061012)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>173.0834171557929</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-34.72492807001792</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>173.0878784014056</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-34.71741586061012</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>173.0856477785993</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-34.72117196531402</v>
       </c>
     </row>
@@ -19708,27 +19737,28 @@
       <c r="P26" t="n">
         <v>388.2967061487017</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (173.08470960349672 -34.72534368419889, 173.08800658390155 -34.71743348062913)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>173.0847096034967</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-34.72534368419889</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>173.0880065839015</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-34.71743348062913</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>173.0863580936991</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-34.72138858241401</v>
       </c>
     </row>
@@ -19785,27 +19815,28 @@
       <c r="P27" t="n">
         <v>386.5674144101428</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (173.08567912315624 -34.72559341039678, 173.0886910397573 -34.71760633690063)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>173.0856791231562</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-34.72559341039678</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>173.0886910397573</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-34.71760633690063</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>173.0871850814568</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-34.72159987364871</v>
       </c>
     </row>

--- a/data/nzd0012/nzd0012.xlsx
+++ b/data/nzd0012/nzd0012.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15690,6 +15690,198 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>377.29</v>
+      </c>
+      <c r="C196" t="n">
+        <v>386.0666666666667</v>
+      </c>
+      <c r="D196" t="n">
+        <v>385.64</v>
+      </c>
+      <c r="E196" t="n">
+        <v>394.8566666666667</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>390.0871428571429</v>
+      </c>
+      <c r="H196" t="n">
+        <v>391.56</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="n">
+        <v>383.28</v>
+      </c>
+      <c r="X196" t="n">
+        <v>405.81</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>420.9</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>413.8266666666667</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>414.8966666666667</v>
+      </c>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>322.7866666666667</v>
+      </c>
+      <c r="F197" t="n">
+        <v>341.5066666666667</v>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="n">
+        <v>371.32</v>
+      </c>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>345.07</v>
+      </c>
+      <c r="C198" t="n">
+        <v>364.83</v>
+      </c>
+      <c r="D198" t="n">
+        <v>361.24</v>
+      </c>
+      <c r="E198" t="n">
+        <v>353.88</v>
+      </c>
+      <c r="F198" t="n">
+        <v>353.58</v>
+      </c>
+      <c r="G198" t="n">
+        <v>348.1471428571429</v>
+      </c>
+      <c r="H198" t="n">
+        <v>354.38</v>
+      </c>
+      <c r="I198" t="n">
+        <v>354.33</v>
+      </c>
+      <c r="J198" t="n">
+        <v>362.24</v>
+      </c>
+      <c r="K198" t="n">
+        <v>351.54</v>
+      </c>
+      <c r="L198" t="n">
+        <v>356.92</v>
+      </c>
+      <c r="M198" t="n">
+        <v>361.0871428571429</v>
+      </c>
+      <c r="N198" t="n">
+        <v>348.99</v>
+      </c>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="n">
+        <v>383.49</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>374.4</v>
+      </c>
+      <c r="R198" t="n">
+        <v>366.3271428571429</v>
+      </c>
+      <c r="S198" t="n">
+        <v>360.9371428571428</v>
+      </c>
+      <c r="T198" t="n">
+        <v>363.25</v>
+      </c>
+      <c r="U198" t="n">
+        <v>370.6871428571428</v>
+      </c>
+      <c r="V198" t="n">
+        <v>367.24</v>
+      </c>
+      <c r="W198" t="n">
+        <v>357.86</v>
+      </c>
+      <c r="X198" t="n">
+        <v>362.19</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>381.52</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>382.32</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>390.78</v>
+      </c>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15701,7 +15893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B196"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17669,6 +17861,36 @@
       </c>
       <c r="B196" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -17842,28 +18064,28 @@
         <v>0.0309</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1493776171827871</v>
+        <v>0.1428606986458592</v>
       </c>
       <c r="J2" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K2" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00326165283829627</v>
+        <v>0.003039762338136742</v>
       </c>
       <c r="M2" t="n">
-        <v>16.00346940201245</v>
+        <v>16.00705254563263</v>
       </c>
       <c r="N2" t="n">
-        <v>395.5488943920006</v>
+        <v>394.0096229663501</v>
       </c>
       <c r="O2" t="n">
-        <v>19.88841105749779</v>
+        <v>19.84967563881964</v>
       </c>
       <c r="P2" t="n">
-        <v>360.0736225444073</v>
+        <v>360.1343895258165</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17920,28 +18142,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1846035100536743</v>
+        <v>0.2042805310637911</v>
       </c>
       <c r="J3" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K3" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006903989027757573</v>
+        <v>0.008597948289705171</v>
       </c>
       <c r="M3" t="n">
-        <v>13.06067046869667</v>
+        <v>13.03976035919815</v>
       </c>
       <c r="N3" t="n">
-        <v>288.1858284699921</v>
+        <v>287.0448071710219</v>
       </c>
       <c r="O3" t="n">
-        <v>16.97603688939182</v>
+        <v>16.94239673632459</v>
       </c>
       <c r="P3" t="n">
-        <v>361.8075778599964</v>
+        <v>361.6321786039285</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17998,28 +18220,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1763125056992177</v>
+        <v>0.1858066447130476</v>
       </c>
       <c r="J4" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K4" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006862245963492608</v>
+        <v>0.007763428580709886</v>
       </c>
       <c r="M4" t="n">
-        <v>12.73906079031653</v>
+        <v>12.72979454078463</v>
       </c>
       <c r="N4" t="n">
-        <v>267.917899220578</v>
+        <v>266.7786934764763</v>
       </c>
       <c r="O4" t="n">
-        <v>16.36819780001995</v>
+        <v>16.33336136490209</v>
       </c>
       <c r="P4" t="n">
-        <v>364.5385646101922</v>
+        <v>364.4564385651439</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18076,28 +18298,28 @@
         <v>0.031</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2985275534263742</v>
+        <v>0.2766199279212584</v>
       </c>
       <c r="J5" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K5" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0150311808387229</v>
+        <v>0.01287738241287584</v>
       </c>
       <c r="M5" t="n">
-        <v>14.55796179445353</v>
+        <v>14.7811187315475</v>
       </c>
       <c r="N5" t="n">
-        <v>351.6126242044151</v>
+        <v>361.1482296887909</v>
       </c>
       <c r="O5" t="n">
-        <v>18.75133659781124</v>
+        <v>19.00390038094262</v>
       </c>
       <c r="P5" t="n">
-        <v>356.2620078964092</v>
+        <v>356.4516175806112</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18154,28 +18376,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4426655565454997</v>
+        <v>0.4028174628049034</v>
       </c>
       <c r="J6" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K6" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02767678984660871</v>
+        <v>0.02346711741076701</v>
       </c>
       <c r="M6" t="n">
-        <v>15.81806060409701</v>
+        <v>15.82659970430118</v>
       </c>
       <c r="N6" t="n">
-        <v>410.1619427750875</v>
+        <v>409.0395045236354</v>
       </c>
       <c r="O6" t="n">
-        <v>20.25245522831954</v>
+        <v>20.2247250790619</v>
       </c>
       <c r="P6" t="n">
-        <v>353.2582874222922</v>
+        <v>353.6028094672435</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18232,28 +18454,28 @@
         <v>0.0419</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2972258859531676</v>
+        <v>0.3062148029811948</v>
       </c>
       <c r="J7" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K7" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01462367947874688</v>
+        <v>0.01569376043092618</v>
       </c>
       <c r="M7" t="n">
-        <v>14.73670659741228</v>
+        <v>14.81265781678655</v>
       </c>
       <c r="N7" t="n">
-        <v>355.3152170934777</v>
+        <v>356.5430753606633</v>
       </c>
       <c r="O7" t="n">
-        <v>18.84980681846574</v>
+        <v>18.8823482480507</v>
       </c>
       <c r="P7" t="n">
-        <v>357.5098477410147</v>
+        <v>357.4323920964847</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18310,28 +18532,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2403862827060389</v>
+        <v>0.2552439364552601</v>
       </c>
       <c r="J8" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K8" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01206730076241813</v>
+        <v>0.01375479054228879</v>
       </c>
       <c r="M8" t="n">
-        <v>13.00305727477076</v>
+        <v>13.07534822066408</v>
       </c>
       <c r="N8" t="n">
-        <v>282.5051488227712</v>
+        <v>283.7549540853967</v>
       </c>
       <c r="O8" t="n">
-        <v>16.80788948151347</v>
+        <v>16.84502757746026</v>
       </c>
       <c r="P8" t="n">
-        <v>360.508725221521</v>
+        <v>360.3819735773658</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18388,28 +18610,28 @@
         <v>0.0423</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2962324579922039</v>
+        <v>0.2760968486771448</v>
       </c>
       <c r="J9" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K9" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01640955632756269</v>
+        <v>0.01444350095037683</v>
       </c>
       <c r="M9" t="n">
-        <v>13.51920986815468</v>
+        <v>13.51202045997553</v>
       </c>
       <c r="N9" t="n">
-        <v>304.04800264312</v>
+        <v>303.5266620035626</v>
       </c>
       <c r="O9" t="n">
-        <v>17.43697229002558</v>
+        <v>17.42201658831614</v>
       </c>
       <c r="P9" t="n">
-        <v>361.8587342120351</v>
+        <v>362.0385113988758</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18466,28 +18688,28 @@
         <v>0.0426</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4013642841308812</v>
+        <v>0.3828886683848909</v>
       </c>
       <c r="J10" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K10" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0290630377639306</v>
+        <v>0.02684800724554026</v>
       </c>
       <c r="M10" t="n">
-        <v>13.92812402736263</v>
+        <v>13.92354484299936</v>
       </c>
       <c r="N10" t="n">
-        <v>309.189837232555</v>
+        <v>308.381968278265</v>
       </c>
       <c r="O10" t="n">
-        <v>17.58379473357657</v>
+        <v>17.56080773422068</v>
       </c>
       <c r="P10" t="n">
-        <v>365.6399722014956</v>
+        <v>365.802746937995</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18544,28 +18766,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3303902116490393</v>
+        <v>0.2935896567390575</v>
       </c>
       <c r="J11" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K11" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01918191991972518</v>
+        <v>0.01526151183747282</v>
       </c>
       <c r="M11" t="n">
-        <v>14.25431465341056</v>
+        <v>14.32041779119456</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2310787070687</v>
+        <v>319.4567999364977</v>
       </c>
       <c r="O11" t="n">
-        <v>17.81098196919723</v>
+        <v>17.87335446793628</v>
       </c>
       <c r="P11" t="n">
-        <v>368.6522411530935</v>
+        <v>368.981456498222</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18622,28 +18844,28 @@
         <v>0.0455</v>
       </c>
       <c r="I12" t="n">
-        <v>0.295062414331735</v>
+        <v>0.2643567329803556</v>
       </c>
       <c r="J12" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K12" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01808197297441594</v>
+        <v>0.01464640435013453</v>
       </c>
       <c r="M12" t="n">
-        <v>13.40706530635061</v>
+        <v>13.44910303467593</v>
       </c>
       <c r="N12" t="n">
-        <v>274.5385624466625</v>
+        <v>275.8081495959818</v>
       </c>
       <c r="O12" t="n">
-        <v>16.56920524487105</v>
+        <v>16.60747270345437</v>
       </c>
       <c r="P12" t="n">
-        <v>370.9491426658075</v>
+        <v>371.2216470543395</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -18700,28 +18922,28 @@
         <v>0.041</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3263982364275916</v>
+        <v>0.3034194293871101</v>
       </c>
       <c r="J13" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K13" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01851685728498853</v>
+        <v>0.01621195719260504</v>
       </c>
       <c r="M13" t="n">
-        <v>14.08831391906226</v>
+        <v>14.10385970575968</v>
       </c>
       <c r="N13" t="n">
-        <v>328.3913249278285</v>
+        <v>328.1570190718827</v>
       </c>
       <c r="O13" t="n">
-        <v>18.12157070807684</v>
+        <v>18.11510472152681</v>
       </c>
       <c r="P13" t="n">
-        <v>369.9739917966515</v>
+        <v>370.1740911467801</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -18778,28 +19000,28 @@
         <v>0.0354</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4052519226550138</v>
+        <v>0.3681127053476352</v>
       </c>
       <c r="J14" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K14" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02094877976939391</v>
+        <v>0.01746442508972745</v>
       </c>
       <c r="M14" t="n">
-        <v>16.78343855870309</v>
+        <v>16.82666561997536</v>
       </c>
       <c r="N14" t="n">
-        <v>441.5344241978053</v>
+        <v>443.2427524615255</v>
       </c>
       <c r="O14" t="n">
-        <v>21.01272053299632</v>
+        <v>21.05333114881171</v>
       </c>
       <c r="P14" t="n">
-        <v>365.367053572716</v>
+        <v>365.690865612861</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -18859,7 +19081,7 @@
         <v>0.4594253052376065</v>
       </c>
       <c r="J15" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K15" t="n">
         <v>123</v>
@@ -18934,28 +19156,28 @@
         <v>0.0314</v>
       </c>
       <c r="I16" t="n">
-        <v>0.572222160132389</v>
+        <v>0.5825862227473879</v>
       </c>
       <c r="J16" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K16" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03146206176117039</v>
+        <v>0.03309198468023988</v>
       </c>
       <c r="M16" t="n">
-        <v>19.66729145977419</v>
+        <v>19.58075652714338</v>
       </c>
       <c r="N16" t="n">
-        <v>599.1383267621457</v>
+        <v>595.2056052964373</v>
       </c>
       <c r="O16" t="n">
-        <v>24.4773022770514</v>
+        <v>24.39683596896198</v>
       </c>
       <c r="P16" t="n">
-        <v>361.4429318088993</v>
+        <v>361.3513884642966</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -19012,28 +19234,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2643032095239938</v>
+        <v>0.2540080644921887</v>
       </c>
       <c r="J17" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K17" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01017948511914701</v>
+        <v>0.009568570196182402</v>
       </c>
       <c r="M17" t="n">
-        <v>15.06418180086817</v>
+        <v>15.00371474297471</v>
       </c>
       <c r="N17" t="n">
-        <v>390.5965671671281</v>
+        <v>388.2074706363708</v>
       </c>
       <c r="O17" t="n">
-        <v>19.76351606286513</v>
+        <v>19.70298126265086</v>
       </c>
       <c r="P17" t="n">
-        <v>374.6880671561491</v>
+        <v>374.7788909624697</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -19090,28 +19312,28 @@
         <v>0.0377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5452181907260516</v>
+        <v>0.5146383538737271</v>
       </c>
       <c r="J18" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K18" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04502707020083885</v>
+        <v>0.04062923952145936</v>
       </c>
       <c r="M18" t="n">
-        <v>14.96905554535198</v>
+        <v>15.01127566283587</v>
       </c>
       <c r="N18" t="n">
-        <v>373.7304431073475</v>
+        <v>374.4399862645448</v>
       </c>
       <c r="O18" t="n">
-        <v>19.3321091220629</v>
+        <v>19.35045183618576</v>
       </c>
       <c r="P18" t="n">
-        <v>374.400417071558</v>
+        <v>374.6669147054664</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -19168,28 +19390,28 @@
         <v>0.0388</v>
       </c>
       <c r="I19" t="n">
-        <v>0.474498926771243</v>
+        <v>0.4396726504500951</v>
       </c>
       <c r="J19" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K19" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03824652415999041</v>
+        <v>0.03314751888299183</v>
       </c>
       <c r="M19" t="n">
-        <v>14.2988116439826</v>
+        <v>14.36796912076516</v>
       </c>
       <c r="N19" t="n">
-        <v>328.6506118935263</v>
+        <v>330.6487432549408</v>
       </c>
       <c r="O19" t="n">
-        <v>18.12872339392728</v>
+        <v>18.1837494278529</v>
       </c>
       <c r="P19" t="n">
-        <v>374.0998326527189</v>
+        <v>374.4056410035089</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -19246,28 +19468,28 @@
         <v>0.0416</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3353839710871013</v>
+        <v>0.3095514189689615</v>
       </c>
       <c r="J20" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K20" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02124401901846051</v>
+        <v>0.0183107976157274</v>
       </c>
       <c r="M20" t="n">
-        <v>13.4864889830896</v>
+        <v>13.50731827257995</v>
       </c>
       <c r="N20" t="n">
-        <v>304.7058471959877</v>
+        <v>304.9937580855195</v>
       </c>
       <c r="O20" t="n">
-        <v>17.45582559479751</v>
+        <v>17.46407049016693</v>
       </c>
       <c r="P20" t="n">
-        <v>373.4662553981731</v>
+        <v>373.6944535487982</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -19324,28 +19546,28 @@
         <v>0.0396</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06328276404617286</v>
+        <v>0.04924155697832998</v>
       </c>
       <c r="J21" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K21" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0008834314376771069</v>
+        <v>0.0005427201886605282</v>
       </c>
       <c r="M21" t="n">
-        <v>12.68817896291673</v>
+        <v>12.65448779093817</v>
       </c>
       <c r="N21" t="n">
-        <v>277.1631552293721</v>
+        <v>275.8737270105142</v>
       </c>
       <c r="O21" t="n">
-        <v>16.64821777937122</v>
+        <v>16.6094469206688</v>
       </c>
       <c r="P21" t="n">
-        <v>379.1415381171844</v>
+        <v>379.2628062855125</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -19402,28 +19624,28 @@
         <v>0.0447</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1401947035894049</v>
+        <v>0.1183445718073975</v>
       </c>
       <c r="J22" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K22" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004277047657686328</v>
+        <v>0.003129603639206002</v>
       </c>
       <c r="M22" t="n">
-        <v>13.1498396956974</v>
+        <v>13.05907869337359</v>
       </c>
       <c r="N22" t="n">
-        <v>284.0861062988038</v>
+        <v>281.2125554402081</v>
       </c>
       <c r="O22" t="n">
-        <v>16.85485408714071</v>
+        <v>16.76939341300717</v>
       </c>
       <c r="P22" t="n">
-        <v>374.4144715181818</v>
+        <v>374.6057702687682</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -19480,28 +19702,28 @@
         <v>0.0418</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.08402767824529478</v>
+        <v>-0.09397047222546348</v>
       </c>
       <c r="J23" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K23" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001870266749540161</v>
+        <v>0.002375926087163971</v>
       </c>
       <c r="M23" t="n">
-        <v>12.1604860552859</v>
+        <v>12.16497054297809</v>
       </c>
       <c r="N23" t="n">
-        <v>231.0558023324895</v>
+        <v>230.2961555541485</v>
       </c>
       <c r="O23" t="n">
-        <v>15.20051980468068</v>
+        <v>15.17551170650099</v>
       </c>
       <c r="P23" t="n">
-        <v>376.7272109536314</v>
+        <v>376.8188743450369</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -19558,28 +19780,28 @@
         <v>0.0427</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0965720053366677</v>
+        <v>-0.08585755303231637</v>
       </c>
       <c r="J24" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K24" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002336759932956789</v>
+        <v>0.001846050373713659</v>
       </c>
       <c r="M24" t="n">
-        <v>12.62129304288295</v>
+        <v>12.75239740639027</v>
       </c>
       <c r="N24" t="n">
-        <v>242.6589314144259</v>
+        <v>246.144957455921</v>
       </c>
       <c r="O24" t="n">
-        <v>15.57751364674177</v>
+        <v>15.68900753572134</v>
       </c>
       <c r="P24" t="n">
-        <v>381.9103063007294</v>
+        <v>381.8150940074815</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -19636,28 +19858,28 @@
         <v>0.044</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.4073703820312167</v>
+        <v>-0.3682592266728151</v>
       </c>
       <c r="J25" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K25" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03987393818759222</v>
+        <v>0.03254242792156647</v>
       </c>
       <c r="M25" t="n">
-        <v>12.77304063046241</v>
+        <v>12.89643319202876</v>
       </c>
       <c r="N25" t="n">
-        <v>243.8634411653716</v>
+        <v>249.3558843866911</v>
       </c>
       <c r="O25" t="n">
-        <v>15.61612759826749</v>
+        <v>15.79100643995471</v>
       </c>
       <c r="P25" t="n">
-        <v>396.7813813912705</v>
+        <v>396.4235300107702</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -19714,28 +19936,28 @@
         <v>0.0358</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.3256432675907123</v>
+        <v>-0.2806150741538107</v>
       </c>
       <c r="J26" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K26" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0183711062547921</v>
+        <v>0.01374444843829548</v>
       </c>
       <c r="M26" t="n">
-        <v>14.82231282989651</v>
+        <v>14.89962981956331</v>
       </c>
       <c r="N26" t="n">
-        <v>339.2607602825242</v>
+        <v>342.4984893149378</v>
       </c>
       <c r="O26" t="n">
-        <v>18.41903255555308</v>
+        <v>18.50671470885467</v>
       </c>
       <c r="P26" t="n">
-        <v>388.2967061487017</v>
+        <v>387.8758404649367</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -19792,28 +20014,28 @@
         <v>0.0341</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2730966787166436</v>
+        <v>-0.2146959253261472</v>
       </c>
       <c r="J27" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K27" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01289215718711156</v>
+        <v>0.008007499203883883</v>
       </c>
       <c r="M27" t="n">
-        <v>15.27908926147628</v>
+        <v>15.38729627611872</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7344339257582</v>
+        <v>362.3043614457271</v>
       </c>
       <c r="O27" t="n">
-        <v>18.91386882490619</v>
+        <v>19.03429435113703</v>
       </c>
       <c r="P27" t="n">
-        <v>386.5674144101428</v>
+        <v>386.0428415935507</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -19851,7 +20073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42853,6 +43075,276 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>-34.710337037148044,173.07031379611473</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>-34.710842242972554,173.07097572962707</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>-34.71140189535476,173.0715618131426</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>-34.71190448973851,173.07222737361545</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>-34.71304672252675,173.07336704135636</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>-34.713592658145735,173.07396917854237</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>-34.72106135255823,173.08374550882905</t>
+        </is>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>-34.7212739739652,173.0846400369378</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>-34.72152012698477,173.0854411297182</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>-34.72181498333063,173.0861804518768</t>
+        </is>
+      </c>
+      <c r="AA196" t="inlineStr">
+        <is>
+          <t>-34.72202110001934,173.08702631279445</t>
+        </is>
+      </c>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>-34.71233088678352,173.07163339523512</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>-34.712777253177585,173.07237727890143</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>-34.72076829686454,173.08291267423184</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>-34.710527662088055,173.07004825174675</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-34.71096788732773,173.0708007052677</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>-34.7115462558071,173.07136071708</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>-34.71214692563937,173.07188965750342</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>-34.71270582192764,173.07247678403223</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>-34.71329521320274,173.07302175555816</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>-34.71381459814385,173.07366483420458</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>-34.714365940832145,173.07426325976488</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>-34.714869148245505,173.07492613300022</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>-34.71548410883385,173.07543738571803</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>-34.71600300425462,173.07608030157968</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>-34.71651743226228,173.0767280487139</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>-34.71710430153404,173.0772910957635</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>-34.717892500386554,173.0788558141722</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>-34.718459189952284,173.07944053549699</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>-34.719018499095846,173.0800323539076</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>-34.71951789593619,173.08069528343546</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>-34.719959891945706,173.08141539917392</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>-34.72036404329813,173.082168083102</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>-34.720799250628815,173.0828885860691</t>
+        </is>
+      </c>
+      <c r="W198" t="inlineStr">
+        <is>
+          <t>-34.72125677620062,173.08360038697677</t>
+        </is>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>-34.72160931655148,173.08439101342043</t>
+        </is>
+      </c>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>-34.72183898045719,173.08525177088552</t>
+        </is>
+      </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>-34.72208364143449,173.08606847331558</t>
+        </is>
+      </c>
+      <c r="AA198" t="inlineStr">
+        <is>
+          <t>-34.7222287478907,173.08694800797008</t>
+        </is>
+      </c>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0012/nzd0012.xlsx
+++ b/data/nzd0012/nzd0012.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB198"/>
+  <dimension ref="A1:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15882,6 +15882,96 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>367.53</v>
+      </c>
+      <c r="C199" t="n">
+        <v>368.27</v>
+      </c>
+      <c r="D199" t="n">
+        <v>368.77</v>
+      </c>
+      <c r="E199" t="n">
+        <v>362.79</v>
+      </c>
+      <c r="F199" t="n">
+        <v>362.48</v>
+      </c>
+      <c r="G199" t="n">
+        <v>349.24</v>
+      </c>
+      <c r="H199" t="n">
+        <v>361.58</v>
+      </c>
+      <c r="I199" t="n">
+        <v>366.99</v>
+      </c>
+      <c r="J199" t="n">
+        <v>373.21</v>
+      </c>
+      <c r="K199" t="n">
+        <v>363.02</v>
+      </c>
+      <c r="L199" t="n">
+        <v>363.73</v>
+      </c>
+      <c r="M199" t="n">
+        <v>367.33</v>
+      </c>
+      <c r="N199" t="n">
+        <v>372.11</v>
+      </c>
+      <c r="O199" t="n">
+        <v>363.12</v>
+      </c>
+      <c r="P199" t="n">
+        <v>377.83</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>381.61</v>
+      </c>
+      <c r="R199" t="n">
+        <v>374.66</v>
+      </c>
+      <c r="S199" t="n">
+        <v>368.71</v>
+      </c>
+      <c r="T199" t="n">
+        <v>371.98</v>
+      </c>
+      <c r="U199" t="n">
+        <v>375.43</v>
+      </c>
+      <c r="V199" t="n">
+        <v>373.49</v>
+      </c>
+      <c r="W199" t="n">
+        <v>366.17</v>
+      </c>
+      <c r="X199" t="n">
+        <v>363.89</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>384.62</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>392.74</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>382.34</v>
+      </c>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15893,7 +15983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17891,6 +17981,16 @@
       </c>
       <c r="B199" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -18064,28 +18164,28 @@
         <v>0.0309</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1428606986458592</v>
+        <v>0.1470991241364265</v>
       </c>
       <c r="J2" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K2" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003039762338136742</v>
+        <v>0.003263967858652128</v>
       </c>
       <c r="M2" t="n">
-        <v>16.00705254563263</v>
+        <v>15.93201406979618</v>
       </c>
       <c r="N2" t="n">
-        <v>394.0096229663501</v>
+        <v>391.7449609902828</v>
       </c>
       <c r="O2" t="n">
-        <v>19.84967563881964</v>
+        <v>19.79254811767002</v>
       </c>
       <c r="P2" t="n">
-        <v>360.1343895258165</v>
+        <v>360.0954870337225</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18142,28 +18242,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2042805310637911</v>
+        <v>0.2057999211944992</v>
       </c>
       <c r="J3" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K3" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008597948289705171</v>
+        <v>0.008837181204226385</v>
       </c>
       <c r="M3" t="n">
-        <v>13.03976035919815</v>
+        <v>12.97313011356607</v>
       </c>
       <c r="N3" t="n">
-        <v>287.0448071710219</v>
+        <v>285.4058049929267</v>
       </c>
       <c r="O3" t="n">
-        <v>16.94239673632459</v>
+        <v>16.89395764742314</v>
       </c>
       <c r="P3" t="n">
-        <v>361.6321786039285</v>
+        <v>361.6184897132407</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18220,28 +18320,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1858066447130476</v>
+        <v>0.1852897523555913</v>
       </c>
       <c r="J4" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007763428580709886</v>
+        <v>0.00782133806849028</v>
       </c>
       <c r="M4" t="n">
-        <v>12.72979454078463</v>
+        <v>12.66061695181011</v>
       </c>
       <c r="N4" t="n">
-        <v>266.7786934764763</v>
+        <v>265.2727065729054</v>
       </c>
       <c r="O4" t="n">
-        <v>16.33336136490209</v>
+        <v>16.28719455808475</v>
       </c>
       <c r="P4" t="n">
-        <v>364.4564385651439</v>
+        <v>364.4609861294468</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18298,28 +18398,28 @@
         <v>0.031</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2766199279212584</v>
+        <v>0.2757771836201732</v>
       </c>
       <c r="J5" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K5" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01287738241287584</v>
+        <v>0.01296293777779789</v>
       </c>
       <c r="M5" t="n">
-        <v>14.7811187315475</v>
+        <v>14.70270057369677</v>
       </c>
       <c r="N5" t="n">
-        <v>361.1482296887909</v>
+        <v>359.1227205159114</v>
       </c>
       <c r="O5" t="n">
-        <v>19.00390038094262</v>
+        <v>18.95053351533701</v>
       </c>
       <c r="P5" t="n">
-        <v>356.4516175806112</v>
+        <v>356.4589396576982</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18376,28 +18476,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4028174628049034</v>
+        <v>0.4010836861674585</v>
       </c>
       <c r="J6" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K6" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02346711741076701</v>
+        <v>0.0235897475912934</v>
       </c>
       <c r="M6" t="n">
-        <v>15.82659970430118</v>
+        <v>15.74136368679516</v>
       </c>
       <c r="N6" t="n">
-        <v>409.0395045236354</v>
+        <v>406.6321765379945</v>
       </c>
       <c r="O6" t="n">
-        <v>20.2247250790619</v>
+        <v>20.1651227751778</v>
       </c>
       <c r="P6" t="n">
-        <v>353.6028094672435</v>
+        <v>353.6178971227883</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18454,28 +18554,28 @@
         <v>0.0419</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3062148029811948</v>
+        <v>0.2876128770263441</v>
       </c>
       <c r="J7" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K7" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01569376043092618</v>
+        <v>0.01399890660603686</v>
       </c>
       <c r="M7" t="n">
-        <v>14.81265781678655</v>
+        <v>14.81902749870179</v>
       </c>
       <c r="N7" t="n">
-        <v>356.5430753606633</v>
+        <v>355.9185994200468</v>
       </c>
       <c r="O7" t="n">
-        <v>18.8823482480507</v>
+        <v>18.86580502973692</v>
       </c>
       <c r="P7" t="n">
-        <v>357.4323920964847</v>
+        <v>357.5971762998834</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18532,28 +18632,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2552439364552601</v>
+        <v>0.2488468163820429</v>
       </c>
       <c r="J8" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K8" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01375479054228879</v>
+        <v>0.0132622456741972</v>
       </c>
       <c r="M8" t="n">
-        <v>13.07534822066408</v>
+        <v>13.02605595911029</v>
       </c>
       <c r="N8" t="n">
-        <v>283.7549540853967</v>
+        <v>282.1974184125123</v>
       </c>
       <c r="O8" t="n">
-        <v>16.84502757746026</v>
+        <v>16.7987326430452</v>
       </c>
       <c r="P8" t="n">
-        <v>360.3819735773658</v>
+        <v>360.4375078780174</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18610,28 +18710,28 @@
         <v>0.0423</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2760968486771448</v>
+        <v>0.2732777405086622</v>
       </c>
       <c r="J9" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K9" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01444350095037683</v>
+        <v>0.01437313645227634</v>
       </c>
       <c r="M9" t="n">
-        <v>13.51202045997553</v>
+        <v>13.43594544887945</v>
       </c>
       <c r="N9" t="n">
-        <v>303.5266620035626</v>
+        <v>301.5853446672062</v>
       </c>
       <c r="O9" t="n">
-        <v>17.42201658831614</v>
+        <v>17.36621273240675</v>
       </c>
       <c r="P9" t="n">
-        <v>362.0385113988758</v>
+        <v>362.0637322657822</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18688,28 +18788,28 @@
         <v>0.0426</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3828886683848909</v>
+        <v>0.3796450182612688</v>
       </c>
       <c r="J10" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02684800724554026</v>
+        <v>0.02682326930493883</v>
       </c>
       <c r="M10" t="n">
-        <v>13.92354484299936</v>
+        <v>13.8491927452609</v>
       </c>
       <c r="N10" t="n">
-        <v>308.381968278265</v>
+        <v>306.4429337904022</v>
       </c>
       <c r="O10" t="n">
-        <v>17.56080773422068</v>
+        <v>17.50551152609949</v>
       </c>
       <c r="P10" t="n">
-        <v>365.802746937995</v>
+        <v>365.8313802988208</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18766,28 +18866,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2935896567390575</v>
+        <v>0.2745452664755614</v>
       </c>
       <c r="J11" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K11" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01526151183747282</v>
+        <v>0.01354684847915577</v>
       </c>
       <c r="M11" t="n">
-        <v>14.32041779119456</v>
+        <v>14.30652152690593</v>
       </c>
       <c r="N11" t="n">
-        <v>319.4567999364977</v>
+        <v>318.4917792155505</v>
       </c>
       <c r="O11" t="n">
-        <v>17.87335446793628</v>
+        <v>17.84633797773511</v>
       </c>
       <c r="P11" t="n">
-        <v>368.981456498222</v>
+        <v>369.152159638217</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18844,28 +18944,28 @@
         <v>0.0455</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2643567329803556</v>
+        <v>0.244446623531443</v>
       </c>
       <c r="J12" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K12" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01464640435013453</v>
+        <v>0.01269626051214578</v>
       </c>
       <c r="M12" t="n">
-        <v>13.44910303467593</v>
+        <v>13.44429998373471</v>
       </c>
       <c r="N12" t="n">
-        <v>275.8081495959818</v>
+        <v>275.2797100366683</v>
       </c>
       <c r="O12" t="n">
-        <v>16.60747270345437</v>
+        <v>16.59155538328665</v>
       </c>
       <c r="P12" t="n">
-        <v>371.2216470543395</v>
+        <v>371.3987027466947</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -18922,28 +19022,28 @@
         <v>0.041</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3034194293871101</v>
+        <v>0.2895096210952828</v>
       </c>
       <c r="J13" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K13" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01621195719260504</v>
+        <v>0.01498514329551914</v>
       </c>
       <c r="M13" t="n">
-        <v>14.10385970575968</v>
+        <v>14.07841493540716</v>
       </c>
       <c r="N13" t="n">
-        <v>328.1570190718827</v>
+        <v>326.7744842139749</v>
       </c>
       <c r="O13" t="n">
-        <v>18.11510472152681</v>
+        <v>18.07690471883876</v>
       </c>
       <c r="P13" t="n">
-        <v>370.1740911467801</v>
+        <v>370.2954578764457</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -19000,28 +19100,28 @@
         <v>0.0354</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3681127053476352</v>
+        <v>0.3639515416741658</v>
       </c>
       <c r="J14" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K14" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01746442508972745</v>
+        <v>0.01736123908439458</v>
       </c>
       <c r="M14" t="n">
-        <v>16.82666561997536</v>
+        <v>16.73371595783056</v>
       </c>
       <c r="N14" t="n">
-        <v>443.2427524615255</v>
+        <v>440.4056273205833</v>
       </c>
       <c r="O14" t="n">
-        <v>21.05333114881171</v>
+        <v>20.98584349795317</v>
       </c>
       <c r="P14" t="n">
-        <v>365.690865612861</v>
+        <v>365.7272166577976</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -19078,28 +19178,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4594253052376065</v>
+        <v>0.4404184531940054</v>
       </c>
       <c r="J15" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K15" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0178865738044891</v>
+        <v>0.01675070266509715</v>
       </c>
       <c r="M15" t="n">
-        <v>20.12710370066667</v>
+        <v>20.0474228294623</v>
       </c>
       <c r="N15" t="n">
-        <v>670.3345617605717</v>
+        <v>666.0096057500843</v>
       </c>
       <c r="O15" t="n">
-        <v>25.89082002873937</v>
+        <v>25.80716190808443</v>
       </c>
       <c r="P15" t="n">
-        <v>363.0238684960106</v>
+        <v>363.195538369761</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -19156,28 +19256,28 @@
         <v>0.0314</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5825862227473879</v>
+        <v>0.5846262215258066</v>
       </c>
       <c r="J16" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K16" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03309198468023988</v>
+        <v>0.03385211245219666</v>
       </c>
       <c r="M16" t="n">
-        <v>19.58075652714338</v>
+        <v>19.45159665305082</v>
       </c>
       <c r="N16" t="n">
-        <v>595.2056052964373</v>
+        <v>590.9692621168972</v>
       </c>
       <c r="O16" t="n">
-        <v>24.39683596896198</v>
+        <v>24.30985936028625</v>
       </c>
       <c r="P16" t="n">
-        <v>361.3513884642966</v>
+        <v>361.3333311953966</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -19234,28 +19334,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2540080644921887</v>
+        <v>0.2544186305604354</v>
       </c>
       <c r="J17" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K17" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009568570196182402</v>
+        <v>0.009766127804860969</v>
       </c>
       <c r="M17" t="n">
-        <v>15.00371474297471</v>
+        <v>14.90166238483383</v>
       </c>
       <c r="N17" t="n">
-        <v>388.2074706363708</v>
+        <v>385.5121492931912</v>
       </c>
       <c r="O17" t="n">
-        <v>19.70298126265086</v>
+        <v>19.63446330545327</v>
       </c>
       <c r="P17" t="n">
-        <v>374.7788909624697</v>
+        <v>374.7752618085954</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -19312,28 +19412,28 @@
         <v>0.0377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5146383538737271</v>
+        <v>0.4966394701154648</v>
       </c>
       <c r="J18" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K18" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04062923952145936</v>
+        <v>0.03843301751207284</v>
       </c>
       <c r="M18" t="n">
-        <v>15.01127566283587</v>
+        <v>14.99486744557447</v>
       </c>
       <c r="N18" t="n">
-        <v>374.4399862645448</v>
+        <v>373.0523026500731</v>
       </c>
       <c r="O18" t="n">
-        <v>19.35045183618576</v>
+        <v>19.31456193264743</v>
       </c>
       <c r="P18" t="n">
-        <v>374.6669147054664</v>
+        <v>374.8240973916515</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -19390,28 +19490,28 @@
         <v>0.0388</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4396726504500951</v>
+        <v>0.41675314944981</v>
       </c>
       <c r="J19" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K19" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03314751888299183</v>
+        <v>0.03019597942256358</v>
       </c>
       <c r="M19" t="n">
-        <v>14.36796912076516</v>
+        <v>14.37994837789297</v>
       </c>
       <c r="N19" t="n">
-        <v>330.6487432549408</v>
+        <v>330.3337508702261</v>
       </c>
       <c r="O19" t="n">
-        <v>18.1837494278529</v>
+        <v>18.17508599347541</v>
       </c>
       <c r="P19" t="n">
-        <v>374.4056410035089</v>
+        <v>374.6072985246979</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -19468,28 +19568,28 @@
         <v>0.0416</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3095514189689615</v>
+        <v>0.2965223319101846</v>
       </c>
       <c r="J20" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K20" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0183107976157274</v>
+        <v>0.01706233959769099</v>
       </c>
       <c r="M20" t="n">
-        <v>13.50731827257995</v>
+        <v>13.47697116899047</v>
       </c>
       <c r="N20" t="n">
-        <v>304.9937580855195</v>
+        <v>303.5429115965362</v>
       </c>
       <c r="O20" t="n">
-        <v>17.46407049016693</v>
+        <v>17.42248293431611</v>
       </c>
       <c r="P20" t="n">
-        <v>373.6944535487982</v>
+        <v>373.8097881807833</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -19546,28 +19646,28 @@
         <v>0.0396</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04924155697832998</v>
+        <v>0.04227720694458047</v>
       </c>
       <c r="J21" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K21" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005427201886605282</v>
+        <v>0.0004064611484354552</v>
       </c>
       <c r="M21" t="n">
-        <v>12.65448779093817</v>
+        <v>12.59200475768026</v>
       </c>
       <c r="N21" t="n">
-        <v>275.8737270105142</v>
+        <v>274.0718600450562</v>
       </c>
       <c r="O21" t="n">
-        <v>16.6094469206688</v>
+        <v>16.55511582699004</v>
       </c>
       <c r="P21" t="n">
-        <v>379.2628062855125</v>
+        <v>379.3230877139561</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -19624,28 +19724,28 @@
         <v>0.0447</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1183445718073975</v>
+        <v>0.1132005353208671</v>
       </c>
       <c r="J22" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K22" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003129603639206002</v>
+        <v>0.002903985969603617</v>
       </c>
       <c r="M22" t="n">
-        <v>13.05907869337359</v>
+        <v>12.9902766581245</v>
       </c>
       <c r="N22" t="n">
-        <v>281.2125554402081</v>
+        <v>279.3902352416928</v>
       </c>
       <c r="O22" t="n">
-        <v>16.76939341300717</v>
+        <v>16.71497039308454</v>
       </c>
       <c r="P22" t="n">
-        <v>374.6057702687682</v>
+        <v>374.6510410142229</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -19702,28 +19802,28 @@
         <v>0.0418</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.09397047222546348</v>
+        <v>-0.1038738501411295</v>
       </c>
       <c r="J23" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K23" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002375926087163971</v>
+        <v>0.00293416544166214</v>
       </c>
       <c r="M23" t="n">
-        <v>12.16497054297809</v>
+        <v>12.13670370782546</v>
       </c>
       <c r="N23" t="n">
-        <v>230.2961555541485</v>
+        <v>229.1576674313328</v>
       </c>
       <c r="O23" t="n">
-        <v>15.17551170650099</v>
+        <v>15.13795453260885</v>
       </c>
       <c r="P23" t="n">
-        <v>376.8188743450369</v>
+        <v>376.9095464855643</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -19780,28 +19880,28 @@
         <v>0.0427</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.08585755303231637</v>
+        <v>-0.1047642095735915</v>
       </c>
       <c r="J24" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K24" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001846050373713659</v>
+        <v>0.00276414871337427</v>
       </c>
       <c r="M24" t="n">
-        <v>12.75239740639027</v>
+        <v>12.76280339872358</v>
       </c>
       <c r="N24" t="n">
-        <v>246.144957455921</v>
+        <v>246.1164453520117</v>
       </c>
       <c r="O24" t="n">
-        <v>15.68900753572134</v>
+        <v>15.68809884441106</v>
       </c>
       <c r="P24" t="n">
-        <v>381.8150940074815</v>
+        <v>381.9880228586221</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -19858,28 +19958,28 @@
         <v>0.044</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.3682592266728151</v>
+        <v>-0.3713041915055132</v>
       </c>
       <c r="J25" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K25" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03254242792156647</v>
+        <v>0.03351576263338607</v>
       </c>
       <c r="M25" t="n">
-        <v>12.89643319202876</v>
+        <v>12.81338075115003</v>
       </c>
       <c r="N25" t="n">
-        <v>249.3558843866911</v>
+        <v>247.4781995072508</v>
       </c>
       <c r="O25" t="n">
-        <v>15.79100643995471</v>
+        <v>15.73143984215211</v>
       </c>
       <c r="P25" t="n">
-        <v>396.4235300107702</v>
+        <v>396.4517618939414</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -19936,28 +20036,28 @@
         <v>0.0358</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2806150741538107</v>
+        <v>-0.2656335233637827</v>
       </c>
       <c r="J26" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K26" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01374444843829548</v>
+        <v>0.01245809465194792</v>
       </c>
       <c r="M26" t="n">
-        <v>14.89962981956331</v>
+        <v>14.8902943426628</v>
       </c>
       <c r="N26" t="n">
-        <v>342.4984893149378</v>
+        <v>341.0651618936865</v>
       </c>
       <c r="O26" t="n">
-        <v>18.50671470885467</v>
+        <v>18.46794958553024</v>
       </c>
       <c r="P26" t="n">
-        <v>387.8758404649367</v>
+        <v>387.7342671096953</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -20014,28 +20114,28 @@
         <v>0.0341</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2146959253261472</v>
+        <v>-0.2124172698476063</v>
       </c>
       <c r="J27" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K27" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L27" t="n">
-        <v>0.008007499203883883</v>
+        <v>0.007945676697104997</v>
       </c>
       <c r="M27" t="n">
-        <v>15.38729627611872</v>
+        <v>15.28704951449929</v>
       </c>
       <c r="N27" t="n">
-        <v>362.3043614457271</v>
+        <v>359.6448424367401</v>
       </c>
       <c r="O27" t="n">
-        <v>19.03429435113703</v>
+        <v>18.96430442797046</v>
       </c>
       <c r="P27" t="n">
-        <v>386.0428415935507</v>
+        <v>386.0221736240346</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -20073,7 +20173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB198"/>
+  <dimension ref="A1:AB199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43345,6 +43445,148 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>-34.710394780828935,173.07023335822257</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-34.71094753497096,173.07082905644768</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>-34.71150170526056,173.07142277671815</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>-34.71209421025855,173.07196309093945</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>-34.71265316548721,173.07255013530292</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>-34.71328873813633,173.0730307529151</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>-34.71377161896788,173.07372377137386</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>-34.7142899153001,173.07436640365927</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>-34.71480327114009,173.0750155082728</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>-34.71541516884776,173.07553091652295</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>-34.71596159489227,173.07613522318093</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>-34.71647774590622,173.07677640576446</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>-34.716952806737446,173.07746457288178</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>-34.71751884704502,173.07805004450222</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>-34.717929588122445,173.07881334528867</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>-34.718411945506,173.07949463466292</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>-34.71896186188858,173.08009216442994</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>-34.71946310052699,173.08074822266383</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>-34.71989817990749,173.08147459985074</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>-34.72032951129375,173.08219864661004</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>-34.720751833708505,173.08292548582088</t>
+        </is>
+      </c>
+      <c r="W199" t="inlineStr">
+        <is>
+          <t>-34.7211928906786,173.08364782853855</t>
+        </is>
+      </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>-34.72159624727205,173.08440071863868</t>
+        </is>
+      </c>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>-34.721813880271235,173.08526667729626</t>
+        </is>
+      </c>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>-34.721994789856645,173.0861055073548</t>
+        </is>
+      </c>
+      <c r="AA199" t="inlineStr">
+        <is>
+          <t>-34.722301417457146,173.08692060389507</t>
+        </is>
+      </c>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0012/nzd0012.xlsx
+++ b/data/nzd0012/nzd0012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41378,7 +41378,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>-34.72035767776057,173.08217371709998</t>
+          <t>-34.72035767776056,173.08217371709998</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">

--- a/data/nzd0012/nzd0012.xlsx
+++ b/data/nzd0012/nzd0012.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB199"/>
+  <dimension ref="A1:AB201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15972,6 +15972,164 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>353.94</v>
+      </c>
+      <c r="C200" t="n">
+        <v>359.02</v>
+      </c>
+      <c r="D200" t="n">
+        <v>370.49</v>
+      </c>
+      <c r="E200" t="n">
+        <v>355.19</v>
+      </c>
+      <c r="F200" t="n">
+        <v>354.09</v>
+      </c>
+      <c r="G200" t="n">
+        <v>361.83</v>
+      </c>
+      <c r="H200" t="n">
+        <v>363.91</v>
+      </c>
+      <c r="I200" t="n">
+        <v>370.81</v>
+      </c>
+      <c r="J200" t="n">
+        <v>371.07</v>
+      </c>
+      <c r="K200" t="n">
+        <v>376.18</v>
+      </c>
+      <c r="L200" t="n">
+        <v>376.12</v>
+      </c>
+      <c r="M200" t="n">
+        <v>377.77</v>
+      </c>
+      <c r="N200" t="n">
+        <v>372.28</v>
+      </c>
+      <c r="O200" t="n">
+        <v>363.3</v>
+      </c>
+      <c r="P200" t="n">
+        <v>370.77</v>
+      </c>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>329.3200000000001</v>
+      </c>
+      <c r="C201" t="n">
+        <v>333.39</v>
+      </c>
+      <c r="D201" t="n">
+        <v>333.52</v>
+      </c>
+      <c r="E201" t="n">
+        <v>325.02</v>
+      </c>
+      <c r="F201" t="n">
+        <v>334.57</v>
+      </c>
+      <c r="G201" t="n">
+        <v>336.2942857142857</v>
+      </c>
+      <c r="H201" t="n">
+        <v>342.16</v>
+      </c>
+      <c r="I201" t="n">
+        <v>343.86</v>
+      </c>
+      <c r="J201" t="n">
+        <v>350.11</v>
+      </c>
+      <c r="K201" t="n">
+        <v>358.91</v>
+      </c>
+      <c r="L201" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="M201" t="n">
+        <v>358.1642857142857</v>
+      </c>
+      <c r="N201" t="n">
+        <v>347.48</v>
+      </c>
+      <c r="O201" t="n">
+        <v>346.35</v>
+      </c>
+      <c r="P201" t="n">
+        <v>359.02</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>363.64</v>
+      </c>
+      <c r="R201" t="n">
+        <v>367.0742857142857</v>
+      </c>
+      <c r="S201" t="n">
+        <v>365.9442857142857</v>
+      </c>
+      <c r="T201" t="n">
+        <v>363.71</v>
+      </c>
+      <c r="U201" t="n">
+        <v>357.4642857142857</v>
+      </c>
+      <c r="V201" t="n">
+        <v>358.49</v>
+      </c>
+      <c r="W201" t="n">
+        <v>356.59</v>
+      </c>
+      <c r="X201" t="n">
+        <v>363.56</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>370.27</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>366.48</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>367.15</v>
+      </c>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15983,7 +16141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17991,6 +18149,26 @@
       </c>
       <c r="B200" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -18164,28 +18342,28 @@
         <v>0.0309</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1470991241364265</v>
+        <v>0.09742945451329361</v>
       </c>
       <c r="J2" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003263967858652128</v>
+        <v>0.001444667878202743</v>
       </c>
       <c r="M2" t="n">
-        <v>15.93201406979618</v>
+        <v>16.01831215321295</v>
       </c>
       <c r="N2" t="n">
-        <v>391.7449609902828</v>
+        <v>394.5416330897089</v>
       </c>
       <c r="O2" t="n">
-        <v>19.79254811767002</v>
+        <v>19.86307209597017</v>
       </c>
       <c r="P2" t="n">
-        <v>360.0954870337225</v>
+        <v>360.5552150868158</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18242,28 +18420,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2057999211944992</v>
+        <v>0.1609908801859662</v>
       </c>
       <c r="J3" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008837181204226385</v>
+        <v>0.005440198266879914</v>
       </c>
       <c r="M3" t="n">
-        <v>12.97313011356607</v>
+        <v>13.04357836099167</v>
       </c>
       <c r="N3" t="n">
-        <v>285.4058049929267</v>
+        <v>288.7433729382502</v>
       </c>
       <c r="O3" t="n">
-        <v>16.89395764742314</v>
+        <v>16.99245046890678</v>
       </c>
       <c r="P3" t="n">
-        <v>361.6184897132407</v>
+        <v>362.0256053411437</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18320,28 +18498,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1852897523555913</v>
+        <v>0.1483535072537869</v>
       </c>
       <c r="J4" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00782133806849028</v>
+        <v>0.005025365742077348</v>
       </c>
       <c r="M4" t="n">
-        <v>12.66061695181011</v>
+        <v>12.73874846024262</v>
       </c>
       <c r="N4" t="n">
-        <v>265.2727065729054</v>
+        <v>269.3341305115998</v>
       </c>
       <c r="O4" t="n">
-        <v>16.28719455808475</v>
+        <v>16.41140245413535</v>
       </c>
       <c r="P4" t="n">
-        <v>364.4609861294468</v>
+        <v>364.7887578501907</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18398,28 +18576,28 @@
         <v>0.031</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2757771836201732</v>
+        <v>0.2265300764461166</v>
       </c>
       <c r="J5" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01296293777779789</v>
+        <v>0.008800377434171169</v>
       </c>
       <c r="M5" t="n">
-        <v>14.70270057369677</v>
+        <v>14.80531693832253</v>
       </c>
       <c r="N5" t="n">
-        <v>359.1227205159114</v>
+        <v>363.5786208173886</v>
       </c>
       <c r="O5" t="n">
-        <v>18.95053351533701</v>
+        <v>19.06773769531636</v>
       </c>
       <c r="P5" t="n">
-        <v>356.4589396576982</v>
+        <v>356.8905105281747</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18476,28 +18654,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4010836861674585</v>
+        <v>0.3566708793681991</v>
       </c>
       <c r="J6" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0235897475912934</v>
+        <v>0.01900943291075241</v>
       </c>
       <c r="M6" t="n">
-        <v>15.74136368679516</v>
+        <v>15.78030952837146</v>
       </c>
       <c r="N6" t="n">
-        <v>406.6321765379945</v>
+        <v>407.3480257055355</v>
       </c>
       <c r="O6" t="n">
-        <v>20.1651227751778</v>
+        <v>20.18286465558186</v>
       </c>
       <c r="P6" t="n">
-        <v>353.6178971227883</v>
+        <v>354.0075724652071</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18554,28 +18732,28 @@
         <v>0.0419</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2876128770263441</v>
+        <v>0.2515056575075886</v>
       </c>
       <c r="J7" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01399890660603686</v>
+        <v>0.01088131323562558</v>
       </c>
       <c r="M7" t="n">
-        <v>14.81902749870179</v>
+        <v>14.82895655446903</v>
       </c>
       <c r="N7" t="n">
-        <v>355.9185994200468</v>
+        <v>356.5540986313451</v>
       </c>
       <c r="O7" t="n">
-        <v>18.86580502973692</v>
+        <v>18.88264013932758</v>
       </c>
       <c r="P7" t="n">
-        <v>357.5971762998834</v>
+        <v>357.9198014871615</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18632,28 +18810,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2488468163820429</v>
+        <v>0.216734081728435</v>
       </c>
       <c r="J8" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0132622456741972</v>
+        <v>0.01024832407058562</v>
       </c>
       <c r="M8" t="n">
-        <v>13.02605595911029</v>
+        <v>13.02001764446745</v>
       </c>
       <c r="N8" t="n">
-        <v>282.1974184125123</v>
+        <v>282.4431419648523</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7987326430452</v>
+        <v>16.80604480432122</v>
       </c>
       <c r="P8" t="n">
-        <v>360.4375078780174</v>
+        <v>360.718634176695</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18710,28 +18888,28 @@
         <v>0.0423</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2732777405086622</v>
+        <v>0.243324570963612</v>
       </c>
       <c r="J9" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01437313645227634</v>
+        <v>0.01162715735296094</v>
       </c>
       <c r="M9" t="n">
-        <v>13.43594544887945</v>
+        <v>13.41276153764279</v>
       </c>
       <c r="N9" t="n">
-        <v>301.5853446672062</v>
+        <v>301.7600157454117</v>
       </c>
       <c r="O9" t="n">
-        <v>17.36621273240675</v>
+        <v>17.37124105369019</v>
       </c>
       <c r="P9" t="n">
-        <v>362.0637322657822</v>
+        <v>362.3339052137564</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18788,28 +18966,28 @@
         <v>0.0426</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3796450182612688</v>
+        <v>0.3409866896182289</v>
       </c>
       <c r="J10" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02682326930493883</v>
+        <v>0.0221433103701788</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8491927452609</v>
+        <v>13.84659863194871</v>
       </c>
       <c r="N10" t="n">
-        <v>306.4429337904022</v>
+        <v>306.7090782509662</v>
       </c>
       <c r="O10" t="n">
-        <v>17.50551152609949</v>
+        <v>17.51311160961884</v>
       </c>
       <c r="P10" t="n">
-        <v>365.8313802988208</v>
+        <v>366.1752741253367</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -18866,28 +19044,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2745452664755614</v>
+        <v>0.2507609540000665</v>
       </c>
       <c r="J11" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01354684847915577</v>
+        <v>0.01163531857216749</v>
       </c>
       <c r="M11" t="n">
-        <v>14.30652152690593</v>
+        <v>14.2210795313492</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4917792155505</v>
+        <v>316.1772343986357</v>
       </c>
       <c r="O11" t="n">
-        <v>17.84633797773511</v>
+        <v>17.78137324276828</v>
       </c>
       <c r="P11" t="n">
-        <v>369.152159638217</v>
+        <v>369.3670270883776</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -18944,28 +19122,28 @@
         <v>0.0455</v>
       </c>
       <c r="I12" t="n">
-        <v>0.244446623531443</v>
+        <v>0.2207210665258014</v>
       </c>
       <c r="J12" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01269626051214578</v>
+        <v>0.01065300405485603</v>
       </c>
       <c r="M12" t="n">
-        <v>13.44429998373471</v>
+        <v>13.36262111604158</v>
       </c>
       <c r="N12" t="n">
-        <v>275.2797100366683</v>
+        <v>273.2288173336287</v>
       </c>
       <c r="O12" t="n">
-        <v>16.59155538328665</v>
+        <v>16.52963451905784</v>
       </c>
       <c r="P12" t="n">
-        <v>371.3987027466947</v>
+        <v>371.6113935454913</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19022,28 +19200,28 @@
         <v>0.041</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2895096210952828</v>
+        <v>0.2646053140069507</v>
       </c>
       <c r="J13" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01498514329551914</v>
+        <v>0.01285399942994037</v>
       </c>
       <c r="M13" t="n">
-        <v>14.07841493540716</v>
+        <v>14.02087312943908</v>
       </c>
       <c r="N13" t="n">
-        <v>326.7744842139749</v>
+        <v>325.0370535961754</v>
       </c>
       <c r="O13" t="n">
-        <v>18.07690471883876</v>
+        <v>18.02878402988331</v>
       </c>
       <c r="P13" t="n">
-        <v>370.2954578764457</v>
+        <v>370.5144869852494</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -19100,28 +19278,28 @@
         <v>0.0354</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3639515416741658</v>
+        <v>0.3237326272026941</v>
       </c>
       <c r="J14" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01736123908439458</v>
+        <v>0.01408802911990881</v>
       </c>
       <c r="M14" t="n">
-        <v>16.73371595783056</v>
+        <v>16.67746042021796</v>
       </c>
       <c r="N14" t="n">
-        <v>440.4056273205833</v>
+        <v>439.5856591358843</v>
       </c>
       <c r="O14" t="n">
-        <v>20.98584349795317</v>
+        <v>20.96629817435315</v>
       </c>
       <c r="P14" t="n">
-        <v>365.7272166577976</v>
+        <v>366.0812721123483</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -19178,28 +19356,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4404184531940054</v>
+        <v>0.3788162367104052</v>
       </c>
       <c r="J15" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01675070266509715</v>
+        <v>0.01278427816161065</v>
       </c>
       <c r="M15" t="n">
-        <v>20.0474228294623</v>
+        <v>19.99341329851028</v>
       </c>
       <c r="N15" t="n">
-        <v>666.0096057500843</v>
+        <v>662.4686235760602</v>
       </c>
       <c r="O15" t="n">
-        <v>25.80716190808443</v>
+        <v>25.73846583571096</v>
       </c>
       <c r="P15" t="n">
-        <v>363.195538369761</v>
+        <v>363.756286874327</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -19256,28 +19434,28 @@
         <v>0.0314</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5846262215258066</v>
+        <v>0.5535259064660056</v>
       </c>
       <c r="J16" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03385211245219666</v>
+        <v>0.03130706497185254</v>
       </c>
       <c r="M16" t="n">
-        <v>19.45159665305082</v>
+        <v>19.33062789926035</v>
       </c>
       <c r="N16" t="n">
-        <v>590.9692621168972</v>
+        <v>584.9395303917878</v>
       </c>
       <c r="O16" t="n">
-        <v>24.30985936028625</v>
+        <v>24.18552315728952</v>
       </c>
       <c r="P16" t="n">
-        <v>361.3333311953966</v>
+        <v>361.6109070534599</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -19334,28 +19512,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2544186305604354</v>
+        <v>0.2294248859436877</v>
       </c>
       <c r="J17" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009766127804860969</v>
+        <v>0.008050168498034638</v>
       </c>
       <c r="M17" t="n">
-        <v>14.90166238483383</v>
+        <v>14.91071139260923</v>
       </c>
       <c r="N17" t="n">
-        <v>385.5121492931912</v>
+        <v>384.9701140213068</v>
       </c>
       <c r="O17" t="n">
-        <v>19.63446330545327</v>
+        <v>19.62065529031349</v>
       </c>
       <c r="P17" t="n">
-        <v>374.7752618085954</v>
+        <v>374.9979405537033</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -19412,28 +19590,28 @@
         <v>0.0377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4966394701154648</v>
+        <v>0.4688887192232161</v>
       </c>
       <c r="J18" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03843301751207284</v>
+        <v>0.03469776735380747</v>
       </c>
       <c r="M18" t="n">
-        <v>14.99486744557447</v>
+        <v>15.02324507422015</v>
       </c>
       <c r="N18" t="n">
-        <v>373.0523026500731</v>
+        <v>373.3428032348152</v>
       </c>
       <c r="O18" t="n">
-        <v>19.31456193264743</v>
+        <v>19.32208071701428</v>
       </c>
       <c r="P18" t="n">
-        <v>374.8240973916515</v>
+        <v>375.0684616723794</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -19490,28 +19668,28 @@
         <v>0.0388</v>
       </c>
       <c r="I19" t="n">
-        <v>0.41675314944981</v>
+        <v>0.3907589310110185</v>
       </c>
       <c r="J19" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03019597942256358</v>
+        <v>0.0268794069293814</v>
       </c>
       <c r="M19" t="n">
-        <v>14.37994837789297</v>
+        <v>14.40423791778125</v>
       </c>
       <c r="N19" t="n">
-        <v>330.3337508702261</v>
+        <v>330.5978011092428</v>
       </c>
       <c r="O19" t="n">
-        <v>18.17508599347541</v>
+        <v>18.18234861367592</v>
       </c>
       <c r="P19" t="n">
-        <v>374.6072985246979</v>
+        <v>374.8378426399527</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -19568,28 +19746,28 @@
         <v>0.0416</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2965223319101846</v>
+        <v>0.2727942000852175</v>
       </c>
       <c r="J20" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01706233959769099</v>
+        <v>0.01461155685659643</v>
       </c>
       <c r="M20" t="n">
-        <v>13.47697116899047</v>
+        <v>13.49601242504112</v>
       </c>
       <c r="N20" t="n">
-        <v>303.5429115965362</v>
+        <v>303.5817207542487</v>
       </c>
       <c r="O20" t="n">
-        <v>17.42248293431611</v>
+        <v>17.42359666527691</v>
       </c>
       <c r="P20" t="n">
-        <v>373.8097881807833</v>
+        <v>374.0215809293144</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -19646,28 +19824,28 @@
         <v>0.0396</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04227720694458047</v>
+        <v>0.01121382639795179</v>
       </c>
       <c r="J21" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004064611484354552</v>
+        <v>2.86922769370257e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>12.59200475768026</v>
+        <v>12.62623729841207</v>
       </c>
       <c r="N21" t="n">
-        <v>274.0718600450562</v>
+        <v>275.7904542370602</v>
       </c>
       <c r="O21" t="n">
-        <v>16.55511582699004</v>
+        <v>16.60693994199594</v>
       </c>
       <c r="P21" t="n">
-        <v>379.3230877139561</v>
+        <v>379.5943521338563</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -19724,28 +19902,28 @@
         <v>0.0447</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1132005353208671</v>
+        <v>0.08974770048708494</v>
       </c>
       <c r="J22" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002903985969603617</v>
+        <v>0.001837392257750259</v>
       </c>
       <c r="M22" t="n">
-        <v>12.9902766581245</v>
+        <v>12.99571972984089</v>
       </c>
       <c r="N22" t="n">
-        <v>279.3902352416928</v>
+        <v>279.9221334041097</v>
       </c>
       <c r="O22" t="n">
-        <v>16.71497039308454</v>
+        <v>16.73087365931946</v>
       </c>
       <c r="P22" t="n">
-        <v>374.6510410142229</v>
+        <v>374.8594270429457</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -19802,28 +19980,28 @@
         <v>0.0418</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1038738501411295</v>
+        <v>-0.1249995831364972</v>
       </c>
       <c r="J23" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00293416544166214</v>
+        <v>0.004260791467257219</v>
       </c>
       <c r="M23" t="n">
-        <v>12.13670370782546</v>
+        <v>12.17096070523065</v>
       </c>
       <c r="N23" t="n">
-        <v>229.1576674313328</v>
+        <v>229.67696404011</v>
       </c>
       <c r="O23" t="n">
-        <v>15.13795453260885</v>
+        <v>15.15509696571124</v>
       </c>
       <c r="P23" t="n">
-        <v>376.9095464855643</v>
+        <v>377.1049072916966</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -19880,28 +20058,28 @@
         <v>0.0427</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1047642095735915</v>
+        <v>-0.123587112194294</v>
       </c>
       <c r="J24" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00276414871337427</v>
+        <v>0.003868102043741883</v>
       </c>
       <c r="M24" t="n">
-        <v>12.76280339872358</v>
+        <v>12.7710029097465</v>
       </c>
       <c r="N24" t="n">
-        <v>246.1164453520117</v>
+        <v>246.0877860358612</v>
       </c>
       <c r="O24" t="n">
-        <v>15.68809884441106</v>
+        <v>15.6871854083472</v>
       </c>
       <c r="P24" t="n">
-        <v>381.9880228586221</v>
+        <v>382.1618780471582</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -19958,28 +20136,28 @@
         <v>0.044</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.3713041915055132</v>
+        <v>-0.3929280880213311</v>
       </c>
       <c r="J25" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03351576263338607</v>
+        <v>0.03759658338112493</v>
       </c>
       <c r="M25" t="n">
-        <v>12.81338075115003</v>
+        <v>12.82732003555964</v>
       </c>
       <c r="N25" t="n">
-        <v>247.4781995072508</v>
+        <v>247.6353443164135</v>
       </c>
       <c r="O25" t="n">
-        <v>15.73143984215211</v>
+        <v>15.73643365939098</v>
       </c>
       <c r="P25" t="n">
-        <v>396.4517618939414</v>
+        <v>396.65430474743</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -20036,28 +20214,28 @@
         <v>0.0358</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2656335233637827</v>
+        <v>-0.2833627747118346</v>
       </c>
       <c r="J26" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01245809465194792</v>
+        <v>0.01427848651392838</v>
       </c>
       <c r="M26" t="n">
-        <v>14.8902943426628</v>
+        <v>14.87184154876443</v>
       </c>
       <c r="N26" t="n">
-        <v>341.0651618936865</v>
+        <v>340.0732466155013</v>
       </c>
       <c r="O26" t="n">
-        <v>18.46794958553024</v>
+        <v>18.44107498535542</v>
       </c>
       <c r="P26" t="n">
-        <v>387.7342671096953</v>
+        <v>387.9034954375465</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -20114,28 +20292,28 @@
         <v>0.0341</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2124172698476063</v>
+        <v>-0.2290016287505022</v>
       </c>
       <c r="J27" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L27" t="n">
-        <v>0.007945676697104997</v>
+        <v>0.009315244823040914</v>
       </c>
       <c r="M27" t="n">
-        <v>15.28704951449929</v>
+        <v>15.26981276945387</v>
       </c>
       <c r="N27" t="n">
-        <v>359.6448424367401</v>
+        <v>358.2861964587488</v>
       </c>
       <c r="O27" t="n">
-        <v>18.96430442797046</v>
+        <v>18.92844939393475</v>
       </c>
       <c r="P27" t="n">
-        <v>386.0221736240346</v>
+        <v>386.1741781599935</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -20173,7 +20351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB199"/>
+  <dimension ref="A1:AB201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43587,6 +43765,246 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>-34.710475184082355,173.07012135486474</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>-34.711002261496624,173.07075282141176</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>-34.711491529035634,173.07143695234993</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>-34.71213917512041,173.07190045411994</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>-34.71270280453732,173.0724809873098</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>-34.71321414363012,173.0731344047182</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>-34.71375771042284,173.07374284408363</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>-34.71426697550932,173.0743975260295</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>-34.71481612228527,173.0749980731806</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>-34.71533613999417,173.0756381345717</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>-34.7158862553276,173.07623514648236</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>-34.71641137792465,173.07685727369912</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>-34.7169516928042,173.07746584844648</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>-34.717517667582456,173.07805139510424</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>-34.717975849482265,173.07876037168114</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>-34.71062084445823,173.0699184460955</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-34.711153898094395,173.07054158802526</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>-34.7117102583414,173.07113225791818</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>-34.71231767346901,173.07165180176096</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>-34.71281829356879,173.07232010870328</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>-34.71336544012187,173.07292417236926</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>-34.7138875432906,173.0735648045916</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>-34.714428814961565,173.07417795815508</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>-34.71494199131242,173.07482730675892</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>-34.71543985033195,173.07549743120907</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>-34.715973634621335,173.07611925479148</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>-34.71653601309876,173.07670540830316</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>-34.71711419586543,173.0772797657048</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>-34.71762873357499,173.0779242132435</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>-34.71805284248695,173.07867220726024</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>-34.718529696181946,173.07935979931798</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>-34.719013420876685,173.08003771665793</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>-34.719482597664786,173.0807293859973</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>-34.71995664022391,173.0814185185703</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>-34.720460316820834,173.08208287338041</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>-34.720865634297944,173.08283692634583</t>
+        </is>
+      </c>
+      <c r="W201" t="inlineStr">
+        <is>
+          <t>-34.72126653969028,173.08359313657525</t>
+        </is>
+      </c>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>-34.721598784249885,173.08439883468478</t>
+        </is>
+      </c>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>-34.72193006982566,173.08519767496452</t>
+        </is>
+      </c>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>-34.72221870945219,173.08601217573798</t>
+        </is>
+      </c>
+      <c r="AA201" t="inlineStr">
+        <is>
+          <t>-34.72243220543892,173.08687128293337</t>
+        </is>
+      </c>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0012/nzd0012.xlsx
+++ b/data/nzd0012/nzd0012.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB201"/>
+  <dimension ref="A1:AB202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16130,6 +16130,96 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>323.99</v>
+      </c>
+      <c r="C202" t="n">
+        <v>331.8</v>
+      </c>
+      <c r="D202" t="n">
+        <v>342.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>328.31</v>
+      </c>
+      <c r="F202" t="n">
+        <v>313.63</v>
+      </c>
+      <c r="G202" t="n">
+        <v>331.6585714285715</v>
+      </c>
+      <c r="H202" t="n">
+        <v>339.9</v>
+      </c>
+      <c r="I202" t="n">
+        <v>342.48</v>
+      </c>
+      <c r="J202" t="n">
+        <v>343.44</v>
+      </c>
+      <c r="K202" t="n">
+        <v>349.15</v>
+      </c>
+      <c r="L202" t="n">
+        <v>349.08</v>
+      </c>
+      <c r="M202" t="n">
+        <v>350.7785714285715</v>
+      </c>
+      <c r="N202" t="n">
+        <v>344.29</v>
+      </c>
+      <c r="O202" t="n">
+        <v>332.16</v>
+      </c>
+      <c r="P202" t="n">
+        <v>347.96</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>351.33</v>
+      </c>
+      <c r="R202" t="n">
+        <v>361.8485714285715</v>
+      </c>
+      <c r="S202" t="n">
+        <v>361.1085714285715</v>
+      </c>
+      <c r="T202" t="n">
+        <v>359.79</v>
+      </c>
+      <c r="U202" t="n">
+        <v>358.9285714285714</v>
+      </c>
+      <c r="V202" t="n">
+        <v>354.84</v>
+      </c>
+      <c r="W202" t="n">
+        <v>352.99</v>
+      </c>
+      <c r="X202" t="n">
+        <v>359.88</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>367.07</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>362.59</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>369.95</v>
+      </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16141,7 +16231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18169,6 +18259,16 @@
       </c>
       <c r="B202" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -18342,28 +18442,28 @@
         <v>0.0309</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09742945451329361</v>
+        <v>0.05446436782361441</v>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K2" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001444667878202743</v>
+        <v>0.0004476452592498958</v>
       </c>
       <c r="M2" t="n">
-        <v>16.01831215321295</v>
+        <v>16.15899889939451</v>
       </c>
       <c r="N2" t="n">
-        <v>394.5416330897089</v>
+        <v>401.0089708425689</v>
       </c>
       <c r="O2" t="n">
-        <v>19.86307209597017</v>
+        <v>20.025208384498</v>
       </c>
       <c r="P2" t="n">
-        <v>360.5552150868158</v>
+        <v>360.9538523691125</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18420,28 +18520,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1609908801859662</v>
+        <v>0.1243527708366348</v>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K3" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005440198266879914</v>
+        <v>0.003220173659645331</v>
       </c>
       <c r="M3" t="n">
-        <v>13.04357836099167</v>
+        <v>13.15295727457045</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7433729382502</v>
+        <v>293.6805194080143</v>
       </c>
       <c r="O3" t="n">
-        <v>16.99245046890678</v>
+        <v>17.1371094239377</v>
       </c>
       <c r="P3" t="n">
-        <v>362.0256053411437</v>
+        <v>362.3592789723596</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18498,28 +18598,28 @@
         <v>0.0306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1483535072537869</v>
+        <v>0.1212056269031786</v>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K4" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005025365742077348</v>
+        <v>0.003357365401168044</v>
       </c>
       <c r="M4" t="n">
-        <v>12.73874846024262</v>
+        <v>12.82467780933666</v>
       </c>
       <c r="N4" t="n">
-        <v>269.3341305115998</v>
+        <v>271.4530354514023</v>
       </c>
       <c r="O4" t="n">
-        <v>16.41140245413535</v>
+        <v>16.47583185916275</v>
       </c>
       <c r="P4" t="n">
-        <v>364.7887578501907</v>
+        <v>365.030181007301</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18576,28 +18676,28 @@
         <v>0.031</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2265300764461166</v>
+        <v>0.1909200136309036</v>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K5" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008800377434171169</v>
+        <v>0.006234171938595212</v>
       </c>
       <c r="M5" t="n">
-        <v>14.80531693832253</v>
+        <v>14.92925437110062</v>
       </c>
       <c r="N5" t="n">
-        <v>363.5786208173886</v>
+        <v>368.0159641221825</v>
       </c>
       <c r="O5" t="n">
-        <v>19.06773769531636</v>
+        <v>19.18374218243621</v>
       </c>
       <c r="P5" t="n">
-        <v>356.8905105281747</v>
+        <v>357.2033315028336</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18654,28 +18754,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3566708793681991</v>
+        <v>0.3015116682156718</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K6" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01900943291075241</v>
+        <v>0.01338285281932816</v>
       </c>
       <c r="M6" t="n">
-        <v>15.78030952837146</v>
+        <v>15.98316661000248</v>
       </c>
       <c r="N6" t="n">
-        <v>407.3480257055355</v>
+        <v>419.0340942830892</v>
       </c>
       <c r="O6" t="n">
-        <v>20.18286465558186</v>
+        <v>20.47032228087993</v>
       </c>
       <c r="P6" t="n">
-        <v>354.0075724652071</v>
+        <v>354.4927096005165</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18732,28 +18832,28 @@
         <v>0.0419</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2515056575075886</v>
+        <v>0.2150378561125442</v>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K7" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01088131323562558</v>
+        <v>0.00794294511836946</v>
       </c>
       <c r="M7" t="n">
-        <v>14.82895655446903</v>
+        <v>14.93324284237018</v>
       </c>
       <c r="N7" t="n">
-        <v>356.5540986313451</v>
+        <v>360.7122585309945</v>
       </c>
       <c r="O7" t="n">
-        <v>18.88264013932758</v>
+        <v>18.99242634659917</v>
       </c>
       <c r="P7" t="n">
-        <v>357.9198014871615</v>
+        <v>358.2464067089624</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18810,28 +18910,28 @@
         <v>0.0463</v>
       </c>
       <c r="I8" t="n">
-        <v>0.216734081728435</v>
+        <v>0.1865646150510213</v>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K8" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01024832407058562</v>
+        <v>0.007608612559663941</v>
       </c>
       <c r="M8" t="n">
-        <v>13.02001764446745</v>
+        <v>13.08544858340509</v>
       </c>
       <c r="N8" t="n">
-        <v>282.4431419648523</v>
+        <v>284.8584881014861</v>
       </c>
       <c r="O8" t="n">
-        <v>16.80604480432122</v>
+        <v>16.87775127502139</v>
       </c>
       <c r="P8" t="n">
-        <v>360.718634176695</v>
+        <v>360.9833503140485</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18888,28 +18988,28 @@
         <v>0.0423</v>
       </c>
       <c r="I9" t="n">
-        <v>0.243324570963612</v>
+        <v>0.2107234974381995</v>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K9" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01162715735296094</v>
+        <v>0.008752474645942199</v>
       </c>
       <c r="M9" t="n">
-        <v>13.41276153764279</v>
+        <v>13.47187812434609</v>
       </c>
       <c r="N9" t="n">
-        <v>301.7600157454117</v>
+        <v>304.1096944846183</v>
       </c>
       <c r="O9" t="n">
-        <v>17.37124105369019</v>
+        <v>17.43874119552837</v>
       </c>
       <c r="P9" t="n">
-        <v>362.3339052137564</v>
+        <v>362.6285471870231</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -18966,28 +19066,28 @@
         <v>0.0426</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3409866896182289</v>
+        <v>0.3012136174072625</v>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K10" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0221433103701788</v>
+        <v>0.01728594075800438</v>
       </c>
       <c r="M10" t="n">
-        <v>13.84659863194871</v>
+        <v>13.93533011555263</v>
       </c>
       <c r="N10" t="n">
-        <v>306.7090782509662</v>
+        <v>310.9227201477862</v>
       </c>
       <c r="O10" t="n">
-        <v>17.51311160961884</v>
+        <v>17.63300088322422</v>
       </c>
       <c r="P10" t="n">
-        <v>366.1752741253367</v>
+        <v>366.5298470426712</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19044,28 +19144,28 @@
         <v>0.042</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2507609540000665</v>
+        <v>0.2150158720171635</v>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K11" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01163531857216749</v>
+        <v>0.0085924706154209</v>
       </c>
       <c r="M11" t="n">
-        <v>14.2210795313492</v>
+        <v>14.29537359860052</v>
       </c>
       <c r="N11" t="n">
-        <v>316.1772343986357</v>
+        <v>318.7423110072024</v>
       </c>
       <c r="O11" t="n">
-        <v>17.78137324276828</v>
+        <v>17.8533557351889</v>
       </c>
       <c r="P11" t="n">
-        <v>369.3670270883776</v>
+        <v>369.6905972375422</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19122,28 +19222,28 @@
         <v>0.0455</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2207210665258014</v>
+        <v>0.1833325311615242</v>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K12" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01065300405485603</v>
+        <v>0.007348530527202968</v>
       </c>
       <c r="M12" t="n">
-        <v>13.36262111604158</v>
+        <v>13.43503734346362</v>
       </c>
       <c r="N12" t="n">
-        <v>273.2288173336287</v>
+        <v>276.6827229381636</v>
       </c>
       <c r="O12" t="n">
-        <v>16.52963451905784</v>
+        <v>16.63378258058472</v>
       </c>
       <c r="P12" t="n">
-        <v>371.6113935454913</v>
+        <v>371.9472973211733</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -19200,28 +19300,28 @@
         <v>0.041</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2646053140069507</v>
+        <v>0.2315085539845606</v>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K13" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01285399942994037</v>
+        <v>0.009888775643273284</v>
       </c>
       <c r="M13" t="n">
-        <v>14.02087312943908</v>
+        <v>14.09945988463382</v>
       </c>
       <c r="N13" t="n">
-        <v>325.0370535961754</v>
+        <v>327.3365037171235</v>
       </c>
       <c r="O13" t="n">
-        <v>18.02878402988331</v>
+        <v>18.09244327660373</v>
       </c>
       <c r="P13" t="n">
-        <v>370.5144869852494</v>
+        <v>370.806157167559</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -19278,28 +19378,28 @@
         <v>0.0354</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3237326272026941</v>
+        <v>0.2847252968678811</v>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K14" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01408802911990881</v>
+        <v>0.01096461647269831</v>
       </c>
       <c r="M14" t="n">
-        <v>16.67746042021796</v>
+        <v>16.72369738111939</v>
       </c>
       <c r="N14" t="n">
-        <v>439.5856591358843</v>
+        <v>442.4849677250403</v>
       </c>
       <c r="O14" t="n">
-        <v>20.96629817435315</v>
+        <v>21.0353266607638</v>
       </c>
       <c r="P14" t="n">
-        <v>366.0812721123483</v>
+        <v>366.4253765923544</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -19356,28 +19456,28 @@
         <v>0.0283</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3788162367104052</v>
+        <v>0.3157019939676688</v>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K15" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01278427816161065</v>
+        <v>0.008898601985671606</v>
       </c>
       <c r="M15" t="n">
-        <v>19.99341329851028</v>
+        <v>20.12790964349937</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4686235760602</v>
+        <v>670.4249856030908</v>
       </c>
       <c r="O15" t="n">
-        <v>25.73846583571096</v>
+        <v>25.89256622281945</v>
       </c>
       <c r="P15" t="n">
-        <v>363.756286874327</v>
+        <v>364.3321670454978</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -19434,28 +19534,28 @@
         <v>0.0314</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5535259064660056</v>
+        <v>0.5166177318481943</v>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K16" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03130706497185254</v>
+        <v>0.02755425502357023</v>
       </c>
       <c r="M16" t="n">
-        <v>19.33062789926035</v>
+        <v>19.38200904053994</v>
       </c>
       <c r="N16" t="n">
-        <v>584.9395303917878</v>
+        <v>586.2199981610564</v>
       </c>
       <c r="O16" t="n">
-        <v>24.18552315728952</v>
+        <v>24.2119804675507</v>
       </c>
       <c r="P16" t="n">
-        <v>361.6109070534599</v>
+        <v>361.9411269551056</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -19512,28 +19612,28 @@
         <v>0.0355</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2294248859436877</v>
+        <v>0.1885025810075392</v>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K17" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008050168498034638</v>
+        <v>0.005458067438086189</v>
       </c>
       <c r="M17" t="n">
-        <v>14.91071139260923</v>
+        <v>14.99607856999843</v>
       </c>
       <c r="N17" t="n">
-        <v>384.9701140213068</v>
+        <v>388.2040578029297</v>
       </c>
       <c r="O17" t="n">
-        <v>19.62065529031349</v>
+        <v>19.70289465542892</v>
       </c>
       <c r="P17" t="n">
-        <v>374.9979405537033</v>
+        <v>375.3632533787635</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -19590,28 +19690,28 @@
         <v>0.0377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4688887192232161</v>
+        <v>0.4353721394496185</v>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K18" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03469776735380747</v>
+        <v>0.03019542060295799</v>
       </c>
       <c r="M18" t="n">
-        <v>15.02324507422015</v>
+        <v>15.07982534241758</v>
       </c>
       <c r="N18" t="n">
-        <v>373.3428032348152</v>
+        <v>375.0807692037106</v>
       </c>
       <c r="O18" t="n">
-        <v>19.32208071701428</v>
+        <v>19.36700207062804</v>
       </c>
       <c r="P18" t="n">
-        <v>375.0684616723794</v>
+        <v>375.3642109038213</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -19668,28 +19768,28 @@
         <v>0.0388</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3907589310110185</v>
+        <v>0.3594793032105731</v>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K19" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0268794069293814</v>
+        <v>0.02295568624494626</v>
       </c>
       <c r="M19" t="n">
-        <v>14.40423791778125</v>
+        <v>14.45478140536565</v>
       </c>
       <c r="N19" t="n">
-        <v>330.5978011092428</v>
+        <v>332.0807218335054</v>
       </c>
       <c r="O19" t="n">
-        <v>18.18234861367592</v>
+        <v>18.22308211674154</v>
       </c>
       <c r="P19" t="n">
-        <v>374.8378426399527</v>
+        <v>375.1158177184336</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -19746,28 +19846,28 @@
         <v>0.0416</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2727942000852175</v>
+        <v>0.2448916959255403</v>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K20" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01461155685659643</v>
+        <v>0.01187873757725499</v>
       </c>
       <c r="M20" t="n">
-        <v>13.49601242504112</v>
+        <v>13.53648173911962</v>
       </c>
       <c r="N20" t="n">
-        <v>303.5817207542487</v>
+        <v>304.5262785177933</v>
       </c>
       <c r="O20" t="n">
-        <v>17.42359666527691</v>
+        <v>17.45068131958731</v>
       </c>
       <c r="P20" t="n">
-        <v>374.0215809293144</v>
+        <v>374.2711499354791</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -19824,28 +19924,28 @@
         <v>0.0396</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01121382639795179</v>
+        <v>-0.01659922417059903</v>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K21" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" t="n">
-        <v>2.86922769370257e-05</v>
+        <v>6.31785155447151e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>12.62623729841207</v>
+        <v>12.64657249704548</v>
       </c>
       <c r="N21" t="n">
-        <v>275.7904542370602</v>
+        <v>276.8781756747214</v>
       </c>
       <c r="O21" t="n">
-        <v>16.60693994199594</v>
+        <v>16.63965671745428</v>
       </c>
       <c r="P21" t="n">
-        <v>379.5943521338563</v>
+        <v>379.8377701438342</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -19902,28 +20002,28 @@
         <v>0.0447</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08974770048708494</v>
+        <v>0.06276151959393492</v>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K22" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001837392257750259</v>
+        <v>0.0009012825585515971</v>
       </c>
       <c r="M22" t="n">
-        <v>12.99571972984089</v>
+        <v>13.01468695437435</v>
       </c>
       <c r="N22" t="n">
-        <v>279.9221334041097</v>
+        <v>281.3462087998439</v>
       </c>
       <c r="O22" t="n">
-        <v>16.73087365931946</v>
+        <v>16.77337797820832</v>
       </c>
       <c r="P22" t="n">
-        <v>374.8594270429457</v>
+        <v>375.0997805842451</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -19980,28 +20080,28 @@
         <v>0.0418</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1249995831364972</v>
+        <v>-0.1496164531031409</v>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K23" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004260791467257219</v>
+        <v>0.006094797325876256</v>
       </c>
       <c r="M23" t="n">
-        <v>12.17096070523065</v>
+        <v>12.2235582888836</v>
       </c>
       <c r="N23" t="n">
-        <v>229.67696404011</v>
+        <v>231.0276985670685</v>
       </c>
       <c r="O23" t="n">
-        <v>15.15509696571124</v>
+        <v>15.19959534221449</v>
       </c>
       <c r="P23" t="n">
-        <v>377.1049072916966</v>
+        <v>377.3331178359921</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -20058,28 +20158,28 @@
         <v>0.0427</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.123587112194294</v>
+        <v>-0.1460745072703596</v>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K24" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003868102043741883</v>
+        <v>0.005413381307389442</v>
       </c>
       <c r="M24" t="n">
-        <v>12.7710029097465</v>
+        <v>12.79698049268433</v>
       </c>
       <c r="N24" t="n">
-        <v>246.0877860358612</v>
+        <v>246.8341654258679</v>
       </c>
       <c r="O24" t="n">
-        <v>15.6871854083472</v>
+        <v>15.71095685901619</v>
       </c>
       <c r="P24" t="n">
-        <v>382.1618780471582</v>
+        <v>382.3700854510882</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -20136,28 +20236,28 @@
         <v>0.044</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.3929280880213311</v>
+        <v>-0.4178040858385903</v>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K25" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03759658338112493</v>
+        <v>0.04240760455016745</v>
       </c>
       <c r="M25" t="n">
-        <v>12.82732003555964</v>
+        <v>12.85713609742363</v>
       </c>
       <c r="N25" t="n">
-        <v>247.6353443164135</v>
+        <v>248.5432990050352</v>
       </c>
       <c r="O25" t="n">
-        <v>15.73643365939098</v>
+        <v>15.76525607166072</v>
       </c>
       <c r="P25" t="n">
-        <v>396.65430474743</v>
+        <v>396.8879002177164</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -20214,28 +20314,28 @@
         <v>0.0358</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2833627747118346</v>
+        <v>-0.3051671671126773</v>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K26" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01427848651392838</v>
+        <v>0.01662705442943413</v>
       </c>
       <c r="M26" t="n">
-        <v>14.87184154876443</v>
+        <v>14.87481223813673</v>
       </c>
       <c r="N26" t="n">
-        <v>340.0732466155013</v>
+        <v>339.9016289160367</v>
       </c>
       <c r="O26" t="n">
-        <v>18.44107498535542</v>
+        <v>18.43642126108092</v>
       </c>
       <c r="P26" t="n">
-        <v>387.9034954375465</v>
+        <v>388.1121409628191</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -20292,28 +20392,28 @@
         <v>0.0341</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2290016287505022</v>
+        <v>-0.2415427985362812</v>
       </c>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K27" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L27" t="n">
-        <v>0.009315244823040914</v>
+        <v>0.01046857589855965</v>
       </c>
       <c r="M27" t="n">
-        <v>15.26981276945387</v>
+        <v>15.23364697082586</v>
       </c>
       <c r="N27" t="n">
-        <v>358.2861964587488</v>
+        <v>356.425872819597</v>
       </c>
       <c r="O27" t="n">
-        <v>18.92844939393475</v>
+        <v>18.87924449811478</v>
       </c>
       <c r="P27" t="n">
-        <v>386.1741781599935</v>
+        <v>386.2894237037785</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -20351,7 +20451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB201"/>
+  <dimension ref="A1:AB202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44005,6 +44105,148 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>-34.71065237852401,173.06987451814882</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>-34.711163305112684,173.07052848378277</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-34.711654762582654,173.07120956490724</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>-34.712298208476724,173.0716789170353</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>-34.71294218371598,173.07214752634013</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-34.71339290621503,173.07288600702992</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-34.71390103395515,173.07354630482396</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>-34.71443710209161,173.07416671495332</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>-34.71498204595701,173.07477296447325</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>-34.71549846131313,173.07541791369295</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>-34.7160506766761,173.07601707311923</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>-34.716582964655856,173.07664819861805</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>-34.71713509845606,173.077255830009</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>-34.717721714382265,173.07781774037997</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>-34.71812531414133,173.07858922000497</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>-34.71861035891179,173.07926743275925</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>-34.71904893927637,173.08000020815342</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>-34.71951668743633,173.0806964509987</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>-34.71998435054611,173.08139193588016</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>-34.720449655592134,173.0820923094278</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>-34.7208933257647,173.0828153768369</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>-34.72129421572154,173.0835725842466</t>
+        </is>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>-34.72162707539457,173.0843778257366</t>
+        </is>
+      </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>-34.72195597968587,173.0851822876587</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>-34.72225187956074,173.08599835010543</t>
+        </is>
+      </c>
+      <c r="AA202" t="inlineStr">
+        <is>
+          <t>-34.72240809705688,173.08688037436653</t>
+        </is>
+      </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0012/nzd0012.xlsx
+++ b/data/nzd0012/nzd0012.xlsx
@@ -18433,13 +18433,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0247</v>
+        <v>0.0286</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0309</v>
+        <v>0.0363</v>
       </c>
       <c r="I2" t="n">
         <v>0.05446436782361462</v>
@@ -18514,10 +18514,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0292</v>
+        <v>0.0249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0315</v>
+        <v>0.0328</v>
       </c>
       <c r="I3" t="n">
         <v>0.124379558584239</v>
@@ -18589,13 +18589,13 @@
         <v>0.08002631456999686</v>
       </c>
       <c r="F4" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0247</v>
+        <v>0.0288</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0306</v>
+        <v>0.0382</v>
       </c>
       <c r="I4" t="n">
         <v>0.121205626903179</v>
@@ -18667,13 +18667,13 @@
         <v>0.1200394718575114</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.025</v>
+        <v>0.0311</v>
       </c>
       <c r="H5" t="n">
-        <v>0.031</v>
+        <v>0.0403</v>
       </c>
       <c r="I5" t="n">
         <v>0.1909469844261716</v>
@@ -18745,13 +18745,13 @@
         <v>0.1600526291430693</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0251</v>
+        <v>0.0305</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0316</v>
+        <v>0.0402</v>
       </c>
       <c r="I6" t="n">
         <v>0.3015346952715585</v>
@@ -18823,13 +18823,13 @@
         <v>0.2000657864284866</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0338</v>
+        <v>0.0454</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0419</v>
+        <v>0.0688</v>
       </c>
       <c r="I7" t="n">
         <v>0.215024824212461</v>
@@ -18901,13 +18901,13 @@
         <v>0.2400784170939814</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0381</v>
+        <v>0.0514</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0463</v>
+        <v>0.0762</v>
       </c>
       <c r="I8" t="n">
         <v>0.1865646150510213</v>
@@ -18979,13 +18979,13 @@
         <v>0.2800915743805575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0342</v>
+        <v>0.0542</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0423</v>
+        <v>0.0827</v>
       </c>
       <c r="I9" t="n">
         <v>0.2107234974381995</v>
@@ -19057,13 +19057,13 @@
         <v>0.3201047316671337</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0346</v>
+        <v>0.0476</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0426</v>
+        <v>0.0687</v>
       </c>
       <c r="I10" t="n">
         <v>0.3012136174072625</v>
@@ -19135,13 +19135,13 @@
         <v>0.3601178889532727</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0344</v>
+        <v>0.0469</v>
       </c>
       <c r="H11" t="n">
-        <v>0.042</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>0.2150158720171635</v>
@@ -19213,13 +19213,13 @@
         <v>0.4001310462388559</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0379</v>
+        <v>0.0476</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0455</v>
+        <v>0.0673</v>
       </c>
       <c r="I12" t="n">
         <v>0.1833325311615242</v>
@@ -19291,13 +19291,13 @@
         <v>0.4401161921572128</v>
       </c>
       <c r="F13" t="n">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0333</v>
+        <v>0.0445</v>
       </c>
       <c r="H13" t="n">
-        <v>0.041</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>0.2315063006058667</v>
@@ -19369,13 +19369,13 @@
         <v>0.4801293494449919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0286</v>
+        <v>0.0343</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0354</v>
+        <v>0.0544</v>
       </c>
       <c r="I14" t="n">
         <v>0.2847384878643634</v>
@@ -19447,13 +19447,13 @@
         <v>0.5201425067303482</v>
       </c>
       <c r="F15" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.024</v>
+        <v>0.0298</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0283</v>
+        <v>0.0405</v>
       </c>
       <c r="I15" t="n">
         <v>0.315701993967669</v>
@@ -19525,13 +19525,13 @@
         <v>0.5601556640167881</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G16" t="n">
-        <v>0.025</v>
+        <v>0.0321</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0314</v>
+        <v>0.0456</v>
       </c>
       <c r="I16" t="n">
         <v>0.5166294915107871</v>
@@ -19603,13 +19603,13 @@
         <v>0.6001688213020165</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0292</v>
+        <v>0.0397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0355</v>
+        <v>0.0601</v>
       </c>
       <c r="I17" t="n">
         <v>0.1885125506631171</v>
@@ -19681,13 +19681,13 @@
         <v>0.6401819785875009</v>
       </c>
       <c r="F18" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0307</v>
+        <v>0.0404</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0377</v>
+        <v>0.06</v>
       </c>
       <c r="I18" t="n">
         <v>0.4353711370298903</v>
@@ -19759,13 +19759,13 @@
         <v>0.6801840158984874</v>
       </c>
       <c r="F19" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0339</v>
+        <v>0.0398</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0388</v>
+        <v>0.0535</v>
       </c>
       <c r="I19" t="n">
         <v>0.3594753112241793</v>
@@ -19837,13 +19837,13 @@
         <v>0.7201971731848399</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.115</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0347</v>
+        <v>0.0713</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0416</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
         <v>0.2448916959255403</v>
@@ -19915,13 +19915,13 @@
         <v>0.7602103304713079</v>
       </c>
       <c r="F21" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0334</v>
+        <v>0.0414</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0396</v>
+        <v>0.0645</v>
       </c>
       <c r="I21" t="n">
         <v>-0.01662805849342069</v>
@@ -19993,13 +19993,13 @@
         <v>0.8001580214746661</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0371</v>
+        <v>0.0459</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0447</v>
+        <v>0.0644</v>
       </c>
       <c r="I22" t="n">
         <v>0.06276151959393492</v>
@@ -20071,13 +20071,13 @@
         <v>0.840171178761167</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0364</v>
+        <v>0.0449</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0418</v>
+        <v>0.0609</v>
       </c>
       <c r="I23" t="n">
         <v>-0.1496164531031409</v>
@@ -20149,13 +20149,13 @@
         <v>0.8801843360476678</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0341</v>
+        <v>0.0377</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0427</v>
+        <v>0.0521</v>
       </c>
       <c r="I24" t="n">
         <v>-0.1460745072703596</v>
@@ -20230,10 +20230,10 @@
         <v>0.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0344</v>
+        <v>0.0348</v>
       </c>
       <c r="H25" t="n">
-        <v>0.044</v>
+        <v>0.0533</v>
       </c>
       <c r="I25" t="n">
         <v>-0.4178040858385903</v>
@@ -20305,13 +20305,13 @@
         <v>0.9599868427138376</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0289</v>
+        <v>0.027</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0358</v>
+        <v>0.0422</v>
       </c>
       <c r="I26" t="n">
         <v>-0.3051787174226299</v>
@@ -20386,10 +20386,10 @@
         <v>0.03</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0272</v>
+        <v>0.0244</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0341</v>
+        <v>0.0331</v>
       </c>
       <c r="I27" t="n">
         <v>-0.2415362353454405</v>

--- a/data/nzd0012/nzd0012.xlsx
+++ b/data/nzd0012/nzd0012.xlsx
@@ -769,7 +769,7 @@
         <v>403.64</v>
       </c>
       <c r="T4" t="n">
-        <v>404.84</v>
+        <v>404.93</v>
       </c>
       <c r="U4" t="n">
         <v>394.83</v>
@@ -787,7 +787,7 @@
         <v>406.57</v>
       </c>
       <c r="Z4" t="n">
-        <v>385.73</v>
+        <v>384.54</v>
       </c>
       <c r="AA4" t="n">
         <v>385.13</v>
@@ -847,7 +847,7 @@
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>370.88</v>
+        <v>375.26</v>
       </c>
       <c r="AA5" t="n">
         <v>385.2</v>
@@ -919,7 +919,7 @@
         <v>378.26</v>
       </c>
       <c r="T6" t="n">
-        <v>377.38</v>
+        <v>377.37</v>
       </c>
       <c r="U6" t="n">
         <v>384.94</v>
@@ -937,7 +937,7 @@
         <v>383.89</v>
       </c>
       <c r="Z6" t="n">
-        <v>381.02</v>
+        <v>381.16</v>
       </c>
       <c r="AA6" t="n">
         <v>382.54</v>
@@ -1009,7 +1009,7 @@
         <v>382.25</v>
       </c>
       <c r="T7" t="n">
-        <v>384.53</v>
+        <v>384.69</v>
       </c>
       <c r="U7" t="n">
         <v>387.61</v>
@@ -1027,7 +1027,7 @@
         <v>403.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>394.12</v>
+        <v>392.02</v>
       </c>
       <c r="AA7" t="n">
         <v>393.88</v>
@@ -1099,7 +1099,7 @@
         <v>378.31</v>
       </c>
       <c r="T8" t="n">
-        <v>363</v>
+        <v>362.68</v>
       </c>
       <c r="U8" t="n">
         <v>376.18</v>
@@ -1117,7 +1117,7 @@
         <v>398.48</v>
       </c>
       <c r="Z8" t="n">
-        <v>389.08</v>
+        <v>393.32</v>
       </c>
       <c r="AA8" t="n">
         <v>397.47</v>
@@ -1189,7 +1189,7 @@
         <v>367.39</v>
       </c>
       <c r="T9" t="n">
-        <v>365.47</v>
+        <v>365.18</v>
       </c>
       <c r="U9" t="n">
         <v>375</v>
@@ -1207,7 +1207,7 @@
         <v>389.56</v>
       </c>
       <c r="Z9" t="n">
-        <v>382.73</v>
+        <v>386.54</v>
       </c>
       <c r="AA9" t="n">
         <v>385.18</v>
@@ -1435,7 +1435,7 @@
         <v>361.18</v>
       </c>
       <c r="T13" t="n">
-        <v>360.03</v>
+        <v>360.19</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         <v>356.84</v>
       </c>
       <c r="T14" t="n">
-        <v>353.66</v>
+        <v>353.85</v>
       </c>
       <c r="U14" t="n">
         <v>349.76</v>
@@ -1527,7 +1527,7 @@
         <v>366.76</v>
       </c>
       <c r="Z14" t="n">
-        <v>367.31</v>
+        <v>364.84</v>
       </c>
       <c r="AA14" t="n">
         <v>354.44</v>
@@ -1583,7 +1583,7 @@
         <v>360.96</v>
       </c>
       <c r="T15" t="n">
-        <v>364.4</v>
+        <v>364.44</v>
       </c>
       <c r="U15" t="n">
         <v>360.23</v>
@@ -1601,7 +1601,7 @@
         <v>373.89</v>
       </c>
       <c r="Z15" t="n">
-        <v>368.53</v>
+        <v>368</v>
       </c>
       <c r="AA15" t="n">
         <v>367.7</v>
@@ -1673,7 +1673,7 @@
         <v>365.19</v>
       </c>
       <c r="T16" t="n">
-        <v>353.81</v>
+        <v>353.48</v>
       </c>
       <c r="U16" t="n">
         <v>363.9</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>391.42</v>
+        <v>395.8</v>
       </c>
       <c r="AA16" t="n">
         <v>385.7</v>
@@ -1825,7 +1825,7 @@
         <v>362.51</v>
       </c>
       <c r="T18" t="n">
-        <v>348.55</v>
+        <v>348.45</v>
       </c>
       <c r="U18" t="n">
         <v>357.17</v>
@@ -1843,7 +1843,7 @@
         <v>372.44</v>
       </c>
       <c r="Z18" t="n">
-        <v>370.84</v>
+        <v>372.22</v>
       </c>
       <c r="AA18" t="n">
         <v>374.96</v>
@@ -1911,7 +1911,7 @@
         <v>355.32</v>
       </c>
       <c r="T19" t="n">
-        <v>357.61</v>
+        <v>357.82</v>
       </c>
       <c r="U19" t="n">
         <v>343.02</v>
@@ -1975,7 +1975,7 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>363.09</v>
+        <v>365.8</v>
       </c>
       <c r="AA20" t="n">
         <v>324.43</v>
@@ -2039,7 +2039,7 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
-        <v>357.58</v>
+        <v>357.55</v>
       </c>
       <c r="U21" t="n">
         <v>362.52</v>
@@ -2057,7 +2057,7 @@
         <v>377.61</v>
       </c>
       <c r="Z21" t="n">
-        <v>372.43</v>
+        <v>372.86</v>
       </c>
       <c r="AA21" t="n">
         <v>354.25</v>
@@ -2123,7 +2123,7 @@
         <v>374.01</v>
       </c>
       <c r="T22" t="n">
-        <v>372.24</v>
+        <v>372.18</v>
       </c>
       <c r="U22" t="n">
         <v>377.52</v>
@@ -2201,7 +2201,7 @@
         <v>360.88</v>
       </c>
       <c r="T23" t="n">
-        <v>349.83</v>
+        <v>349.55</v>
       </c>
       <c r="U23" t="n">
         <v>362.06</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>372.14</v>
+        <v>375.76</v>
       </c>
       <c r="AA23" t="n">
         <v>356.45</v>
@@ -2283,7 +2283,7 @@
         <v>373.62</v>
       </c>
       <c r="T24" t="n">
-        <v>361.07</v>
+        <v>360.73</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         <v>368.92</v>
       </c>
       <c r="T26" t="n">
-        <v>366.8</v>
+        <v>366.72</v>
       </c>
       <c r="U26" t="n">
         <v>369.94</v>
@@ -2429,7 +2429,7 @@
         <v>384.11</v>
       </c>
       <c r="Z26" t="n">
-        <v>378.8</v>
+        <v>379.84</v>
       </c>
       <c r="AA26" t="n">
         <v>367.89</v>
@@ -2497,7 +2497,7 @@
         <v>373.12</v>
       </c>
       <c r="T27" t="n">
-        <v>386.53</v>
+        <v>386.55</v>
       </c>
       <c r="U27" t="n">
         <v>379.83</v>
@@ -2575,7 +2575,7 @@
         <v>408.87</v>
       </c>
       <c r="T28" t="n">
-        <v>411.47</v>
+        <v>411.71</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -2635,7 +2635,7 @@
         <v>352.6</v>
       </c>
       <c r="T29" t="n">
-        <v>359.74</v>
+        <v>359.97</v>
       </c>
       <c r="U29" t="n">
         <v>367.65</v>
@@ -2653,7 +2653,7 @@
         <v>371.27</v>
       </c>
       <c r="Z29" t="n">
-        <v>363.82</v>
+        <v>360.82</v>
       </c>
       <c r="AA29" t="n">
         <v>371.4</v>
@@ -2721,7 +2721,7 @@
         <v>370.57</v>
       </c>
       <c r="T30" t="n">
-        <v>356.87</v>
+        <v>357.12</v>
       </c>
       <c r="U30" t="n">
         <v>373.31</v>
@@ -2739,7 +2739,7 @@
         <v>371.27</v>
       </c>
       <c r="Z30" t="n">
-        <v>365.3</v>
+        <v>362.01</v>
       </c>
       <c r="AA30" t="n">
         <v>362.79</v>
@@ -2805,7 +2805,7 @@
         <v>373.95</v>
       </c>
       <c r="T31" t="n">
-        <v>373.07</v>
+        <v>373.04</v>
       </c>
       <c r="U31" t="n">
         <v>387.26</v>
@@ -2885,7 +2885,7 @@
         <v>379.26</v>
       </c>
       <c r="T32" t="n">
-        <v>371.51</v>
+        <v>371.34</v>
       </c>
       <c r="U32" t="n">
         <v>381.78</v>
@@ -2903,7 +2903,7 @@
         <v>398.65</v>
       </c>
       <c r="Z32" t="n">
-        <v>392.36</v>
+        <v>394.6</v>
       </c>
       <c r="AA32" t="n">
         <v>390.09</v>
@@ -3039,7 +3039,7 @@
         <v>407.39</v>
       </c>
       <c r="Z34" t="n">
-        <v>402.85</v>
+        <v>402.75</v>
       </c>
       <c r="AA34" t="n">
         <v>389.92</v>
@@ -3111,7 +3111,7 @@
         <v>387.65</v>
       </c>
       <c r="T35" t="n">
-        <v>373.17</v>
+        <v>372.76</v>
       </c>
       <c r="U35" t="n">
         <v>389.29</v>
@@ -3129,7 +3129,7 @@
         <v>412.15</v>
       </c>
       <c r="Z35" t="n">
-        <v>417.34</v>
+        <v>422.67</v>
       </c>
       <c r="AA35" t="n">
         <v>420.87</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
-        <v>350.44</v>
+        <v>350.55</v>
       </c>
       <c r="U36" t="n">
         <v>358.99</v>
@@ -3279,7 +3279,7 @@
         <v>391.26</v>
       </c>
       <c r="T37" t="n">
-        <v>387.67</v>
+        <v>387.56</v>
       </c>
       <c r="U37" t="n">
         <v>385.09</v>
@@ -3297,7 +3297,7 @@
         <v>405.73</v>
       </c>
       <c r="Z37" t="n">
-        <v>400.85</v>
+        <v>402.28</v>
       </c>
       <c r="AA37" t="n">
         <v>404.89</v>
@@ -3365,7 +3365,7 @@
         <v>358.34</v>
       </c>
       <c r="T38" t="n">
-        <v>357.74</v>
+        <v>357.66</v>
       </c>
       <c r="U38" t="n">
         <v>360.43</v>
@@ -3383,7 +3383,7 @@
         <v>382.37</v>
       </c>
       <c r="Z38" t="n">
-        <v>378.41</v>
+        <v>379.51</v>
       </c>
       <c r="AA38" t="n">
         <v>382.91</v>
@@ -3439,7 +3439,7 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="n">
-        <v>405.47</v>
+        <v>405.64</v>
       </c>
       <c r="U39" t="n">
         <v>400.64</v>
@@ -3457,7 +3457,7 @@
         <v>422.42</v>
       </c>
       <c r="Z39" t="n">
-        <v>418.82</v>
+        <v>416.63</v>
       </c>
       <c r="AA39" t="n">
         <v>419.59</v>
@@ -3521,7 +3521,7 @@
         <v>391.35</v>
       </c>
       <c r="T40" t="n">
-        <v>387.03</v>
+        <v>386.98</v>
       </c>
       <c r="U40" t="n">
         <v>394.33</v>
@@ -3539,7 +3539,7 @@
         <v>404.33</v>
       </c>
       <c r="Z40" t="n">
-        <v>402.29</v>
+        <v>402.91</v>
       </c>
       <c r="AA40" t="n">
         <v>402.11</v>
@@ -3669,7 +3669,7 @@
         <v>385.08</v>
       </c>
       <c r="T42" t="n">
-        <v>393.43</v>
+        <v>393.65</v>
       </c>
       <c r="U42" t="n">
         <v>392.16</v>
@@ -3687,7 +3687,7 @@
         <v>379.31</v>
       </c>
       <c r="Z42" t="n">
-        <v>369.74</v>
+        <v>366.84</v>
       </c>
       <c r="AA42" t="n">
         <v>401.91</v>
@@ -3759,7 +3759,7 @@
         <v>358.84</v>
       </c>
       <c r="T43" t="n">
-        <v>355.5</v>
+        <v>355.51</v>
       </c>
       <c r="U43" t="n">
         <v>360.31</v>
@@ -3777,7 +3777,7 @@
         <v>385.32</v>
       </c>
       <c r="Z43" t="n">
-        <v>380.18</v>
+        <v>380.14</v>
       </c>
       <c r="AA43" t="n">
         <v>380.68</v>
@@ -3847,7 +3847,7 @@
         <v>336.14</v>
       </c>
       <c r="T44" t="n">
-        <v>327.01</v>
+        <v>326.82</v>
       </c>
       <c r="U44" t="n">
         <v>338.98</v>
@@ -4027,7 +4027,7 @@
         <v>356.65</v>
       </c>
       <c r="T47" t="n">
-        <v>340.87</v>
+        <v>340.44</v>
       </c>
       <c r="U47" t="n">
         <v>362.54</v>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
-        <v>349.23</v>
+        <v>354.9</v>
       </c>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
@@ -4109,7 +4109,7 @@
         <v>390.61</v>
       </c>
       <c r="T48" t="n">
-        <v>381.75</v>
+        <v>381.83</v>
       </c>
       <c r="U48" t="n">
         <v>381.18</v>
@@ -4127,7 +4127,7 @@
         <v>390.67</v>
       </c>
       <c r="Z48" t="n">
-        <v>385.37</v>
+        <v>384.27</v>
       </c>
       <c r="AA48" t="n">
         <v>385.22</v>
@@ -4199,7 +4199,7 @@
         <v>376.9</v>
       </c>
       <c r="T49" t="n">
-        <v>368.89</v>
+        <v>368.61</v>
       </c>
       <c r="U49" t="n">
         <v>383.42</v>
@@ -4217,7 +4217,7 @@
         <v>400.02</v>
       </c>
       <c r="Z49" t="n">
-        <v>385.1</v>
+        <v>388.72</v>
       </c>
       <c r="AA49" t="n">
         <v>393.53</v>
@@ -4279,7 +4279,7 @@
         <v>380.01</v>
       </c>
       <c r="T50" t="n">
-        <v>370.41</v>
+        <v>370.32</v>
       </c>
       <c r="U50" t="n">
         <v>374.95</v>
@@ -4297,7 +4297,7 @@
         <v>388.65</v>
       </c>
       <c r="Z50" t="n">
-        <v>368.85</v>
+        <v>370.04</v>
       </c>
       <c r="AA50" t="n">
         <v>375.07</v>
@@ -4341,7 +4341,7 @@
         <v>386.8</v>
       </c>
       <c r="T51" t="n">
-        <v>379.67</v>
+        <v>379.46</v>
       </c>
       <c r="U51" t="n">
         <v>402.19</v>
@@ -4359,7 +4359,7 @@
         <v>401.06</v>
       </c>
       <c r="Z51" t="n">
-        <v>396.44</v>
+        <v>399.25</v>
       </c>
       <c r="AA51" t="n">
         <v>398.94</v>
@@ -4477,7 +4477,7 @@
         <v>358.59</v>
       </c>
       <c r="T53" t="n">
-        <v>366.49</v>
+        <v>366.58</v>
       </c>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -4541,7 +4541,7 @@
         <v>348</v>
       </c>
       <c r="T54" t="n">
-        <v>351.43</v>
+        <v>351.7</v>
       </c>
       <c r="U54" t="n">
         <v>346.6</v>
@@ -4623,7 +4623,7 @@
         <v>384.33</v>
       </c>
       <c r="T55" t="n">
-        <v>362.67</v>
+        <v>362.42</v>
       </c>
       <c r="U55" t="n">
         <v>375.14</v>
@@ -4641,7 +4641,7 @@
         <v>399.17</v>
       </c>
       <c r="Z55" t="n">
-        <v>390.83</v>
+        <v>394.02</v>
       </c>
       <c r="AA55" t="n">
         <v>398.7</v>
@@ -4713,7 +4713,7 @@
         <v>391.43</v>
       </c>
       <c r="T56" t="n">
-        <v>371.1</v>
+        <v>370.74</v>
       </c>
       <c r="U56" t="n">
         <v>390.89</v>
@@ -4731,7 +4731,7 @@
         <v>402.18</v>
       </c>
       <c r="Z56" t="n">
-        <v>395.55</v>
+        <v>400.36</v>
       </c>
       <c r="AA56" t="n">
         <v>406.72</v>
@@ -4799,7 +4799,7 @@
         <v>386.17</v>
       </c>
       <c r="T57" t="n">
-        <v>382.76</v>
+        <v>382.73</v>
       </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -4853,7 +4853,7 @@
         <v>397.07</v>
       </c>
       <c r="T58" t="n">
-        <v>390.02</v>
+        <v>389.86</v>
       </c>
       <c r="U58" t="n">
         <v>398.75</v>
@@ -4871,7 +4871,7 @@
         <v>405.9</v>
       </c>
       <c r="Z58" t="n">
-        <v>401.45</v>
+        <v>403.55</v>
       </c>
       <c r="AA58" t="n">
         <v>393.64</v>
@@ -4933,7 +4933,7 @@
         <v>369.39</v>
       </c>
       <c r="T59" t="n">
-        <v>376.44</v>
+        <v>376.55</v>
       </c>
       <c r="U59" t="n">
         <v>380.74</v>
@@ -4951,7 +4951,7 @@
         <v>390.3</v>
       </c>
       <c r="Z59" t="n">
-        <v>389.79</v>
+        <v>388.26</v>
       </c>
       <c r="AA59" t="n">
         <v>381.09</v>
@@ -5019,7 +5019,7 @@
         <v>394.54</v>
       </c>
       <c r="T60" t="n">
-        <v>391.89</v>
+        <v>391.69</v>
       </c>
       <c r="U60" t="n">
         <v>398.4</v>
@@ -5037,7 +5037,7 @@
         <v>408.24</v>
       </c>
       <c r="Z60" t="n">
-        <v>403.56</v>
+        <v>406.13</v>
       </c>
       <c r="AA60" t="n">
         <v>402.2</v>
@@ -5109,7 +5109,7 @@
         <v>385.14</v>
       </c>
       <c r="T61" t="n">
-        <v>382.72</v>
+        <v>382.83</v>
       </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -5185,7 +5185,7 @@
         <v>381.41</v>
       </c>
       <c r="T62" t="n">
-        <v>375.58</v>
+        <v>375.37</v>
       </c>
       <c r="U62" t="n">
         <v>381.68</v>
@@ -5271,7 +5271,7 @@
         <v>395.69</v>
       </c>
       <c r="T63" t="n">
-        <v>387.55</v>
+        <v>387.46</v>
       </c>
       <c r="U63" t="n">
         <v>386.94</v>
@@ -5289,7 +5289,7 @@
         <v>418.88</v>
       </c>
       <c r="Z63" t="n">
-        <v>418.99</v>
+        <v>420.18</v>
       </c>
       <c r="AA63" t="n">
         <v>408.23</v>
@@ -5361,7 +5361,7 @@
         <v>373.38</v>
       </c>
       <c r="T64" t="n">
-        <v>370.21</v>
+        <v>370.14</v>
       </c>
       <c r="U64" t="n">
         <v>371.26</v>
@@ -5379,7 +5379,7 @@
         <v>402.4</v>
       </c>
       <c r="Z64" t="n">
-        <v>400.6</v>
+        <v>401.46</v>
       </c>
       <c r="AA64" t="n">
         <v>391.09</v>
@@ -5511,7 +5511,7 @@
         <v>373.35</v>
       </c>
       <c r="T66" t="n">
-        <v>372.4</v>
+        <v>372.24</v>
       </c>
       <c r="U66" t="n">
         <v>379.22</v>
@@ -5529,7 +5529,7 @@
         <v>396.21</v>
       </c>
       <c r="Z66" t="n">
-        <v>394.71</v>
+        <v>396.81</v>
       </c>
       <c r="AA66" t="n">
         <v>396.68</v>
@@ -5601,7 +5601,7 @@
         <v>368.55</v>
       </c>
       <c r="T67" t="n">
-        <v>369.68</v>
+        <v>369.81</v>
       </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -5749,7 +5749,7 @@
         <v>374.67</v>
       </c>
       <c r="T69" t="n">
-        <v>372.42</v>
+        <v>372.64</v>
       </c>
       <c r="U69" t="n">
         <v>381.17</v>
@@ -5767,7 +5767,7 @@
         <v>388.82</v>
       </c>
       <c r="Z69" t="n">
-        <v>379.48</v>
+        <v>376.62</v>
       </c>
       <c r="AA69" t="n">
         <v>375.37</v>
@@ -5839,7 +5839,7 @@
         <v>373.09</v>
       </c>
       <c r="T70" t="n">
-        <v>380.75</v>
+        <v>380.91</v>
       </c>
       <c r="U70" t="n">
         <v>385.29</v>
@@ -5857,7 +5857,7 @@
         <v>385.38</v>
       </c>
       <c r="Z70" t="n">
-        <v>384.75</v>
+        <v>382.61</v>
       </c>
       <c r="AA70" t="n">
         <v>379.27</v>
@@ -5987,7 +5987,7 @@
         <v>396.87</v>
       </c>
       <c r="T72" t="n">
-        <v>406.98</v>
+        <v>407.2</v>
       </c>
       <c r="U72" t="n">
         <v>388.54</v>
@@ -6005,7 +6005,7 @@
         <v>410.92</v>
       </c>
       <c r="Z72" t="n">
-        <v>404.89</v>
+        <v>402.03</v>
       </c>
       <c r="AA72" t="n">
         <v>403.21</v>
@@ -6057,7 +6057,7 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="n">
-        <v>386.05</v>
+        <v>385.97</v>
       </c>
       <c r="U73" t="n">
         <v>386.34</v>
@@ -6075,7 +6075,7 @@
         <v>405.56</v>
       </c>
       <c r="Z73" t="n">
-        <v>393.17</v>
+        <v>394.21</v>
       </c>
       <c r="AA73" t="n">
         <v>382.37</v>
@@ -6147,7 +6147,7 @@
         <v>388.33</v>
       </c>
       <c r="T74" t="n">
-        <v>395.09</v>
+        <v>395.24</v>
       </c>
       <c r="U74" t="n">
         <v>390.33</v>
@@ -6165,7 +6165,7 @@
         <v>403.42</v>
       </c>
       <c r="Z74" t="n">
-        <v>377.01</v>
+        <v>375.11</v>
       </c>
       <c r="AA74" t="n">
         <v>369.94</v>
@@ -6371,7 +6371,7 @@
         <v>386.64</v>
       </c>
       <c r="T77" t="n">
-        <v>379.22</v>
+        <v>379.46</v>
       </c>
       <c r="U77" t="n">
         <v>378.85</v>
@@ -6387,7 +6387,7 @@
         <v>369.45</v>
       </c>
       <c r="Z77" t="n">
-        <v>358.59</v>
+        <v>355.55</v>
       </c>
       <c r="AA77" t="n">
         <v>364.93</v>
@@ -6459,7 +6459,7 @@
         <v>406.8</v>
       </c>
       <c r="T78" t="n">
-        <v>407.57</v>
+        <v>407.72</v>
       </c>
       <c r="U78" t="n">
         <v>401.31</v>
@@ -6477,7 +6477,7 @@
         <v>404.08</v>
       </c>
       <c r="Z78" t="n">
-        <v>389.19</v>
+        <v>387.19</v>
       </c>
       <c r="AA78" t="n">
         <v>387.64</v>
@@ -6593,7 +6593,7 @@
         <v>383.22</v>
       </c>
       <c r="T80" t="n">
-        <v>378.36</v>
+        <v>378.28</v>
       </c>
       <c r="U80" t="n">
         <v>381.49</v>
@@ -6611,7 +6611,7 @@
         <v>396.63</v>
       </c>
       <c r="Z80" t="n">
-        <v>385.75</v>
+        <v>386.75</v>
       </c>
       <c r="AA80" t="n">
         <v>386.38</v>
@@ -6677,7 +6677,7 @@
         <v>381.74</v>
       </c>
       <c r="T81" t="n">
-        <v>370.73</v>
+        <v>370.58</v>
       </c>
       <c r="U81" t="n">
         <v>377.34</v>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="n">
-        <v>420.77</v>
+        <v>418.01</v>
       </c>
       <c r="AA85" t="n">
         <v>408.05</v>
@@ -6993,7 +6993,7 @@
         <v>354.65</v>
       </c>
       <c r="T86" t="n">
-        <v>366.88</v>
+        <v>367.12</v>
       </c>
       <c r="U86" t="n">
         <v>363.68</v>
@@ -7011,7 +7011,7 @@
         <v>371.23</v>
       </c>
       <c r="Z86" t="n">
-        <v>363.16</v>
+        <v>359.92</v>
       </c>
       <c r="AA86" t="n">
         <v>360.92</v>
@@ -7131,7 +7131,7 @@
         <v>373.06</v>
       </c>
       <c r="T88" t="n">
-        <v>360.67</v>
+        <v>360.32</v>
       </c>
       <c r="U88" t="n">
         <v>371.33</v>
@@ -7149,7 +7149,7 @@
         <v>392.75</v>
       </c>
       <c r="Z88" t="n">
-        <v>384.32</v>
+        <v>388.89</v>
       </c>
       <c r="AA88" t="n">
         <v>392.26</v>
@@ -7221,7 +7221,7 @@
         <v>388.04</v>
       </c>
       <c r="T89" t="n">
-        <v>393.37</v>
+        <v>393.5</v>
       </c>
       <c r="U89" t="n">
         <v>388.4</v>
@@ -7239,7 +7239,7 @@
         <v>403.16</v>
       </c>
       <c r="Z89" t="n">
-        <v>395.97</v>
+        <v>394.26</v>
       </c>
       <c r="AA89" t="n">
         <v>392.28</v>
@@ -7311,7 +7311,7 @@
         <v>380.5</v>
       </c>
       <c r="T90" t="n">
-        <v>366.75</v>
+        <v>366.47</v>
       </c>
       <c r="U90" t="n">
         <v>379.98</v>
@@ -7329,7 +7329,7 @@
         <v>393.06</v>
       </c>
       <c r="Z90" t="n">
-        <v>379.38</v>
+        <v>383.09</v>
       </c>
       <c r="AA90" t="n">
         <v>391.75</v>
@@ -7401,7 +7401,7 @@
         <v>357.3</v>
       </c>
       <c r="T91" t="n">
-        <v>348.93</v>
+        <v>348.75</v>
       </c>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
@@ -7477,7 +7477,7 @@
         <v>375.94</v>
       </c>
       <c r="T92" t="n">
-        <v>383.44</v>
+        <v>383.57</v>
       </c>
       <c r="U92" t="n">
         <v>374.78</v>
@@ -7495,7 +7495,7 @@
         <v>380.33</v>
       </c>
       <c r="Z92" t="n">
-        <v>364.22</v>
+        <v>362.51</v>
       </c>
       <c r="AA92" t="n">
         <v>367.01</v>
@@ -7567,7 +7567,7 @@
         <v>382.54</v>
       </c>
       <c r="T93" t="n">
-        <v>372.53</v>
+        <v>372.26</v>
       </c>
       <c r="U93" t="n">
         <v>380.13</v>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="n">
-        <v>380.57</v>
+        <v>384.14</v>
       </c>
       <c r="AA93" t="n">
         <v>379.47</v>
@@ -7655,7 +7655,7 @@
         <v>377.77</v>
       </c>
       <c r="T94" t="n">
-        <v>380.1</v>
+        <v>379.88</v>
       </c>
       <c r="U94" t="n">
         <v>375.48</v>
@@ -7735,7 +7735,7 @@
         <v>367.75</v>
       </c>
       <c r="T95" t="n">
-        <v>370.71</v>
+        <v>370.69</v>
       </c>
       <c r="U95" t="n">
         <v>364.21</v>
@@ -7753,7 +7753,7 @@
         <v>372.35</v>
       </c>
       <c r="Z95" t="n">
-        <v>361.45</v>
+        <v>361.74</v>
       </c>
       <c r="AA95" t="n">
         <v>359.13</v>
@@ -7799,7 +7799,7 @@
         <v>424.53</v>
       </c>
       <c r="Z96" t="n">
-        <v>412.52</v>
+        <v>409.99</v>
       </c>
       <c r="AA96" t="n">
         <v>412.99</v>
@@ -7871,7 +7871,7 @@
         <v>374.72</v>
       </c>
       <c r="T97" t="n">
-        <v>356.81</v>
+        <v>356.4</v>
       </c>
       <c r="U97" t="n">
         <v>368.8</v>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="n">
-        <v>390.46</v>
+        <v>395.84</v>
       </c>
       <c r="AA97" t="n">
         <v>389.02</v>
@@ -7957,7 +7957,7 @@
         <v>377.73</v>
       </c>
       <c r="T98" t="n">
-        <v>367.58</v>
+        <v>367.4</v>
       </c>
       <c r="U98" t="n">
         <v>373.21</v>
@@ -7975,7 +7975,7 @@
         <v>386.57</v>
       </c>
       <c r="Z98" t="n">
-        <v>380.65</v>
+        <v>383.08</v>
       </c>
       <c r="AA98" t="n">
         <v>371.7</v>
@@ -8107,7 +8107,7 @@
         <v>338.61</v>
       </c>
       <c r="T100" t="n">
-        <v>350.4</v>
+        <v>350.72</v>
       </c>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
@@ -8183,7 +8183,7 @@
         <v>369.12</v>
       </c>
       <c r="T101" t="n">
-        <v>362.52</v>
+        <v>362.36</v>
       </c>
       <c r="U101" t="n">
         <v>367.03</v>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="n">
-        <v>379.41</v>
+        <v>381.55</v>
       </c>
       <c r="AA101" t="n">
         <v>373.18</v>
@@ -8269,7 +8269,7 @@
         <v>354.43</v>
       </c>
       <c r="T102" t="n">
-        <v>347.27</v>
+        <v>347.04</v>
       </c>
       <c r="U102" t="n">
         <v>350.57</v>
@@ -8353,7 +8353,7 @@
         <v>349.25</v>
       </c>
       <c r="T103" t="n">
-        <v>357.58</v>
+        <v>357.79</v>
       </c>
       <c r="U103" t="n">
         <v>351.21</v>
@@ -8371,7 +8371,7 @@
         <v>355.54</v>
       </c>
       <c r="Z103" t="n">
-        <v>341.84</v>
+        <v>339.08</v>
       </c>
       <c r="AA103" t="n">
         <v>340.36</v>
@@ -8551,7 +8551,7 @@
         <v>390.3</v>
       </c>
       <c r="Z106" t="n">
-        <v>381.02</v>
+        <v>376.88</v>
       </c>
       <c r="AA106" t="n">
         <v>401.83</v>
@@ -8623,7 +8623,7 @@
         <v>366.95</v>
       </c>
       <c r="T107" t="n">
-        <v>356.03</v>
+        <v>355.87</v>
       </c>
       <c r="U107" t="n">
         <v>360.13</v>
@@ -8641,7 +8641,7 @@
         <v>367.22</v>
       </c>
       <c r="Z107" t="n">
-        <v>361.67</v>
+        <v>363.81</v>
       </c>
       <c r="AA107" t="n">
         <v>365.57</v>
@@ -8781,7 +8781,7 @@
         <v>376.26</v>
       </c>
       <c r="T109" t="n">
-        <v>365.17</v>
+        <v>365.06</v>
       </c>
       <c r="U109" t="n">
         <v>370.09</v>
@@ -8799,7 +8799,7 @@
         <v>384.15</v>
       </c>
       <c r="Z109" t="n">
-        <v>374.23</v>
+        <v>375.76</v>
       </c>
       <c r="AA109" t="n">
         <v>380.11</v>
@@ -8849,7 +8849,7 @@
         <v>397.32</v>
       </c>
       <c r="Z110" t="n">
-        <v>378.2</v>
+        <v>376.82</v>
       </c>
       <c r="AA110" t="n">
         <v>375.56</v>
@@ -8905,7 +8905,7 @@
         <v>378.83</v>
       </c>
       <c r="T111" t="n">
-        <v>375.41</v>
+        <v>375.36</v>
       </c>
       <c r="U111" t="n">
         <v>374.48</v>
@@ -8923,7 +8923,7 @@
         <v>379.07</v>
       </c>
       <c r="Z111" t="n">
-        <v>366.3</v>
+        <v>367.01</v>
       </c>
       <c r="AA111" t="n">
         <v>365.7</v>
@@ -8995,7 +8995,7 @@
         <v>373</v>
       </c>
       <c r="T112" t="n">
-        <v>364.81</v>
+        <v>364.58</v>
       </c>
       <c r="U112" t="n">
         <v>366.12</v>
@@ -9013,7 +9013,7 @@
         <v>381.22</v>
       </c>
       <c r="Z112" t="n">
-        <v>367.52</v>
+        <v>370.62</v>
       </c>
       <c r="AA112" t="n">
         <v>368.86</v>
@@ -9085,7 +9085,7 @@
         <v>369.66</v>
       </c>
       <c r="T113" t="n">
-        <v>361.92</v>
+        <v>361.69</v>
       </c>
       <c r="U113" t="n">
         <v>365.03</v>
@@ -9103,7 +9103,7 @@
         <v>370.31</v>
       </c>
       <c r="Z113" t="n">
-        <v>365.51</v>
+        <v>368.51</v>
       </c>
       <c r="AA113" t="n">
         <v>358.86</v>
@@ -9175,7 +9175,7 @@
         <v>360.28</v>
       </c>
       <c r="T114" t="n">
-        <v>352.58</v>
+        <v>352.4</v>
       </c>
       <c r="U114" t="n">
         <v>360.03</v>
@@ -9193,7 +9193,7 @@
         <v>372.76</v>
       </c>
       <c r="Z114" t="n">
-        <v>359.87</v>
+        <v>362.2</v>
       </c>
       <c r="AA114" t="n">
         <v>357.97</v>
@@ -9265,7 +9265,7 @@
         <v>373.31</v>
       </c>
       <c r="T115" t="n">
-        <v>374.93</v>
+        <v>375.04</v>
       </c>
       <c r="U115" t="n">
         <v>372.22</v>
@@ -9283,7 +9283,7 @@
         <v>391.22</v>
       </c>
       <c r="Z115" t="n">
-        <v>382.04</v>
+        <v>380.61</v>
       </c>
       <c r="AA115" t="n">
         <v>382.38</v>
@@ -9353,7 +9353,7 @@
         <v>355.24</v>
       </c>
       <c r="T116" t="n">
-        <v>354.38</v>
+        <v>354.31</v>
       </c>
       <c r="U116" t="n">
         <v>352.82</v>
@@ -9371,7 +9371,7 @@
         <v>360.6</v>
       </c>
       <c r="Z116" t="n">
-        <v>352.2</v>
+        <v>353.06</v>
       </c>
       <c r="AA116" t="n">
         <v>346.97</v>
@@ -9443,7 +9443,7 @@
         <v>380.84</v>
       </c>
       <c r="T117" t="n">
-        <v>370.05</v>
+        <v>369.81</v>
       </c>
       <c r="U117" t="n">
         <v>376.35</v>
@@ -9461,7 +9461,7 @@
         <v>389.15</v>
       </c>
       <c r="Z117" t="n">
-        <v>382.02</v>
+        <v>385.06</v>
       </c>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr">
@@ -9531,7 +9531,7 @@
         <v>361.1</v>
       </c>
       <c r="T118" t="n">
-        <v>356.07</v>
+        <v>355.87</v>
       </c>
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
@@ -9619,7 +9619,7 @@
         <v>382.31</v>
       </c>
       <c r="T120" t="n">
-        <v>372.23</v>
+        <v>371.83</v>
       </c>
       <c r="U120" t="n">
         <v>390.37</v>
@@ -9637,7 +9637,7 @@
         <v>394.22</v>
       </c>
       <c r="Z120" t="n">
-        <v>389.88</v>
+        <v>395.12</v>
       </c>
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr">
@@ -9707,7 +9707,7 @@
         <v>367.28</v>
       </c>
       <c r="T121" t="n">
-        <v>372.63</v>
+        <v>372.84</v>
       </c>
       <c r="U121" t="n">
         <v>371.7</v>
@@ -9725,7 +9725,7 @@
         <v>374.13</v>
       </c>
       <c r="Z121" t="n">
-        <v>366.15</v>
+        <v>363.34</v>
       </c>
       <c r="AA121" t="n">
         <v>357.23</v>
@@ -9785,7 +9785,7 @@
         <v>396.04</v>
       </c>
       <c r="Z122" t="n">
-        <v>391.23</v>
+        <v>391.66</v>
       </c>
       <c r="AA122" t="n">
         <v>386.47</v>
@@ -9857,7 +9857,7 @@
         <v>409.85</v>
       </c>
       <c r="T123" t="n">
-        <v>409.33</v>
+        <v>409.49</v>
       </c>
       <c r="U123" t="n">
         <v>377.3</v>
@@ -9875,7 +9875,7 @@
         <v>423.4</v>
       </c>
       <c r="Z123" t="n">
-        <v>406.05</v>
+        <v>403.91</v>
       </c>
       <c r="AA123" t="n">
         <v>412.52</v>
@@ -9947,7 +9947,7 @@
         <v>402.12</v>
       </c>
       <c r="T124" t="n">
-        <v>402.34</v>
+        <v>402.48</v>
       </c>
       <c r="U124" t="n">
         <v>383.74</v>
@@ -9965,7 +9965,7 @@
         <v>397.94</v>
       </c>
       <c r="Z124" t="n">
-        <v>390.17</v>
+        <v>388.31</v>
       </c>
       <c r="AA124" t="n">
         <v>383.84</v>
@@ -10037,7 +10037,7 @@
         <v>403.29</v>
       </c>
       <c r="T125" t="n">
-        <v>407.94</v>
+        <v>408.04</v>
       </c>
       <c r="U125" t="n">
         <v>407.72</v>
@@ -10055,7 +10055,7 @@
         <v>411.87</v>
       </c>
       <c r="Z125" t="n">
-        <v>407.81</v>
+        <v>406.48</v>
       </c>
       <c r="AA125" t="n">
         <v>401.04</v>
@@ -10127,7 +10127,7 @@
         <v>393.22</v>
       </c>
       <c r="T126" t="n">
-        <v>387.94</v>
+        <v>387.82</v>
       </c>
       <c r="U126" t="n">
         <v>390.57</v>
@@ -10145,7 +10145,7 @@
         <v>403.73</v>
       </c>
       <c r="Z126" t="n">
-        <v>398.1</v>
+        <v>399.57</v>
       </c>
       <c r="AA126" t="n">
         <v>396.32</v>
@@ -10217,7 +10217,7 @@
         <v>396.57</v>
       </c>
       <c r="T127" t="n">
-        <v>395.04</v>
+        <v>395.21</v>
       </c>
       <c r="U127" t="n">
         <v>393.53</v>
@@ -10235,7 +10235,7 @@
         <v>398.61</v>
       </c>
       <c r="Z127" t="n">
-        <v>394.08</v>
+        <v>391.84</v>
       </c>
       <c r="AA127" t="n">
         <v>388.76</v>
@@ -10307,7 +10307,7 @@
         <v>377.48</v>
       </c>
       <c r="T128" t="n">
-        <v>363.62</v>
+        <v>363.28</v>
       </c>
       <c r="U128" t="n">
         <v>371.02</v>
@@ -10325,7 +10325,7 @@
         <v>405.67</v>
       </c>
       <c r="Z128" t="n">
-        <v>408.72</v>
+        <v>413.25</v>
       </c>
       <c r="AA128" t="n">
         <v>395.04</v>
@@ -10389,7 +10389,7 @@
         <v>413.45</v>
       </c>
       <c r="T129" t="n">
-        <v>419.57</v>
+        <v>419.72</v>
       </c>
       <c r="U129" t="n">
         <v>416.65</v>
@@ -10403,7 +10403,7 @@
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="n">
-        <v>443.37</v>
+        <v>441.41</v>
       </c>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="inlineStr">
@@ -10519,7 +10519,7 @@
         <v>388.4</v>
       </c>
       <c r="T131" t="n">
-        <v>394.84</v>
+        <v>395.11</v>
       </c>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
@@ -10533,7 +10533,7 @@
         <v>401.9</v>
       </c>
       <c r="Z131" t="n">
-        <v>405.48</v>
+        <v>401.91</v>
       </c>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="inlineStr">
@@ -10603,7 +10603,7 @@
         <v>405.78</v>
       </c>
       <c r="T132" t="n">
-        <v>403.52</v>
+        <v>403.61</v>
       </c>
       <c r="U132" t="n">
         <v>401.95</v>
@@ -10621,7 +10621,7 @@
         <v>408.86</v>
       </c>
       <c r="Z132" t="n">
-        <v>409.92</v>
+        <v>408.73</v>
       </c>
       <c r="AA132" t="n">
         <v>407.19</v>
@@ -10693,7 +10693,7 @@
         <v>394.67</v>
       </c>
       <c r="T133" t="n">
-        <v>389.5</v>
+        <v>389.54</v>
       </c>
       <c r="U133" t="n">
         <v>382.37</v>
@@ -10711,7 +10711,7 @@
         <v>397.09</v>
       </c>
       <c r="Z133" t="n">
-        <v>403.21</v>
+        <v>402.74</v>
       </c>
       <c r="AA133" t="n">
         <v>399.52</v>
@@ -10783,7 +10783,7 @@
         <v>404.22</v>
       </c>
       <c r="T134" t="n">
-        <v>403.55</v>
+        <v>403.73</v>
       </c>
       <c r="U134" t="n">
         <v>398.51</v>
@@ -10801,7 +10801,7 @@
         <v>401.88</v>
       </c>
       <c r="Z134" t="n">
-        <v>400.66</v>
+        <v>398.33</v>
       </c>
       <c r="AA134" t="n">
         <v>401.65</v>
@@ -10947,7 +10947,7 @@
         <v>417.75</v>
       </c>
       <c r="T136" t="n">
-        <v>395.53</v>
+        <v>395.27</v>
       </c>
       <c r="U136" t="n">
         <v>410.11</v>
@@ -10965,7 +10965,7 @@
         <v>409.77</v>
       </c>
       <c r="Z136" t="n">
-        <v>408.81</v>
+        <v>412.34</v>
       </c>
       <c r="AA136" t="n">
         <v>406.73</v>
@@ -11037,7 +11037,7 @@
         <v>420.75</v>
       </c>
       <c r="T137" t="n">
-        <v>417.65</v>
+        <v>417.68</v>
       </c>
       <c r="U137" t="n">
         <v>409.28</v>
@@ -11055,7 +11055,7 @@
         <v>402.34</v>
       </c>
       <c r="Z137" t="n">
-        <v>401.48</v>
+        <v>401.05</v>
       </c>
       <c r="AA137" t="n">
         <v>408.25</v>
@@ -11127,7 +11127,7 @@
         <v>420.63</v>
       </c>
       <c r="T138" t="n">
-        <v>426.96</v>
+        <v>427.17</v>
       </c>
       <c r="U138" t="n">
         <v>417.68</v>
@@ -11145,7 +11145,7 @@
         <v>407.44</v>
       </c>
       <c r="Z138" t="n">
-        <v>406.41</v>
+        <v>403.7</v>
       </c>
       <c r="AA138" t="n">
         <v>406.67</v>
@@ -11217,7 +11217,7 @@
         <v>393.64</v>
       </c>
       <c r="T139" t="n">
-        <v>402.76</v>
+        <v>403.02</v>
       </c>
       <c r="U139" t="n">
         <v>392.86</v>
@@ -11235,7 +11235,7 @@
         <v>385.2</v>
       </c>
       <c r="Z139" t="n">
-        <v>383.79</v>
+        <v>380.36</v>
       </c>
       <c r="AA139" t="n">
         <v>385.67</v>
@@ -11307,7 +11307,7 @@
         <v>403.31</v>
       </c>
       <c r="T140" t="n">
-        <v>399.43</v>
+        <v>399.46</v>
       </c>
       <c r="U140" t="n">
         <v>400.62</v>
@@ -11325,7 +11325,7 @@
         <v>405.57</v>
       </c>
       <c r="Z140" t="n">
-        <v>400.87</v>
+        <v>400.49</v>
       </c>
       <c r="AA140" t="n">
         <v>407.52</v>
@@ -11397,7 +11397,7 @@
         <v>416.01</v>
       </c>
       <c r="T141" t="n">
-        <v>411.6</v>
+        <v>411.51</v>
       </c>
       <c r="U141" t="n">
         <v>420.41</v>
@@ -11415,7 +11415,7 @@
         <v>421.91</v>
       </c>
       <c r="Z141" t="n">
-        <v>416.45</v>
+        <v>417.69</v>
       </c>
       <c r="AA141" t="n">
         <v>405.63</v>
@@ -11485,7 +11485,7 @@
         <v>409.16</v>
       </c>
       <c r="T142" t="n">
-        <v>388.2</v>
+        <v>387.78</v>
       </c>
       <c r="U142" t="n">
         <v>409.6</v>
@@ -11503,7 +11503,7 @@
         <v>413.53</v>
       </c>
       <c r="Z142" t="n">
-        <v>412.16</v>
+        <v>417.69</v>
       </c>
       <c r="AA142" t="n">
         <v>421.05</v>
@@ -11549,7 +11549,7 @@
         <v>435.13</v>
       </c>
       <c r="T143" t="n">
-        <v>418.53</v>
+        <v>418.86</v>
       </c>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
@@ -11663,7 +11663,7 @@
         <v>371.5</v>
       </c>
       <c r="T145" t="n">
-        <v>369.96</v>
+        <v>370.03</v>
       </c>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
@@ -11733,7 +11733,7 @@
         <v>386.18</v>
       </c>
       <c r="T146" t="n">
-        <v>377.15</v>
+        <v>376.94</v>
       </c>
       <c r="U146" t="n">
         <v>374.14</v>
@@ -11751,7 +11751,7 @@
         <v>403.39</v>
       </c>
       <c r="Z146" t="n">
-        <v>402.46</v>
+        <v>405.27</v>
       </c>
       <c r="AA146" t="n">
         <v>399.37</v>
@@ -11815,7 +11815,7 @@
         <v>405.94</v>
       </c>
       <c r="Z147" t="n">
-        <v>405.02</v>
+        <v>408.16</v>
       </c>
       <c r="AA147" t="n">
         <v>409.45</v>
@@ -11887,7 +11887,7 @@
         <v>420.56</v>
       </c>
       <c r="T148" t="n">
-        <v>414.99</v>
+        <v>414.86</v>
       </c>
       <c r="U148" t="n">
         <v>413.85</v>
@@ -11905,7 +11905,7 @@
         <v>404.74</v>
       </c>
       <c r="Z148" t="n">
-        <v>400.72</v>
+        <v>402.43</v>
       </c>
       <c r="AA148" t="n">
         <v>404.78</v>
@@ -11961,7 +11961,7 @@
         <v>358.39</v>
       </c>
       <c r="T149" t="n">
-        <v>366.87</v>
+        <v>367.13</v>
       </c>
       <c r="U149" t="n">
         <v>361.64</v>
@@ -12045,7 +12045,7 @@
         <v>391.08</v>
       </c>
       <c r="T150" t="n">
-        <v>384.73</v>
+        <v>384.46</v>
       </c>
       <c r="U150" t="n">
         <v>390.9</v>
@@ -12063,7 +12063,7 @@
         <v>406.22</v>
       </c>
       <c r="Z150" t="n">
-        <v>403.45</v>
+        <v>406.92</v>
       </c>
       <c r="AA150" t="n">
         <v>400.46</v>
@@ -12135,7 +12135,7 @@
         <v>381.41</v>
       </c>
       <c r="T151" t="n">
-        <v>370.2</v>
+        <v>369.8</v>
       </c>
       <c r="U151" t="n">
         <v>381.07</v>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="n">
-        <v>389.95</v>
+        <v>395.19</v>
       </c>
       <c r="AA151" t="n">
         <v>397.15</v>
@@ -12223,7 +12223,7 @@
         <v>376.2</v>
       </c>
       <c r="T152" t="n">
-        <v>367.22</v>
+        <v>366.89</v>
       </c>
       <c r="U152" t="n">
         <v>376.83</v>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="n">
-        <v>397.25</v>
+        <v>401.58</v>
       </c>
       <c r="AA152" t="n">
         <v>400.2</v>
@@ -12311,7 +12311,7 @@
         <v>372.53</v>
       </c>
       <c r="T153" t="n">
-        <v>378.33</v>
+        <v>378.57</v>
       </c>
       <c r="U153" t="n">
         <v>369.96</v>
@@ -12329,7 +12329,7 @@
         <v>387.18</v>
       </c>
       <c r="Z153" t="n">
-        <v>369.65</v>
+        <v>366.41</v>
       </c>
       <c r="AA153" t="n">
         <v>371.54</v>
@@ -12445,7 +12445,7 @@
         <v>392.14</v>
       </c>
       <c r="Z155" t="n">
-        <v>383.21</v>
+        <v>382.02</v>
       </c>
       <c r="AA155" t="n">
         <v>380.28</v>
@@ -12517,7 +12517,7 @@
         <v>363.88</v>
       </c>
       <c r="T156" t="n">
-        <v>366.81</v>
+        <v>366.95</v>
       </c>
       <c r="U156" t="n">
         <v>366.16</v>
@@ -12535,7 +12535,7 @@
         <v>372.81</v>
       </c>
       <c r="Z156" t="n">
-        <v>362.27</v>
+        <v>360.41</v>
       </c>
       <c r="AA156" t="n">
         <v>365.49</v>
@@ -12607,7 +12607,7 @@
         <v>370.76</v>
       </c>
       <c r="T157" t="n">
-        <v>363.69</v>
+        <v>363.39</v>
       </c>
       <c r="U157" t="n">
         <v>370.62</v>
@@ -12625,7 +12625,7 @@
         <v>386.65</v>
       </c>
       <c r="Z157" t="n">
-        <v>376.7</v>
+        <v>380.6</v>
       </c>
       <c r="AA157" t="n">
         <v>382.32</v>
@@ -12697,7 +12697,7 @@
         <v>388.06</v>
       </c>
       <c r="T158" t="n">
-        <v>374.84</v>
+        <v>374.6</v>
       </c>
       <c r="U158" t="n">
         <v>382.72</v>
@@ -12715,7 +12715,7 @@
         <v>393.99</v>
       </c>
       <c r="Z158" t="n">
-        <v>385.67</v>
+        <v>388.81</v>
       </c>
       <c r="AA158" t="n">
         <v>401.06</v>
@@ -12787,7 +12787,7 @@
         <v>374.44</v>
       </c>
       <c r="T159" t="n">
-        <v>394.47</v>
+        <v>394.8</v>
       </c>
       <c r="U159" t="n">
         <v>376.59</v>
@@ -12805,7 +12805,7 @@
         <v>378.96</v>
       </c>
       <c r="Z159" t="n">
-        <v>369.58</v>
+        <v>365.2</v>
       </c>
       <c r="AA159" t="n">
         <v>359.32</v>
@@ -12877,7 +12877,7 @@
         <v>379.27</v>
       </c>
       <c r="T160" t="n">
-        <v>372.9</v>
+        <v>372.95</v>
       </c>
       <c r="U160" t="n">
         <v>374.6</v>
@@ -12895,7 +12895,7 @@
         <v>381.55</v>
       </c>
       <c r="Z160" t="n">
-        <v>379.34</v>
+        <v>378.63</v>
       </c>
       <c r="AA160" t="n">
         <v>377.28</v>
@@ -12967,7 +12967,7 @@
         <v>365.59</v>
       </c>
       <c r="T161" t="n">
-        <v>368.3</v>
+        <v>368.35</v>
       </c>
       <c r="U161" t="n">
         <v>369.1</v>
@@ -12985,7 +12985,7 @@
         <v>383.55</v>
       </c>
       <c r="Z161" t="n">
-        <v>365.82</v>
+        <v>365.2</v>
       </c>
       <c r="AA161" t="n">
         <v>368.22</v>
@@ -13053,7 +13053,7 @@
         <v>345.12</v>
       </c>
       <c r="T162" t="n">
-        <v>352.15</v>
+        <v>352.3</v>
       </c>
       <c r="U162" t="n">
         <v>346.44</v>
@@ -13071,7 +13071,7 @@
         <v>359.91</v>
       </c>
       <c r="Z162" t="n">
-        <v>343.01</v>
+        <v>341.01</v>
       </c>
       <c r="AA162" t="n">
         <v>341.07</v>
@@ -13127,7 +13127,7 @@
         <v>373.48</v>
       </c>
       <c r="T163" t="n">
-        <v>362.85</v>
+        <v>362.53</v>
       </c>
       <c r="U163" t="n">
         <v>377.13</v>
@@ -13145,7 +13145,7 @@
         <v>399.29</v>
       </c>
       <c r="Z163" t="n">
-        <v>383.65</v>
+        <v>387.89</v>
       </c>
       <c r="AA163" t="n">
         <v>387.66</v>
@@ -13215,7 +13215,7 @@
         <v>369.65</v>
       </c>
       <c r="T164" t="n">
-        <v>378.4</v>
+        <v>378.6</v>
       </c>
       <c r="U164" t="n">
         <v>384.05</v>
@@ -13233,7 +13233,7 @@
         <v>405.97</v>
       </c>
       <c r="Z164" t="n">
-        <v>371.39</v>
+        <v>368.77</v>
       </c>
       <c r="AA164" t="n">
         <v>378.62</v>
@@ -13287,7 +13287,7 @@
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="n">
-        <v>359.94</v>
+        <v>360.02</v>
       </c>
       <c r="U165" t="n">
         <v>356.78</v>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="n">
-        <v>351.89</v>
+        <v>350.85</v>
       </c>
       <c r="AA165" t="n">
         <v>350.71</v>
@@ -13377,7 +13377,7 @@
         <v>366.07</v>
       </c>
       <c r="Z166" t="n">
-        <v>348.64</v>
+        <v>348.07</v>
       </c>
       <c r="AA166" t="n">
         <v>346.12</v>
@@ -13427,7 +13427,7 @@
         <v>380.26</v>
       </c>
       <c r="Z167" t="n">
-        <v>365.55</v>
+        <v>365.79</v>
       </c>
       <c r="AA167" t="n">
         <v>355.7</v>
@@ -13495,7 +13495,7 @@
         <v>390.72</v>
       </c>
       <c r="Z168" t="n">
-        <v>379.17</v>
+        <v>379.46</v>
       </c>
       <c r="AA168" t="n">
         <v>375.4</v>
@@ -13565,7 +13565,7 @@
         <v>371.18</v>
       </c>
       <c r="T169" t="n">
-        <v>379.72</v>
+        <v>379.78</v>
       </c>
       <c r="U169" t="n">
         <v>388.31</v>
@@ -13583,7 +13583,7 @@
         <v>385.8</v>
       </c>
       <c r="Z169" t="n">
-        <v>371.54</v>
+        <v>370.73</v>
       </c>
       <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="inlineStr">
@@ -13647,7 +13647,7 @@
         <v>357.49</v>
       </c>
       <c r="Z170" t="n">
-        <v>351.53</v>
+        <v>347.82</v>
       </c>
       <c r="AA170" t="n">
         <v>403.9</v>
@@ -13719,7 +13719,7 @@
         <v>358.12</v>
       </c>
       <c r="T171" t="n">
-        <v>361.46</v>
+        <v>361.58</v>
       </c>
       <c r="U171" t="n">
         <v>359.09</v>
@@ -13737,7 +13737,7 @@
         <v>367.51</v>
       </c>
       <c r="Z171" t="n">
-        <v>360.32</v>
+        <v>358.75</v>
       </c>
       <c r="AA171" t="n">
         <v>350.48</v>
@@ -13809,7 +13809,7 @@
         <v>352.88</v>
       </c>
       <c r="T172" t="n">
-        <v>350.77</v>
+        <v>350.71</v>
       </c>
       <c r="U172" t="n">
         <v>348.02</v>
@@ -13827,7 +13827,7 @@
         <v>355.78</v>
       </c>
       <c r="Z172" t="n">
-        <v>352.29</v>
+        <v>353.05</v>
       </c>
       <c r="AA172" t="n">
         <v>353.02</v>
@@ -13899,7 +13899,7 @@
         <v>366.91</v>
       </c>
       <c r="T173" t="n">
-        <v>368.96</v>
+        <v>369.05</v>
       </c>
       <c r="U173" t="n">
         <v>358.12</v>
@@ -13917,7 +13917,7 @@
         <v>368.98</v>
       </c>
       <c r="Z173" t="n">
-        <v>365.81</v>
+        <v>364.57</v>
       </c>
       <c r="AA173" t="n">
         <v>365.56</v>
@@ -13989,7 +13989,7 @@
         <v>394.7</v>
       </c>
       <c r="T174" t="n">
-        <v>375.52</v>
+        <v>375.64</v>
       </c>
       <c r="U174" t="n">
         <v>379.5</v>
@@ -14007,7 +14007,7 @@
         <v>381.35</v>
       </c>
       <c r="Z174" t="n">
-        <v>388.38</v>
+        <v>386.71</v>
       </c>
       <c r="AA174" t="n">
         <v>391.2</v>
@@ -14057,7 +14057,7 @@
         <v>377.37</v>
       </c>
       <c r="T175" t="n">
-        <v>356.95</v>
+        <v>356.64</v>
       </c>
       <c r="U175" t="n">
         <v>371.44</v>
@@ -14139,7 +14139,7 @@
         <v>377.14</v>
       </c>
       <c r="T176" t="n">
-        <v>363.91</v>
+        <v>364.05</v>
       </c>
       <c r="U176" t="n">
         <v>356.8</v>
@@ -14157,7 +14157,7 @@
         <v>370.04</v>
       </c>
       <c r="Z176" t="n">
-        <v>362.76</v>
+        <v>361</v>
       </c>
       <c r="AA176" t="n">
         <v>361.07</v>
@@ -14229,7 +14229,7 @@
         <v>385.19</v>
       </c>
       <c r="T177" t="n">
-        <v>372.08</v>
+        <v>371.88</v>
       </c>
       <c r="U177" t="n">
         <v>373.41</v>
@@ -14247,7 +14247,7 @@
         <v>387.6</v>
       </c>
       <c r="Z177" t="n">
-        <v>376.48</v>
+        <v>379.15</v>
       </c>
       <c r="AA177" t="n">
         <v>373.43</v>
@@ -14319,7 +14319,7 @@
         <v>387.29</v>
       </c>
       <c r="T178" t="n">
-        <v>382.44</v>
+        <v>382.35</v>
       </c>
       <c r="U178" t="n">
         <v>370.4</v>
@@ -14337,7 +14337,7 @@
         <v>381.49</v>
       </c>
       <c r="Z178" t="n">
-        <v>368.79</v>
+        <v>369.98</v>
       </c>
       <c r="AA178" t="n">
         <v>368.77</v>
@@ -14409,7 +14409,7 @@
         <v>382.52</v>
       </c>
       <c r="T179" t="n">
-        <v>385.95</v>
+        <v>386.04</v>
       </c>
       <c r="U179" t="n">
         <v>377.65</v>
@@ -14427,7 +14427,7 @@
         <v>375.41</v>
       </c>
       <c r="Z179" t="n">
-        <v>368.75</v>
+        <v>367.56</v>
       </c>
       <c r="AA179" t="n">
         <v>365.13</v>
@@ -14499,7 +14499,7 @@
         <v>364.07</v>
       </c>
       <c r="T180" t="n">
-        <v>359.16</v>
+        <v>358.85</v>
       </c>
       <c r="U180" t="n">
         <v>364.19</v>
@@ -14517,7 +14517,7 @@
         <v>371.19</v>
       </c>
       <c r="Z180" t="n">
-        <v>355.88</v>
+        <v>359.98</v>
       </c>
       <c r="AA180" t="n">
         <v>350.15</v>
@@ -14589,7 +14589,7 @@
         <v>372.53</v>
       </c>
       <c r="T181" t="n">
-        <v>366.4</v>
+        <v>365.99</v>
       </c>
       <c r="U181" t="n">
         <v>373.86</v>
@@ -14607,7 +14607,7 @@
         <v>383.16</v>
       </c>
       <c r="Z181" t="n">
-        <v>372.56</v>
+        <v>377.89</v>
       </c>
       <c r="AA181" t="n">
         <v>361.02</v>
@@ -14679,7 +14679,7 @@
         <v>408.48</v>
       </c>
       <c r="T182" t="n">
-        <v>403.69</v>
+        <v>403.48</v>
       </c>
       <c r="U182" t="n">
         <v>400.75</v>
@@ -14697,7 +14697,7 @@
         <v>406.32</v>
       </c>
       <c r="Z182" t="n">
-        <v>386.79</v>
+        <v>389.55</v>
       </c>
       <c r="AA182" t="n">
         <v>388.96</v>
@@ -14769,7 +14769,7 @@
         <v>390.73</v>
       </c>
       <c r="T183" t="n">
-        <v>387.49</v>
+        <v>387.53</v>
       </c>
       <c r="U183" t="n">
         <v>386.94</v>
@@ -14787,7 +14787,7 @@
         <v>389.4</v>
       </c>
       <c r="Z183" t="n">
-        <v>378.51</v>
+        <v>378.04</v>
       </c>
       <c r="AA183" t="n">
         <v>380.56</v>
@@ -14849,7 +14849,7 @@
         <v>385.79</v>
       </c>
       <c r="Z184" t="n">
-        <v>379.55</v>
+        <v>380.69</v>
       </c>
       <c r="AA184" t="n">
         <v>384.72</v>
@@ -14913,7 +14913,7 @@
         <v>385.98</v>
       </c>
       <c r="Z185" t="n">
-        <v>378.66</v>
+        <v>377.76</v>
       </c>
       <c r="AA185" t="n">
         <v>379.82</v>
@@ -14983,7 +14983,7 @@
         <v>373.36</v>
       </c>
       <c r="T186" t="n">
-        <v>365.96</v>
+        <v>365.71</v>
       </c>
       <c r="U186" t="n">
         <v>366.36</v>
@@ -15001,7 +15001,7 @@
         <v>377.13</v>
       </c>
       <c r="Z186" t="n">
-        <v>371.63</v>
+        <v>375.01</v>
       </c>
       <c r="AA186" t="n">
         <v>374.79</v>
@@ -15073,7 +15073,7 @@
         <v>387.81</v>
       </c>
       <c r="T187" t="n">
-        <v>388.58</v>
+        <v>388.78</v>
       </c>
       <c r="U187" t="n">
         <v>378.64</v>
@@ -15091,7 +15091,7 @@
         <v>374.3</v>
       </c>
       <c r="Z187" t="n">
-        <v>368.45</v>
+        <v>365.78</v>
       </c>
       <c r="AA187" t="n">
         <v>371.25</v>
@@ -15163,7 +15163,7 @@
         <v>392.11</v>
       </c>
       <c r="T188" t="n">
-        <v>380.18</v>
+        <v>379.96</v>
       </c>
       <c r="U188" t="n">
         <v>388.69</v>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="n">
-        <v>379.48</v>
+        <v>382.44</v>
       </c>
       <c r="AA188" t="n">
         <v>387.95</v>
@@ -15291,7 +15291,7 @@
         <v>388.93</v>
       </c>
       <c r="T190" t="n">
-        <v>382.43</v>
+        <v>382.39</v>
       </c>
       <c r="U190" t="n">
         <v>381.81</v>
@@ -15309,7 +15309,7 @@
         <v>382.88</v>
       </c>
       <c r="Z190" t="n">
-        <v>375.97</v>
+        <v>376.44</v>
       </c>
       <c r="AA190" t="n">
         <v>380.38</v>
@@ -15381,7 +15381,7 @@
         <v>378.5</v>
       </c>
       <c r="T191" t="n">
-        <v>381.4</v>
+        <v>381.54</v>
       </c>
       <c r="U191" t="n">
         <v>376.05</v>
@@ -15399,7 +15399,7 @@
         <v>387.81</v>
       </c>
       <c r="Z191" t="n">
-        <v>378.83</v>
+        <v>377.07</v>
       </c>
       <c r="AA191" t="n">
         <v>379.74</v>
@@ -15519,7 +15519,7 @@
         <v>391.44</v>
       </c>
       <c r="T193" t="n">
-        <v>393.53</v>
+        <v>393.79</v>
       </c>
       <c r="U193" t="n">
         <v>384.37</v>
@@ -15537,7 +15537,7 @@
         <v>389.78</v>
       </c>
       <c r="Z193" t="n">
-        <v>378.62</v>
+        <v>375.09</v>
       </c>
       <c r="AA193" t="n">
         <v>373.12</v>
@@ -15619,7 +15619,7 @@
         <v>379.17</v>
       </c>
       <c r="Z194" t="n">
-        <v>375.8</v>
+        <v>380.27</v>
       </c>
       <c r="AA194" t="n">
         <v>384.62</v>
@@ -15677,7 +15677,7 @@
         <v>388.92</v>
       </c>
       <c r="Z195" t="n">
-        <v>389.25</v>
+        <v>389.39</v>
       </c>
       <c r="AA195" t="n">
         <v>390.39</v>
@@ -15733,7 +15733,7 @@
         <v>420.9</v>
       </c>
       <c r="Z196" t="n">
-        <v>416.02</v>
+        <v>413.83</v>
       </c>
       <c r="AA196" t="n">
         <v>414.9</v>
@@ -15849,7 +15849,7 @@
         <v>362.08</v>
       </c>
       <c r="T198" t="n">
-        <v>366.18</v>
+        <v>366.25</v>
       </c>
       <c r="U198" t="n">
         <v>372.23</v>
@@ -15867,7 +15867,7 @@
         <v>381.52</v>
       </c>
       <c r="Z198" t="n">
-        <v>383.18</v>
+        <v>382.32</v>
       </c>
       <c r="AA198" t="n">
         <v>390.78</v>
@@ -15939,7 +15939,7 @@
         <v>370.04</v>
       </c>
       <c r="T199" t="n">
-        <v>375.4</v>
+        <v>375.48</v>
       </c>
       <c r="U199" t="n">
         <v>377.23</v>
@@ -15957,7 +15957,7 @@
         <v>384.62</v>
       </c>
       <c r="Z199" t="n">
-        <v>393.74</v>
+        <v>392.74</v>
       </c>
       <c r="AA199" t="n">
         <v>382.34</v>
@@ -16097,7 +16097,7 @@
         <v>368.23</v>
       </c>
       <c r="T201" t="n">
-        <v>369.58</v>
+        <v>369.71</v>
       </c>
       <c r="U201" t="n">
         <v>360.55</v>
@@ -16115,7 +16115,7 @@
         <v>370.27</v>
       </c>
       <c r="Z201" t="n">
-        <v>368.19</v>
+        <v>366.48</v>
       </c>
       <c r="AA201" t="n">
         <v>367.15</v>
@@ -16187,7 +16187,7 @@
         <v>361.68</v>
       </c>
       <c r="T202" t="n">
-        <v>361.26</v>
+        <v>361.29</v>
       </c>
       <c r="U202" t="n">
         <v>359.7</v>
@@ -16205,7 +16205,7 @@
         <v>367.07</v>
       </c>
       <c r="Z202" t="n">
-        <v>363.02</v>
+        <v>362.59</v>
       </c>
       <c r="AA202" t="n">
         <v>369.95</v>
@@ -16259,7 +16259,7 @@
         <v>378.91</v>
       </c>
       <c r="T203" t="n">
-        <v>383.15</v>
+        <v>383.24</v>
       </c>
       <c r="U203" t="n">
         <v>371.12</v>
@@ -16277,7 +16277,7 @@
         <v>386.08</v>
       </c>
       <c r="Z203" t="n">
-        <v>380.28</v>
+        <v>379.14</v>
       </c>
       <c r="AA203" t="n">
         <v>376.8</v>
@@ -19924,7 +19924,7 @@
         <v>0.2</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4337625818709532</v>
+        <v>0.4352379270454777</v>
       </c>
       <c r="J20" t="n">
         <v>202</v>
@@ -19933,19 +19933,19 @@
         <v>149</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03539086477173781</v>
+        <v>0.03535814151494077</v>
       </c>
       <c r="M20" t="n">
-        <v>14.10317827443068</v>
+        <v>14.15817861514652</v>
       </c>
       <c r="N20" t="n">
-        <v>311.6841114574152</v>
+        <v>314.1090414979624</v>
       </c>
       <c r="O20" t="n">
-        <v>17.65457763463672</v>
+        <v>17.72312166346444</v>
       </c>
       <c r="P20" t="n">
-        <v>369.514495082636</v>
+        <v>369.462317371838</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -20392,7 +20392,7 @@
         <v>0.042</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2672884053052795</v>
+        <v>-0.3063728360512696</v>
       </c>
       <c r="J26" t="n">
         <v>202</v>
@@ -20401,19 +20401,19 @@
         <v>142</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01359162233800393</v>
+        <v>0.01697394196903956</v>
       </c>
       <c r="M26" t="n">
-        <v>14.29607767491441</v>
+        <v>14.77604965149099</v>
       </c>
       <c r="N26" t="n">
-        <v>321.9268520719426</v>
+        <v>337.5159804462156</v>
       </c>
       <c r="O26" t="n">
-        <v>17.94232014183067</v>
+        <v>18.37160799838206</v>
       </c>
       <c r="P26" t="n">
-        <v>387.0889440915799</v>
+        <v>388.124133142897</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-34.719665893553916,173.08169743230863</t>
+          <t>-34.719665257346044,173.08169804262104</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>-34.722054564288015,173.0860805929091</t>
+          <t>-34.72206471144485,173.0860763634918</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -21081,7 +21081,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-34.722181190561265,173.0860278139723</t>
+          <t>-34.722143842208546,173.08604338110976</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -21193,7 +21193,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-34.71986000749806,173.08151121878208</t>
+          <t>-34.71986007818773,173.08151115096928</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -21223,7 +21223,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-34.72209472656328,173.08606385294047</t>
+          <t>-34.722093532780185,173.0860643505194</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-34.71980946438317,173.0815597049079</t>
+          <t>-34.71980833334821,173.08156078991144</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -21365,7 +21365,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-34.721983022564224,173.08611041204887</t>
+          <t>-34.72200092931348,173.08610294838343</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -21477,7 +21477,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-34.71996165918576,173.08141370384968</t>
+          <t>-34.719963921253026,173.08141153383457</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -21507,7 +21507,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-34.7220259987616,173.08609249924638</t>
+          <t>-34.72198984418304,173.0861075687481</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-34.71994419885285,173.0814304536499</t>
+          <t>-34.71994624885157,173.08142848707453</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -21649,7 +21649,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>-34.722080145355356,173.08606993051055</t>
+          <t>-34.722047657399656,173.0860834717556</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -21959,7 +21959,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-34.71998265399595,173.08139356339234</t>
+          <t>-34.71998152296248,173.08139464840042</t>
         </is>
       </c>
       <c r="U13" t="inlineStr"/>
@@ -22069,7 +22069,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-34.7200276832575,173.08135036648486</t>
+          <t>-34.72002634015573,173.08135165493331</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -22099,7 +22099,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-34.722211632025214,173.08601512567873</t>
+          <t>-34.72223269376553,173.08600634693795</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -22179,7 +22179,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-34.71995176264108,173.08142319766444</t>
+          <t>-34.71995147988266,173.08142346891626</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -22209,7 +22209,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-34.7222012290601,173.08601946173528</t>
+          <t>-34.72220574838103,173.0860175780387</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -22321,7 +22321,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-34.720026622914006,173.081351383681</t>
+          <t>-34.72002895566968,173.0813491458494</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -22347,7 +22347,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-34.722006045527465,173.08610081590697</t>
+          <t>-34.72196869716444,173.08611638297893</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -22549,7 +22549,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-34.72006380562089,173.08131571398675</t>
+          <t>-34.72006451251636,173.08131503585537</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -22579,7 +22579,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-34.72218153164211,173.08602767180662</t>
+          <t>-34.72216976435315,173.08603257652268</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -22683,7 +22683,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-34.71999976087579,173.08137715264178</t>
+          <t>-34.71999827639458,173.08137857671545</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -22767,7 +22767,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-34.722247616050744,173.08600012717966</t>
+          <t>-34.72222450782605,173.0860097589187</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -22863,7 +22863,7 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-34.719999972944535,173.0813769492027</t>
+          <t>-34.72000018501329,173.08137674576358</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -22893,7 +22893,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>-34.72216797367871,173.0860333228924</t>
+          <t>-34.72216430705962,173.08603485117317</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -22993,7 +22993,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-34.71989634197693,173.08147636298523</t>
+          <t>-34.71989676611475,173.08147595610805</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -23111,7 +23111,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-34.72005475735858,173.0813243940674</t>
+          <t>-34.720056736666024,173.0813224952999</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -23137,7 +23137,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>-34.72217044651482,173.08603229219136</t>
+          <t>-34.72213957869783,173.08604515817936</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -23237,7 +23237,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-34.71997530227828,173.08140061594423</t>
+          <t>-34.719977705724496,173.0813983103024</t>
         </is>
       </c>
       <c r="U24" t="inlineStr"/>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-34.719934797134165,173.08143947277017</t>
+          <t>-34.71993536265108,173.08143893026676</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -23447,7 +23447,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>-34.722113656552025,173.0860559627586</t>
+          <t>-34.72210478844925,173.08605965906045</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -23551,7 +23551,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-34.71979532644542,173.08157326745004</t>
+          <t>-34.71979518506604,173.08157340307545</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -23669,7 +23669,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-34.719619026232664,173.0817423919627</t>
+          <t>-34.71961732967774,173.08174401946056</t>
         </is>
       </c>
       <c r="U28" t="inlineStr"/>
@@ -23751,7 +23751,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-34.71998470399406,173.08139159681517</t>
+          <t>-34.71998307813349,173.0813931565143</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -23781,7 +23781,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>-34.72224139132608,173.08600272170767</t>
+          <t>-34.72226697238591,173.08599205926126</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-34.72000499190472,173.08137213447702</t>
+          <t>-34.720003224665234,173.08137382980303</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -23915,7 +23915,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>-34.722228771336205,173.08600798184546</t>
+          <t>-34.72225682523229,173.0859962886991</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -24015,7 +24015,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-34.719890474736864,173.08148199145256</t>
+          <t>-34.719890686805776,173.081481788014</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-34.719901502320376,173.08147141264587</t>
+          <t>-34.71990270404417,173.08147025982703</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -24167,7 +24167,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>-34.72199803012553,173.0861041567866</t>
+          <t>-34.721978929592886,173.0861121180291</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>-34.721908581643994,173.08614143953798</t>
+          <t>-34.72190943434646,173.08614108412604</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -24475,7 +24475,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-34.71988976784044,173.08148266958108</t>
+          <t>-34.719892666115705,173.081479889254</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -24505,7 +24505,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>-34.72178502504581,173.08619293865</t>
+          <t>-34.72173957599434,173.0862118820392</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -24601,7 +24601,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-34.72005044529587,173.08132853066763</t>
+          <t>-34.720049667710775,173.0813292766119</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -24735,7 +24735,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>-34.719787267820216,173.08158099809697</t>
+          <t>-34.71978804540687,173.08158025215744</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -24765,7 +24765,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>-34.721925635692934,173.08613433129796</t>
+          <t>-34.72191344204799,173.08613941368986</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -24869,7 +24869,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-34.71999884191122,173.08137803421118</t>
+          <t>-34.71999940742789,173.08137749170695</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -24899,7 +24899,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>-34.72211698209051,173.08605457664515</t>
+          <t>-34.722107602366485,173.08605848619553</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -24979,7 +24979,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-34.719661440098776,173.08170170449515</t>
+          <t>-34.71966023837275,173.0817028573073</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -25009,7 +25009,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>-34.72177240504685,173.0861981987301</t>
+          <t>-34.72179107923442,173.0861904152326</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -25105,7 +25105,7 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-34.719791791960745,173.08157665808486</t>
+          <t>-34.719792145409215,173.0815763190214</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>-34.721913356777755,173.08613944923107</t>
+          <t>-34.72190807002253,173.08614165278513</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-34.719746550548386,173.08162005818494</t>
+          <t>-34.71974499537456,173.08162155006255</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -25355,7 +25355,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>-34.72219091136503,173.0860237622493</t>
+          <t>-34.72221563972484,173.08601345523041</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-34.720014676376636,173.0813628440893</t>
+          <t>-34.720014605687076,173.08136291190237</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -25497,7 +25497,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>-34.72210188926178,173.08606086746667</t>
+          <t>-34.722102230342664,173.08606072530122</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -25605,7 +25605,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-34.72021607081544,173.08116964422135</t>
+          <t>-34.72021741391525,173.08116835576698</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -25851,7 +25851,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>-34.72011809518145,173.08126363346327</t>
+          <t>-34.72012113483066,173.08126071749444</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -25877,7 +25877,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>-34.72236580053726,173.08595086661515</t>
+          <t>-34.722317452340896,173.08597101868116</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr"/>
@@ -25977,7 +25977,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>-34.7198291161141,173.0815408529667</t>
+          <t>-34.7198285505967,173.08154139546872</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -26007,7 +26007,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>-34.72205763401615,173.0860793134216</t>
+          <t>-34.72206701374092,173.08607540387595</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -26119,7 +26119,7 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>-34.7199200230034,173.08145364566934</t>
+          <t>-34.719922002312885,173.08145174690802</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -26149,7 +26149,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>-34.72205993631225,173.08607835380596</t>
+          <t>-34.72202906848988,173.08609121975977</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -26241,7 +26241,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>-34.719909278179976,173.08146395322922</t>
+          <t>-34.71990991438666,173.08146334291325</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -26271,7 +26271,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>-34.722198500413484,173.0860205990614</t>
+          <t>-34.7221883532588,173.0860248284923</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -26327,7 +26327,7 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>-34.7198438195655,173.08152674791134</t>
+          <t>-34.7198453040485,173.08152532384295</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -26357,7 +26357,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>-34.721963239869204,173.08611865761839</t>
+          <t>-34.72193927893175,173.08612864470382</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-34.71993698851226,173.08143737056938</t>
+          <t>-34.719936352305716,173.08143798088577</t>
         </is>
       </c>
       <c r="U53" t="inlineStr"/>
@@ -26613,7 +26613,7 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>-34.72004344702983,173.08133524416553</t>
+          <t>-34.72004153841176,173.08133707511928</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -26739,7 +26739,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>-34.71996399194262,173.0814114660216</t>
+          <t>-34.71996575918264,173.0814097706972</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
@@ -26769,7 +26769,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>-34.72201107647117,173.08609871897158</t>
+          <t>-34.72198387526657,173.0861100566363</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -26881,7 +26881,7 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>-34.719904400595375,173.081468632318</t>
+          <t>-34.719906945422146,173.08146619105435</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -26911,7 +26911,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>-34.72197082892038,173.0861154944478</t>
+          <t>-34.72192981393485,173.08613258977869</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -27015,7 +27015,7 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>-34.7198219764568,173.08154770205428</t>
+          <t>-34.71982218852583,173.08154749861606</t>
         </is>
       </c>
       <c r="U57" t="inlineStr"/>
@@ -27085,7 +27085,7 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>-34.719770655740376,173.08159693407498</t>
+          <t>-34.71977178677567,173.08159584907241</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
@@ -27115,7 +27115,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>-34.7219205194783,173.0861364637703</t>
+          <t>-34.721902612726765,173.08614392742132</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -27207,7 +27207,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>-34.7198666523257,173.08150484437792</t>
+          <t>-34.719865874739504,173.08150559031887</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
@@ -27237,7 +27237,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>-34.722019944575244,173.08609502267802</t>
+          <t>-34.72203299092042,173.0860895848601</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -27341,7 +27341,7 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>-34.719757436764674,173.08160961504018</t>
+          <t>-34.71975885055894,173.0816082587874</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -27371,7 +27371,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>-34.721902527456514,173.0861439629625</t>
+          <t>-34.72188061300277,173.08615309704533</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -27483,7 +27483,7 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>-34.719822259215526,173.0815474308033</t>
+          <t>-34.719821481629054,173.0815481767435</t>
         </is>
       </c>
       <c r="U61" t="inlineStr"/>
@@ -27597,7 +27597,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>-34.719872731635796,173.08149901247538</t>
+          <t>-34.71987421611844,173.08149758840602</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -27731,7 +27731,7 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>-34.71978811609659,173.08158018434474</t>
+          <t>-34.71978875230385,173.08157957403057</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>-34.72177095545236,173.0861988029284</t>
+          <t>-34.721760808290824,173.08620303231586</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>-34.71991069197259,173.08146259697148</t>
+          <t>-34.7199111868,173.08146212228127</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>-34.72192776744902,173.08613344276773</t>
+          <t>-34.72192043420806,173.08613649931146</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -28097,7 +28097,7 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>-34.71989521094271,173.08147744799106</t>
+          <t>-34.71989634197693,173.08147636298523</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -28127,7 +28127,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>-34.72197799162028,173.08611250898286</t>
+          <t>-34.721960084870375,173.0861199726442</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -28239,7 +28239,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>-34.71991443852292,173.0814590028883</t>
+          <t>-34.71991351955775,173.08145988445588</t>
         </is>
       </c>
       <c r="U67" t="inlineStr"/>
@@ -28459,7 +28459,7 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>-34.71989506956344,173.0814775836168</t>
+          <t>-34.71989351439138,173.0814790754997</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -28489,7 +28489,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>-34.72210785817715,173.08605837957143</t>
+          <t>-34.72213224545931,173.08604821473864</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -28601,7 +28601,7 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>-34.71983618508132,173.0815340716907</t>
+          <t>-34.7198350540466,173.0815351566949</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -28631,7 +28631,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>-34.72206292077012,173.08607710985962</t>
+          <t>-34.72208116859804,173.0860695040145</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -28821,7 +28821,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>-34.71965076594376,173.0817119441784</t>
+          <t>-34.7196492107688,173.08171343605258</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -28851,7 +28851,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>-34.72189118651362,173.0861486899398</t>
+          <t>-34.721915573804125,173.08613852515992</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -28923,7 +28923,7 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>-34.71979871955061,173.08157001244035</t>
+          <t>-34.719799285068156,173.0815694699387</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
@@ -28953,7 +28953,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>-34.72199112323656,173.08610703562917</t>
+          <t>-34.7219822551321,173.08611073192017</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -29065,7 +29065,7 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>-34.7197348160545,173.08163131507817</t>
+          <t>-34.71973375570861,173.08163233226716</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
@@ -29095,7 +29095,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>-34.7221289199209,173.08604960085256</t>
+          <t>-34.722145121261754,173.08604284798884</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>-34.71984700060045,173.08152369633618</t>
+          <t>-34.7198453040485,173.08152532384295</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
@@ -29425,7 +29425,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>-34.72228598763969,173.0859841335052</t>
+          <t>-34.72231190977847,173.08597332888124</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -29537,7 +29537,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>-34.71964659524719,173.08171594511353</t>
+          <t>-34.7196455349006,173.08171696230036</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
@@ -29567,7 +29567,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>-34.72202506078907,173.0860928902006</t>
+          <t>-34.72204211483487,173.08608578194068</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -29729,7 +29729,7 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>-34.71985307991146,173.0815178644364</t>
+          <t>-34.71985364542874,173.08151732193403</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
@@ -29759,7 +29759,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>-34.72205439374756,173.08608066399174</t>
+          <t>-34.72204586672489,173.08608421812312</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -29859,7 +29859,7 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>-34.71990701611179,173.08146612324148</t>
+          <t>-34.71990807645625,173.08146510604823</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
@@ -30193,7 +30193,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>-34.72175577734514,173.08620512923866</t>
+          <t>-34.72177931193821,173.08619531990269</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -30301,7 +30301,7 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>-34.719934231617216,173.08144001527359</t>
+          <t>-34.7199325350664,173.08144164278377</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
@@ -30331,7 +30331,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>-34.72224701915934,173.08600037597003</t>
+          <t>-34.72227464670364,173.08598886052607</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -30501,7 +30501,7 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>-34.71997812986205,173.08139790342443</t>
+          <t>-34.71998060399779,173.08139552996943</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
@@ -30531,7 +30531,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>-34.7220665873898,173.0860755815826</t>
+          <t>-34.72202761889598,173.08609182396182</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -30643,7 +30643,7 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>-34.71974697468671,173.0816196513092</t>
+          <t>-34.71974605572036,173.08162053287327</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
@@ -30673,7 +30673,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>-34.7219672475704,173.08611698718005</t>
+          <t>-34.721981828780926,173.08611090962646</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>-34.71993515058223,173.08143913370554</t>
+          <t>-34.71993712989149,173.08143723494354</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -30815,7 +30815,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>-34.72210871087933,173.0860580241578</t>
+          <t>-34.722077075627325,173.08607120999875</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -30927,7 +30927,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>-34.72006111941809,173.0813182908859</t>
+          <t>-34.72006239182994,173.08131707024947</t>
         </is>
       </c>
       <c r="U91" t="inlineStr"/>
@@ -31041,7 +31041,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>-34.7198171695586,173.08155231332051</t>
+          <t>-34.71981625059276,173.08155319488606</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -31071,7 +31071,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>-34.72223798051804,173.0860041433667</t>
+          <t>-34.72225256172233,173.08599806577354</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -31183,7 +31183,7 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>-34.71989429197741,173.08147832955825</t>
+          <t>-34.71989620059764,173.08147649861095</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
@@ -31209,7 +31209,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>-34.7220985637232,173.08606225357957</t>
+          <t>-34.72206812225384,173.0860749418387</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -31321,7 +31321,7 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>-34.719840779909816,173.08152966386066</t>
+          <t>-34.71984233508251,173.0815281719796</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
@@ -31443,7 +31443,7 @@
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>-34.71990715749104,173.0814659876157</t>
+          <t>-34.71990729887031,173.08146585198992</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
@@ -31473,7 +31473,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>-34.72226160036343,173.08599429837554</t>
+          <t>-34.722259127527664,173.08599532907888</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -31527,7 +31527,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>-34.72182612531096,173.0861758078374</t>
+          <t>-34.72184769868557,173.08616681593114</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -31639,7 +31639,7 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>-34.72000541604219,173.0813717275988</t>
+          <t>-34.72000831431488,173.08136894726397</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -31665,7 +31665,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>-34.72201423146976,173.08609740394414</t>
+          <t>-34.721968356083494,173.0861165251439</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -31773,7 +31773,7 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>-34.71992928334393,173.0814447621781</t>
+          <t>-34.71993055575708,173.08144354154558</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>-34.722097881561446,173.0860625379104</t>
+          <t>-34.72207716089756,173.0860711744574</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -31997,7 +31997,7 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>-34.7200507280541,173.0813282594152</t>
+          <t>-34.720048465988356,173.08133042943481</t>
         </is>
       </c>
       <c r="U100" t="inlineStr"/>
@@ -32111,7 +32111,7 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>-34.71996505228664,173.08141044882697</t>
+          <t>-34.71996618332023,173.08140936381935</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
@@ -32137,7 +32137,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>-34.72210845506868,173.0860581307819</t>
+          <t>-34.722090207241564,173.086065736632</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -32245,7 +32245,7 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>-34.72007285388256,173.08130703390424</t>
+          <t>-34.72007447974201,173.0813054742017</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
@@ -32375,7 +32375,7 @@
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>-34.719999972944535,173.0813769492027</t>
+          <t>-34.719998488463325,173.08137837327635</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
@@ -32405,7 +32405,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>-34.7224288152004,173.08592460136524</t>
+          <t>-34.72245234976849,173.0859147918706</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -32651,7 +32651,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>-34.72209472656328,173.08606385294047</t>
+          <t>-34.72213002843369,173.0860491388146</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>-34.720010929829186,173.0813664381812</t>
+          <t>-34.7200120608624,173.08136535317232</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>-34.722259724419054,173.0859950802884</t>
+          <t>-34.72224147659629,173.08600268616618</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -33003,7 +33003,7 @@
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>-34.71994631954118,173.08142841926158</t>
+          <t>-34.7199470971269,173.08142767331915</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
@@ -33033,7 +33033,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>-34.722152625040565,173.08603972034584</t>
+          <t>-34.72213957869783,173.08604515817936</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -33095,7 +33095,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>-34.722118772765086,173.08605383027637</t>
+          <t>-34.722130540055,173.0860489255663</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
@@ -33175,7 +33175,7 @@
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>-34.71987393335984,173.08149785965733</t>
+          <t>-34.71987428680809,173.0814975205932</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
@@ -33205,7 +33205,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>-34.72222024431587,173.08601153599173</t>
+          <t>-34.72221419013136,173.08601405943514</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -33317,7 +33317,7 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>-34.71994886436714,173.08142597799545</t>
+          <t>-34.719950490228136,173.0814244182976</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>-34.7222098413509,173.0860158720492</t>
+          <t>-34.72218340758671,173.0860268898952</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -33459,7 +33459,7 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>-34.71996929366259,173.08140638004818</t>
+          <t>-34.71997091952334,173.08140482034955</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
@@ -33489,7 +33489,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>-34.722226980661944,173.08600872821626</t>
+          <t>-34.72220139960053,173.0860193906524</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
@@ -33601,7 +33601,7 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>-34.720035317730435,173.0813430426717</t>
+          <t>-34.72003659014255,173.08134182203608</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
@@ -33631,7 +33631,7 @@
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>-34.722275073054625,173.08598868281857</t>
+          <t>-34.72225520509851,173.08599696398744</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
@@ -33743,7 +33743,7 @@
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>-34.719877326463,173.08149460464145</t>
+          <t>-34.719876548876854,173.08149535058263</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
@@ -33773,7 +33773,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>-34.72208602900069,173.086067478158</t>
+          <t>-34.72209822264233,173.086062395745</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
@@ -33881,7 +33881,7 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>-34.720022593608626,173.0813552490262</t>
+          <t>-34.7200230884356,173.0813547743347</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
@@ -33911,7 +33911,7 @@
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>-34.722340475292015,173.0859614224622</t>
+          <t>-34.722333142055824,173.08596447903622</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
@@ -34023,7 +34023,7 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>-34.71991182300667,173.08146151196527</t>
+          <t>-34.71991351955775,173.08145988445588</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>-34.72208619954114,173.0860674070753</t>
+          <t>-34.72206027739313,173.08607821164065</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr"/>
@@ -34161,7 +34161,7 @@
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>-34.72001064707089,173.08136670943335</t>
+          <t>-34.7200120608624,173.08136535317232</t>
         </is>
       </c>
       <c r="U118" t="inlineStr"/>
@@ -34261,7 +34261,7 @@
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>-34.71989641266656,173.08147629517237</t>
+          <t>-34.71989924025204,173.0814735826577</t>
         </is>
       </c>
       <c r="U120" t="inlineStr">
@@ -34291,7 +34291,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>-34.722019177143174,173.0860953425496</t>
+          <t>-34.72197449554057,173.08611396617414</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr"/>
@@ -34399,7 +34399,7 @@
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>-34.71989358508103,173.08147900768685</t>
+          <t>-34.719892100598585,173.08148043175686</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
@@ -34429,7 +34429,7 @@
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>-34.72222152336893,173.08601100286984</t>
+          <t>-34.72224548429573,173.08600101571668</t>
         </is>
       </c>
       <c r="AA121" t="inlineStr">
@@ -34511,7 +34511,7 @@
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>-34.72200766566188,173.08610014062273</t>
+          <t>-34.72200399904188,173.08610166889758</t>
         </is>
       </c>
       <c r="AA122" t="inlineStr">
@@ -34623,7 +34623,7 @@
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>-34.7196341538465,173.08172788010407</t>
+          <t>-34.71963302281,173.08172896510303</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
@@ -34653,7 +34653,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>-34.72188129516476,173.08615281271597</t>
+          <t>-34.72189954299789,173.086145206904</t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
@@ -34765,7 +34765,7 @@
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>-34.719683565993435,173.0816804791831</t>
+          <t>-34.71968257633689,173.0816814285583</t>
         </is>
       </c>
       <c r="U124" t="inlineStr">
@@ -34795,7 +34795,7 @@
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>-34.72201670430646,173.0860963732469</t>
+          <t>-34.72203256456928,173.0860897625666</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
@@ -34907,7 +34907,7 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>-34.71964397972556,173.08171845417434</t>
+          <t>-34.71964327282781,173.08171913229887</t>
         </is>
       </c>
       <c r="U125" t="inlineStr">
@@ -34937,7 +34937,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>-34.72186628760067,173.08615906796066</t>
+          <t>-34.72187762854403,173.08615434098618</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -35049,7 +35049,7 @@
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>-34.71978535919838,173.08158282903946</t>
+          <t>-34.71978620747476,173.08158201528727</t>
         </is>
       </c>
       <c r="U126" t="inlineStr">
@@ -35079,7 +35079,7 @@
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>-34.72194908500946,173.08612455746317</t>
+          <t>-34.72193655028401,173.0861297820228</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
@@ -35191,7 +35191,7 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>-34.719735169503124,173.08163097601516</t>
+          <t>-34.719733967777785,173.08163212882937</t>
         </is>
       </c>
       <c r="U127" t="inlineStr">
@@ -35221,7 +35221,7 @@
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>-34.721983363645165,173.08611026988385</t>
+          <t>-34.722002464177685,173.08610230864053</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
@@ -35333,7 +35333,7 @@
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>-34.71995727643036,173.08141790825366</t>
+          <t>-34.719959679876894,173.08141560261282</t>
         </is>
       </c>
       <c r="U128" t="inlineStr">
@@ -35363,7 +35363,7 @@
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>-34.72185852800774,173.08616230220562</t>
+          <t>-34.721819900582176,173.0861784023392</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>-34.719561767491484,173.08179731997805</t>
+          <t>-34.719560707144176,173.0817983371628</t>
         </is>
       </c>
       <c r="U129" t="inlineStr">
@@ -35481,7 +35481,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>-34.72156306651398,173.0862854518537</t>
+          <t>-34.72157977949104,173.08627848583632</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr"/>
@@ -35643,7 +35643,7 @@
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>-34.719736583297625,173.08162961976313</t>
+          <t>-34.71973467467504,173.08163145070338</t>
         </is>
       </c>
       <c r="U131" t="inlineStr"/>
@@ -35665,7 +35665,7 @@
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>-34.72188615556895,173.08615078686918</t>
+          <t>-34.72191659704705,173.08613809866554</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr"/>
@@ -35773,7 +35773,7 @@
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>-34.71967522460229,173.08168848105925</t>
+          <t>-34.71967458839446,173.08168909137177</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
@@ -35803,7 +35803,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>-34.72184829557737,173.08616656714312</t>
+          <t>-34.72185844273749,173.0861623377468</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
@@ -35915,7 +35915,7 @@
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>-34.71977433160503,173.0815934078166</t>
+          <t>-34.71977404884621,173.08159367906723</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
@@ -35945,7 +35945,7 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>-34.72190551191514,173.08614271902087</t>
+          <t>-34.7219095196167,173.08614104858486</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
@@ -36057,7 +36057,7 @@
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>-34.719675012533,173.08168868449678</t>
+          <t>-34.71967374011735,173.0816899051218</t>
         </is>
       </c>
       <c r="U134" t="inlineStr">
@@ -36087,7 +36087,7 @@
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>-34.72192725582755,173.086133656015</t>
+          <t>-34.721947123793925,173.08612537491135</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
@@ -36309,7 +36309,7 @@
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>-34.719731705706536,173.08163429883248</t>
+          <t>-34.71973354363942,173.08163253570495</t>
         </is>
       </c>
       <c r="U136" t="inlineStr">
@@ -36339,7 +36339,7 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>-34.721857760575475,173.08616262207596</t>
+          <t>-34.721827660175585,173.0861751680972</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
@@ -36451,7 +36451,7 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>-34.71957533993612,173.0817843000109</t>
+          <t>-34.719575127866676,173.08178450344792</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
@@ -36481,7 +36481,7 @@
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>-34.72192026366757,173.08613657039388</t>
+          <t>-34.721923930288064,173.08613504212207</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
@@ -36593,7 +36593,7 @@
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>-34.7195095277044,173.08184743324946</t>
+          <t>-34.719508043217594,173.08184885730634</t>
         </is>
       </c>
       <c r="U138" t="inlineStr">
@@ -36623,7 +36623,7 @@
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>-34.72187822543578,173.08615409219803</t>
+          <t>-34.72190133367307,173.08614446053912</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
@@ -36735,7 +36735,7 @@
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>-34.71968059702377,173.08168332730867</t>
+          <t>-34.71967875909012,173.08168509043395</t>
         </is>
       </c>
       <c r="U139" t="inlineStr">
@@ -36765,7 +36765,7 @@
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>-34.72207110671168,173.08607369789215</t>
+          <t>-34.722100354397824,173.0860615072111</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
@@ -36877,7 +36877,7 @@
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>-34.71970413671003,173.08166074573586</t>
+          <t>-34.7197039246408,173.0816609491735</t>
         </is>
       </c>
       <c r="U140" t="inlineStr">
@@ -36907,7 +36907,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>-34.72192546515245,173.08613440238037</t>
+          <t>-34.72192870542168,173.08613305181444</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr">
@@ -37019,7 +37019,7 @@
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>-34.719618107265404,173.08174327352407</t>
+          <t>-34.7196187434735,173.0817426632124</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
@@ -37049,7 +37049,7 @@
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>-34.72179261409912,173.08618977549293</t>
+          <t>-34.721782040586625,173.086194182588</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
@@ -37157,7 +37157,7 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>-34.71978352126623,173.08158459216918</t>
+          <t>-34.719786490233545,173.0815817440365</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
@@ -37187,7 +37187,7 @@
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>-34.72182919504019,173.086174528357</t>
+          <t>-34.721782040586625,173.086194182588</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
@@ -37247,7 +37247,7 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>-34.719569119232496,173.0817902674964</t>
+          <t>-34.71956678646857,173.0817925053032</t>
         </is>
       </c>
       <c r="U143" t="inlineStr"/>
@@ -37399,7 +37399,7 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>-34.71991245921332,173.08146090164925</t>
+          <t>-34.719911964385915,173.0814613763395</t>
         </is>
       </c>
       <c r="U145" t="inlineStr"/>
@@ -37501,7 +37501,7 @@
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>-34.71986163336017,173.08150965908752</t>
+          <t>-34.71986311784296,173.08150823501856</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
@@ -37531,7 +37531,7 @@
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>-34.72191190718357,173.0861400534314</t>
+          <t>-34.72188794624418,173.0861500405045</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
@@ -37621,7 +37621,7 @@
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>-34.7218900780004,173.0861491519751</t>
+          <t>-34.721863303141866,173.08616031190112</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>-34.71959414342478,173.08176626192437</t>
+          <t>-34.71959506239219,173.08176538036352</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
@@ -37763,7 +37763,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>-34.7219267442061,173.08613386926223</t>
+          <t>-34.721912162994315,173.0861399468078</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
@@ -37843,7 +37843,7 @@
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>-34.71993430230684,173.08143994746067</t>
+          <t>-34.719932464376775,173.0814417105967</t>
         </is>
       </c>
       <c r="U149" t="inlineStr">
@@ -37973,7 +37973,7 @@
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>-34.71980805058946,173.08156106116232</t>
+          <t>-34.71980995921096,173.08155923021886</t>
         </is>
       </c>
       <c r="U150" t="inlineStr">
@@ -38003,7 +38003,7 @@
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>-34.721903465429236,173.0861435720094</t>
+          <t>-34.72187387665301,173.08615590479744</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
@@ -38115,7 +38115,7 @@
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>-34.71991076266222,173.08146252915859</t>
+          <t>-34.71991359024737,173.081459816643</t>
         </is>
       </c>
       <c r="U151" t="inlineStr">
@@ -38141,7 +38141,7 @@
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>-34.72201858025155,173.0860955913386</t>
+          <t>-34.721973898648926,173.0861142149629</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
@@ -38253,7 +38253,7 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>-34.71993182817021,173.081442320913</t>
+          <t>-34.7199341609276,173.0814400830865</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
@@ -38279,7 +38279,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>-34.72195633297986,173.08612153645856</t>
+          <t>-34.72191941096512,173.0861369258059</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
@@ -38391,7 +38391,7 @@
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>-34.719853291980435,173.081517660998</t>
+          <t>-34.71985159542856,173.081519288505</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
@@ -38421,7 +38421,7 @@
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>-34.72219167879691,173.0860234423764</t>
+          <t>-34.72221930634362,173.08601192694778</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
@@ -38577,7 +38577,7 @@
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>-34.72207605238465,173.08607163649478</t>
+          <t>-34.72208619954114,173.0860674070753</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
@@ -38689,7 +38689,7 @@
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>-34.719934726444535,173.0814395405831</t>
+          <t>-34.7199337367899,173.08144048996405</t>
         </is>
       </c>
       <c r="U156" t="inlineStr">
@@ -38719,7 +38719,7 @@
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>-34.722254608207116,173.08599721277787</t>
+          <t>-34.72227046846398,173.08599060205975</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
@@ -38831,7 +38831,7 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>-34.71995678160313,173.08141838294438</t>
+          <t>-34.71995890229125,173.08141634855545</t>
         </is>
       </c>
       <c r="U157" t="inlineStr">
@@ -38861,7 +38861,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>-34.72213156329759,173.0860484990697</t>
+          <t>-34.722098307912546,173.08606236020364</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
@@ -38973,7 +38973,7 @@
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>-34.71987796266983,173.08149399432597</t>
+          <t>-34.719879659221355,173.0814923668179</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
@@ -39003,7 +39003,7 @@
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>-34.72205507590938,173.0860803796612</t>
+          <t>-34.72202830105781,173.08609153963144</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
@@ -39115,7 +39115,7 @@
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>-34.7197391988174,173.08162711069673</t>
+          <t>-34.719736866056515,173.0816293485127</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
@@ -39145,7 +39145,7 @@
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>-34.722192275688364,173.08602319358636</t>
+          <t>-34.722229624038235,173.0860076264308</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr">
@@ -39257,7 +39257,7 @@
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>-34.71989167646075,173.081480838634</t>
+          <t>-34.719891323012554,173.08148117769827</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
@@ -39287,7 +39287,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>-34.7221090519602,173.08605788199233</t>
+          <t>-34.72211510614572,173.0860553585553</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
@@ -39399,7 +39399,7 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>-34.7199241936912,173.08144964470787</t>
+          <t>-34.719923840243084,173.08144998377244</t>
         </is>
       </c>
       <c r="U161" t="inlineStr">
@@ -39429,7 +39429,7 @@
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>-34.722224337285645,173.08600983000161</t>
+          <t>-34.722229624038235,173.0860076264308</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
@@ -39533,7 +39533,7 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>-34.72003835738159,173.0813401267087</t>
+          <t>-34.720037297038175,173.08134114390512</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
@@ -39563,7 +39563,7 @@
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>-34.722418838589725,173.08592875973628</t>
+          <t>-34.722435892624965,173.0859216514091</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
@@ -39643,7 +39643,7 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>-34.7199627195298,173.0814126866551</t>
+          <t>-34.71996498159703,173.08141051663995</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
@@ -39673,7 +39673,7 @@
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>-34.72207230049481,173.08607320031348</t>
+          <t>-34.72203614591889,173.08608826983198</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
@@ -39781,7 +39781,7 @@
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>-34.71985279715281,173.08151813568756</t>
+          <t>-34.71985138335957,173.0815194919434</t>
         </is>
       </c>
       <c r="U164" t="inlineStr">
@@ -39811,7 +39811,7 @@
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>-34.72217684178057,173.08602962658492</t>
+          <t>-34.72219918257515,173.0860203147299</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
@@ -39887,7 +39887,7 @@
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr">
         <is>
-          <t>-34.719983290202265,173.0813929530753</t>
+          <t>-34.71998272468553,173.08139349557933</t>
         </is>
       </c>
       <c r="U165" t="inlineStr">
@@ -39913,7 +39913,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>-34.72234311866783,173.08596032067373</t>
+          <t>-34.72235198676726,173.0859566243507</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
@@ -40023,7 +40023,7 @@
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>-34.72237083147813,173.08594876966163</t>
+          <t>-34.722375691878575,173.085946743791</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
@@ -40085,7 +40085,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>-34.72222663958113,173.0860088703821</t>
+          <t>-34.722224593096264,173.08600972337723</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
@@ -40183,7 +40183,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>-34.72211050155393,173.08605727778914</t>
+          <t>-34.722108028717585,173.0860583084887</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
@@ -40291,7 +40291,7 @@
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>-34.71984346611717,173.0815270869752</t>
+          <t>-34.71984304197917,173.0815274938519</t>
         </is>
       </c>
       <c r="U169" t="inlineStr">
@@ -40321,7 +40321,7 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>-34.72217556272743,173.08603015970624</t>
+          <t>-34.7221824696144,173.08602728085094</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr"/>
@@ -40411,7 +40411,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>-34.72234618839457,173.0859590411774</t>
+          <t>-34.72237782363315,173.0859458552512</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
@@ -40523,7 +40523,7 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>-34.71997254538405,173.08140326065086</t>
+          <t>-34.7199716971089,173.08140407440672</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
@@ -40553,7 +40553,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>-34.72227123589577,173.08599028218623</t>
+          <t>-34.72228462331657,173.08598470216944</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
@@ -40665,7 +40665,7 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>-34.72004811254057,173.0813307685004</t>
+          <t>-34.72004853667789,173.0813303616217</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
@@ -40695,7 +40695,7 @@
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>-34.72233970786033,173.08596174233622</t>
+          <t>-34.72233322732601,173.08596444349465</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
@@ -40807,7 +40807,7 @@
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>-34.719919528176035,173.08145412035967</t>
+          <t>-34.7199188919694,173.08145473067577</t>
         </is>
       </c>
       <c r="U173" t="inlineStr">
@@ -40837,7 +40837,7 @@
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>-34.72222442255585,173.08600979446015</t>
+          <t>-34.722234996060976,173.08600538731824</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
@@ -40949,7 +40949,7 @@
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>-34.7198731557737,173.08149860559843</t>
+          <t>-34.71987230749788,173.08149941935233</t>
         </is>
       </c>
       <c r="U174" t="inlineStr">
@@ -40979,7 +40979,7 @@
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>-34.72203196767767,173.08609001135568</t>
+          <t>-34.72204620780578,173.08608407595787</t>
         </is>
       </c>
       <c r="AA174" t="inlineStr">
@@ -41047,7 +41047,7 @@
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>-34.720004426388094,173.08137267698137</t>
+          <t>-34.72000661776503,173.08137057477705</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
@@ -41173,7 +41173,7 @@
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t>-34.71995522643181,173.08141987482955</t>
+          <t>-34.71995423677732,173.08142082421097</t>
         </is>
       </c>
       <c r="U176" t="inlineStr">
@@ -41203,7 +41203,7 @@
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>-34.722250429967346,173.0859989543107</t>
+          <t>-34.72226543752233,173.08599269900824</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr">
@@ -41315,7 +41315,7 @@
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>-34.71989747301112,173.08147527797942</t>
+          <t>-34.719898886803854,173.08147392172208</t>
         </is>
       </c>
       <c r="U177" t="inlineStr">
@@ -41345,7 +41345,7 @@
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>-34.72213343924234,173.08604771715923</t>
+          <t>-34.72211067209438,173.0860572067064</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
@@ -41457,7 +41457,7 @@
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>-34.71982423852648,173.08154553204648</t>
+          <t>-34.71982487473357,173.08154492173173</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
@@ -41487,7 +41487,7 @@
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>-34.72219901203473,173.08602038581276</t>
+          <t>-34.72218886488005,173.0860246152437</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
@@ -41599,7 +41599,7 @@
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>-34.71979942644754,173.0815693343133</t>
+          <t>-34.71979879024032,173.08156994462763</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
@@ -41629,7 +41629,7 @@
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>-34.72219935311556,173.086020243647</t>
+          <t>-34.72220950027008,173.08601601421498</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr">
@@ -41741,7 +41741,7 @@
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>-34.71998880399019,173.08138766366048</t>
+          <t>-34.71999099536739,173.08138556145695</t>
         </is>
       </c>
       <c r="U180" t="inlineStr">
@@ -41771,7 +41771,7 @@
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>-34.72230909586214,173.08597450175193</t>
+          <t>-34.722274135082465,173.08598907377512</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr">
@@ -41883,7 +41883,7 @@
       </c>
       <c r="T181" t="inlineStr">
         <is>
-          <t>-34.719937624718796,173.081436760253</t>
+          <t>-34.719940522992985,173.08143397992274</t>
         </is>
       </c>
       <c r="U181" t="inlineStr">
@@ -41913,7 +41913,7 @@
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>-34.72216686516597,173.08603378493078</t>
+          <t>-34.722121416141825,173.0860527284938</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
@@ -42025,7 +42025,7 @@
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>-34.71967402287639,173.08168963387178</t>
+          <t>-34.719675507361316,173.08168820980924</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
@@ -42055,7 +42055,7 @@
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>-34.72204552564397,173.08608436028837</t>
+          <t>-34.72202199106077,173.08609416968707</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
@@ -42167,7 +42167,7 @@
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>-34.71978854023476,173.08157977746862</t>
+          <t>-34.71978825747596,173.08158004871936</t>
         </is>
       </c>
       <c r="U183" t="inlineStr">
@@ -42197,7 +42197,7 @@
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>-34.722116129388326,173.08605493205886</t>
+          <t>-34.72212013708857,173.0860532616144</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
@@ -42283,7 +42283,7 @@
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>-34.722107261285615,173.08605862836097</t>
+          <t>-34.72209754048055,173.08606268007583</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
@@ -42373,7 +42373,7 @@
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>-34.722114850335075,173.0860554651794</t>
+          <t>-34.722122524654644,173.0860522664559</t>
         </is>
       </c>
       <c r="AA185" t="inlineStr">
@@ -42481,7 +42481,7 @@
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t>-34.71994073506183,173.08143377648392</t>
+          <t>-34.71994250230216,173.08143208116047</t>
         </is>
       </c>
       <c r="U186" t="inlineStr">
@@ -42511,7 +42511,7 @@
       </c>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>-34.72217479529555,173.08603047957902</t>
+          <t>-34.7221459739639,173.0860424925749</t>
         </is>
       </c>
       <c r="AA186" t="inlineStr">
@@ -42623,7 +42623,7 @@
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>-34.71978083505764,173.08158716905092</t>
+          <t>-34.719779421263624,173.0815885253044</t>
         </is>
       </c>
       <c r="U187" t="inlineStr">
@@ -42653,7 +42653,7 @@
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>-34.72220191122176,173.08601917740373</t>
+          <t>-34.72222467836645,173.08600968783577</t>
         </is>
       </c>
       <c r="AA187" t="inlineStr">
@@ -42765,7 +42765,7 @@
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>-34.71984021439248,173.08153020636286</t>
+          <t>-34.71984176956517,173.08152871448183</t>
         </is>
       </c>
       <c r="U188" t="inlineStr">
@@ -42791,7 +42791,7 @@
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>-34.72210785817715,173.08605837957143</t>
+          <t>-34.722082618191806,173.0860688998117</t>
         </is>
       </c>
       <c r="AA188" t="inlineStr">
@@ -42945,7 +42945,7 @@
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t>-34.71982430921615,173.0815454642337</t>
+          <t>-34.71982459197486,173.08154519298273</t>
         </is>
       </c>
       <c r="U190" t="inlineStr">
@@ -42975,7 +42975,7 @@
       </c>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>-34.72213778802332,173.08604590454854</t>
+          <t>-34.7221337803232,173.08604757499373</t>
         </is>
       </c>
       <c r="AA190" t="inlineStr">
@@ -43087,7 +43087,7 @@
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t>-34.719831590252674,173.08153847952022</t>
+          <t>-34.719830600597234,173.08153942889882</t>
         </is>
       </c>
       <c r="U191" t="inlineStr">
@@ -43117,7 +43117,7 @@
       </c>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>-34.72211340074135,173.0860560693827</t>
+          <t>-34.7221284082996,173.08604981410082</t>
         </is>
       </c>
       <c r="AA191" t="inlineStr">
@@ -43287,7 +43287,7 @@
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t>-34.719745843651204,173.08162073631112</t>
+          <t>-34.71974400571849,173.08162249943916</t>
         </is>
       </c>
       <c r="U193" t="inlineStr">
@@ -43317,7 +43317,7 @@
       </c>
       <c r="Z193" t="inlineStr">
         <is>
-          <t>-34.72211519141594,173.08605532301394</t>
+          <t>-34.72214529180219,173.08604277690605</t>
         </is>
       </c>
       <c r="AA193" t="inlineStr">
@@ -43443,7 +43443,7 @@
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>-34.72213923761697,173.08604530034492</t>
+          <t>-34.72210112182981,173.08606118733888</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
@@ -43521,7 +43521,7 @@
       </c>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>-34.7220245491677,173.08609310344835</t>
+          <t>-34.72202335538447,173.08609360102645</t>
         </is>
       </c>
       <c r="AA195" t="inlineStr">
@@ -43595,7 +43595,7 @@
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>-34.721796280720355,173.08618824722583</t>
+          <t>-34.72181495490722,173.08618046372385</t>
         </is>
       </c>
       <c r="AA196" t="inlineStr">
@@ -43757,7 +43757,7 @@
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>-34.719939179890325,173.0814352683685</t>
+          <t>-34.71993868506302,173.08143574305902</t>
         </is>
       </c>
       <c r="U198" t="inlineStr">
@@ -43787,7 +43787,7 @@
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>-34.72207630819531,173.08607152987076</t>
+          <t>-34.72208364143449,173.08606847331558</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
@@ -43899,7 +43899,7 @@
       </c>
       <c r="T199" t="inlineStr">
         <is>
-          <t>-34.71987400404949,173.0814977918445</t>
+          <t>-34.71987343853228,173.0814983343471</t>
         </is>
       </c>
       <c r="U199" t="inlineStr">
@@ -43929,7 +43929,7 @@
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>-34.721986262833155,173.08610906148107</t>
+          <t>-34.721994789856645,173.0861055073548</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
@@ -44139,7 +44139,7 @@
       </c>
       <c r="T201" t="inlineStr">
         <is>
-          <t>-34.71991514541919,173.08145832475935</t>
+          <t>-34.71991422645404,173.08145920632697</t>
         </is>
       </c>
       <c r="U201" t="inlineStr">
@@ -44169,7 +44169,7 @@
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>-34.72220412824712,173.08601825332616</t>
+          <t>-34.72221870945219,173.08601217573798</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
@@ -44281,7 +44281,7 @@
       </c>
       <c r="T202" t="inlineStr">
         <is>
-          <t>-34.71997395917599,173.08140190439107</t>
+          <t>-34.71997374710719,173.08140210783003</t>
         </is>
       </c>
       <c r="U202" t="inlineStr">
@@ -44311,7 +44311,7 @@
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>-34.72224821294214,173.08599987838926</t>
+          <t>-34.72225187956074,173.08599835010543</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
@@ -44387,7 +44387,7 @@
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>-34.71981921955932,173.08155034675116</t>
+          <t>-34.7198185833522,173.0815509570658</t>
         </is>
       </c>
       <c r="U203" t="inlineStr">
@@ -44417,7 +44417,7 @@
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>-34.722101036559586,173.08606122288023</t>
+          <t>-34.72211075736459,173.08605717116504</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
